--- a/ULS_Murabha_MainRepository/TestData/MurabhaTestData.xlsx
+++ b/ULS_Murabha_MainRepository/TestData/MurabhaTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="23" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="Murabha_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -29,45 +29,49 @@
     <sheet name="Murabha_Offering_DocDetails" sheetId="90" r:id="rId20"/>
     <sheet name="mura_identificationDetail" sheetId="91" r:id="rId21"/>
     <sheet name="MU_DataCheck_EmpDetails" sheetId="92" r:id="rId22"/>
-    <sheet name="EmploymentDetailsTestData" sheetId="94" r:id="rId23"/>
-    <sheet name="EmploymentDetails_AppData" sheetId="95" r:id="rId24"/>
-    <sheet name="ijarah_AddressDetailsTestData" sheetId="2" r:id="rId25"/>
-    <sheet name="IjaraAppDataEntryCFIncome" sheetId="41" r:id="rId26"/>
-    <sheet name="AD_CustomerFolllowUpDetails_610" sheetId="42" r:id="rId27"/>
-    <sheet name="Ijara_Repayment_Mode" sheetId="44" r:id="rId28"/>
-    <sheet name="CF_DebtTestData" sheetId="46" r:id="rId29"/>
-    <sheet name="Living_Expense" sheetId="47" r:id="rId30"/>
-    <sheet name="Ijarah_AssetDetailsTestData" sheetId="3" r:id="rId31"/>
-    <sheet name="InsuranceInfo" sheetId="48" r:id="rId32"/>
-    <sheet name="Ijara_Quotation_Info" sheetId="45" r:id="rId33"/>
-    <sheet name="DataCheck_AppDetails" sheetId="61" r:id="rId34"/>
-    <sheet name="ijarah_AddressDetailsTestDataDC" sheetId="72" r:id="rId35"/>
-    <sheet name="Document_Details" sheetId="53" r:id="rId36"/>
-    <sheet name=" customerDebtExcelData" sheetId="51" r:id="rId37"/>
-    <sheet name="DataCheck_Income" sheetId="63" r:id="rId38"/>
-    <sheet name="EmpDetailsTestData" sheetId="58" r:id="rId39"/>
-    <sheet name="AppDataCheck_RepaymentMode" sheetId="54" r:id="rId40"/>
-    <sheet name="IjaraAppDataCheckQuationInfo" sheetId="57" r:id="rId41"/>
-    <sheet name="UnderWriter_TestData" sheetId="67" r:id="rId42"/>
-    <sheet name="Offering_OfferDetails" sheetId="68" r:id="rId43"/>
-    <sheet name="Offer_Details" sheetId="65" r:id="rId44"/>
-    <sheet name="AssetDetailsTestData" sheetId="69" r:id="rId45"/>
-    <sheet name="Underwriter" sheetId="66" r:id="rId46"/>
-    <sheet name="AppDataCheck_ApplicationDetails" sheetId="55" r:id="rId47"/>
-    <sheet name="Ijara_AddCustInfo_TestData" sheetId="49" r:id="rId48"/>
-    <sheet name="ContractSign_AppDetails" sheetId="71" r:id="rId49"/>
-    <sheet name="EmpDetailsCom_firmTestData" sheetId="56" r:id="rId50"/>
-    <sheet name="AppDetail_ContractStage_TestDat" sheetId="70" r:id="rId51"/>
-    <sheet name="Appdata_ApplicationDetailsExe" sheetId="93" r:id="rId52"/>
-    <sheet name="Appdata_EmployementDetailsExe" sheetId="97" r:id="rId53"/>
-    <sheet name="Murabha_ExecutionTracker" sheetId="74" r:id="rId54"/>
+    <sheet name="Murabha_Offering_OfferDetails" sheetId="99" r:id="rId23"/>
+    <sheet name="MurabahaPurchaseOrder_TestData" sheetId="102" r:id="rId24"/>
+    <sheet name="Murabaha_BeneficiaryTestData" sheetId="101" r:id="rId25"/>
+    <sheet name="EmploymentDetailsTestData" sheetId="94" r:id="rId26"/>
+    <sheet name="EmploymentDetails_AppData" sheetId="95" r:id="rId27"/>
+    <sheet name="ijarah_AddressDetailsTestData" sheetId="2" r:id="rId28"/>
+    <sheet name="IjaraAppDataEntryCFIncome" sheetId="41" r:id="rId29"/>
+    <sheet name="AD_CustomerFolllowUpDetails_610" sheetId="42" r:id="rId30"/>
+    <sheet name="Ijara_Repayment_Mode" sheetId="44" r:id="rId31"/>
+    <sheet name="CF_DebtTestData" sheetId="46" r:id="rId32"/>
+    <sheet name="Living_Expense" sheetId="47" r:id="rId33"/>
+    <sheet name="Ijarah_AssetDetailsTestData" sheetId="3" r:id="rId34"/>
+    <sheet name="InsuranceInfo" sheetId="48" r:id="rId35"/>
+    <sheet name="Ijara_Quotation_Info" sheetId="45" r:id="rId36"/>
+    <sheet name="DataCheck_AppDetails" sheetId="61" r:id="rId37"/>
+    <sheet name="ijarah_AddressDetailsTestDataDC" sheetId="72" r:id="rId38"/>
+    <sheet name="Document_Details" sheetId="53" r:id="rId39"/>
+    <sheet name=" customerDebtExcelData" sheetId="51" r:id="rId40"/>
+    <sheet name="DataCheck_Income" sheetId="63" r:id="rId41"/>
+    <sheet name="EmpDetailsTestData" sheetId="58" r:id="rId42"/>
+    <sheet name="AppDataCheck_RepaymentMode" sheetId="54" r:id="rId43"/>
+    <sheet name="IjaraAppDataCheckQuationInfo" sheetId="57" r:id="rId44"/>
+    <sheet name="UnderWriter_TestData" sheetId="67" r:id="rId45"/>
+    <sheet name="Offering_OfferDetails" sheetId="68" r:id="rId46"/>
+    <sheet name="Offer_Details" sheetId="65" r:id="rId47"/>
+    <sheet name="AssetDetailsTestData" sheetId="69" r:id="rId48"/>
+    <sheet name="Underwriter" sheetId="66" r:id="rId49"/>
+    <sheet name="AppDataCheck_ApplicationDetails" sheetId="55" r:id="rId50"/>
+    <sheet name="Ijara_AddCustInfo_TestData" sheetId="49" r:id="rId51"/>
+    <sheet name="ContractSign_AppDetails" sheetId="71" r:id="rId52"/>
+    <sheet name="EmpDetailsCom_firmTestData" sheetId="56" r:id="rId53"/>
+    <sheet name="AppDetail_ContractStage_TestDat" sheetId="70" r:id="rId54"/>
+    <sheet name="Appdata_ApplicationDetailsExe" sheetId="93" r:id="rId55"/>
+    <sheet name="Appdata_EmployementDetailsExe" sheetId="97" r:id="rId56"/>
+    <sheet name="Muraba_beneficiaryExeSheet" sheetId="103" r:id="rId57"/>
+    <sheet name="Murabha_ExecutionTracker" sheetId="74" r:id="rId58"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2782" uniqueCount="1308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2883" uniqueCount="1363">
   <si>
     <t>UserName</t>
   </si>
@@ -3354,9 +3358,6 @@
     <t>DS_AT_MU_AD_05</t>
   </si>
   <si>
-    <t>Murabaha -- App Data Entry</t>
-  </si>
-  <si>
     <t>userType16</t>
   </si>
   <si>
@@ -3991,6 +3992,174 @@
   </si>
   <si>
     <t xml:space="preserve">Financier </t>
+  </si>
+  <si>
+    <t>userType19</t>
+  </si>
+  <si>
+    <t>userType20</t>
+  </si>
+  <si>
+    <t>0315</t>
+  </si>
+  <si>
+    <t>0352</t>
+  </si>
+  <si>
+    <t>AT_M_OFO_01</t>
+  </si>
+  <si>
+    <t>AT_M_OFO_01_D1</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>AT_M_OFO_02</t>
+  </si>
+  <si>
+    <t>AT_M_OFO_02_D1</t>
+  </si>
+  <si>
+    <t>AT_M_OFO_03</t>
+  </si>
+  <si>
+    <t>AT_M_OFO_03_D1</t>
+  </si>
+  <si>
+    <t>AT_M_OFO_04</t>
+  </si>
+  <si>
+    <t>AT_M_OFO_04_D1</t>
+  </si>
+  <si>
+    <t>AT_M_OFO_05</t>
+  </si>
+  <si>
+    <t>AT_M_OFO_05_D1</t>
+  </si>
+  <si>
+    <t>3968</t>
+  </si>
+  <si>
+    <t>AT_M_PUR_08</t>
+  </si>
+  <si>
+    <t>DS01_AT_M_PUR_08</t>
+  </si>
+  <si>
+    <t>AT_M_PUR_09</t>
+  </si>
+  <si>
+    <t>DS01_AT_M_PUR_09</t>
+  </si>
+  <si>
+    <t>AT_M_PUR_11</t>
+  </si>
+  <si>
+    <t>AT_M_PUR_12</t>
+  </si>
+  <si>
+    <t>DS01_AT_M_PUR_12</t>
+  </si>
+  <si>
+    <t>AT_M_PUR_12_01</t>
+  </si>
+  <si>
+    <t>AT_M_PUR_13</t>
+  </si>
+  <si>
+    <t>DS01_AT_M_PUR_13</t>
+  </si>
+  <si>
+    <t>AT_M_PUR_13_01</t>
+  </si>
+  <si>
+    <t>AT_M_PUR_14</t>
+  </si>
+  <si>
+    <t>Facility_application_id</t>
+  </si>
+  <si>
+    <t>beneficiary_name</t>
+  </si>
+  <si>
+    <t>beneficiary_type</t>
+  </si>
+  <si>
+    <t>beneficiary_KYC</t>
+  </si>
+  <si>
+    <t>beneficiary_address</t>
+  </si>
+  <si>
+    <t>account_type</t>
+  </si>
+  <si>
+    <t>account_number</t>
+  </si>
+  <si>
+    <t>MICR_type</t>
+  </si>
+  <si>
+    <t>beneficiary_micr_code</t>
+  </si>
+  <si>
+    <t>bank_code</t>
+  </si>
+  <si>
+    <t>branch_name</t>
+  </si>
+  <si>
+    <t>IFSC_code</t>
+  </si>
+  <si>
+    <t>repayment_type</t>
+  </si>
+  <si>
+    <t>repayment_mode</t>
+  </si>
+  <si>
+    <t>Murabaha Auto</t>
+  </si>
+  <si>
+    <t>Krish</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>9654712301478</t>
+  </si>
+  <si>
+    <t>MICR</t>
+  </si>
+  <si>
+    <t>560002023</t>
+  </si>
+  <si>
+    <t>SBIN001</t>
+  </si>
+  <si>
+    <t>State Bank of India Karnataka Bangalore</t>
+  </si>
+  <si>
+    <t>985321</t>
+  </si>
+  <si>
+    <t>On Completion</t>
+  </si>
+  <si>
+    <t>Cheque</t>
+  </si>
+  <si>
+    <t>user_Id</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>4137</t>
   </si>
 </sst>
 </file>
@@ -4602,7 +4771,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -4804,8 +4973,24 @@
     <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4815,6 +5000,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4828,24 +5022,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="10"/>
@@ -4896,7 +5078,19 @@
     <cellStyle name="Result2 8" xfId="42"/>
     <cellStyle name="Result2_20_1" xfId="9"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -5212,10 +5406,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5223,7 +5417,7 @@
     <col min="1" max="1" width="19.28515625" style="3" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="16.42578125" style="3" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="15.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
@@ -5405,44 +5599,66 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>391</v>
+        <v>1176</v>
       </c>
       <c r="C17" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1">
       <c r="A18" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1177</v>
+        <v>760</v>
       </c>
       <c r="C18" s="119" t="s">
         <v>6</v>
       </c>
+      <c r="D18" s="1" t="s">
+        <v>1178</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="C19" s="119" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B19" s="135" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C19" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>1179</v>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A20" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C20" s="137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A21" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3083</v>
+      </c>
+      <c r="C21" s="152" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B22:B1048576 B1:B20">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -5459,10 +5675,12 @@
     <hyperlink ref="C16" r:id="rId13" display="mailto:Admin@1"/>
     <hyperlink ref="C17" r:id="rId14"/>
     <hyperlink ref="C18" r:id="rId15"/>
-    <hyperlink ref="C19" r:id="rId16"/>
+    <hyperlink ref="C19" r:id="rId16" display="mailto:Admin@1"/>
+    <hyperlink ref="C20" r:id="rId17" display="mailto:Admin@1"/>
+    <hyperlink ref="C21" r:id="rId18" display="mailto:Admin@1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -7039,10 +7257,10 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="120" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B2" s="92" t="s">
         <v>1097</v>
-      </c>
-      <c r="B2" s="92" t="s">
-        <v>1098</v>
       </c>
       <c r="C2" s="44" t="s">
         <v>419</v>
@@ -7068,19 +7286,19 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="120" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B3" s="92" t="s">
         <v>1099</v>
-      </c>
-      <c r="B3" s="92" t="s">
-        <v>1100</v>
       </c>
       <c r="C3" s="44" t="s">
         <v>419</v>
       </c>
       <c r="D3" s="44" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E3" s="44" t="s">
         <v>1101</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>1102</v>
       </c>
       <c r="F3" s="44" t="s">
         <v>363</v>
@@ -7089,11 +7307,11 @@
         <v>364</v>
       </c>
       <c r="H3" s="44" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I3" s="44"/>
       <c r="J3" s="44" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="K3" s="44" t="s">
         <v>232</v>
@@ -7111,10 +7329,10 @@
         <v>364</v>
       </c>
       <c r="P3" s="44" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="Q3" s="44" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="R3" s="44" t="s">
         <v>368</v>
@@ -7123,10 +7341,10 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="120" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B4" s="92" t="s">
         <v>1106</v>
-      </c>
-      <c r="B4" s="92" t="s">
-        <v>1107</v>
       </c>
       <c r="C4" s="44" t="s">
         <v>419</v>
@@ -7140,11 +7358,11 @@
         <v>372</v>
       </c>
       <c r="H4" s="44" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I4" s="44"/>
       <c r="J4" s="44" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="K4" s="44"/>
       <c r="L4" s="44" t="s">
@@ -7160,29 +7378,29 @@
         <v>376</v>
       </c>
       <c r="P4" s="44" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="Q4" s="44" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="R4" s="44"/>
       <c r="S4" s="44"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="120" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B5" s="92" t="s">
         <v>1110</v>
-      </c>
-      <c r="B5" s="92" t="s">
-        <v>1111</v>
       </c>
       <c r="C5" s="44" t="s">
         <v>419</v>
       </c>
       <c r="D5" s="44" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E5" s="44" t="s">
         <v>1112</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>1113</v>
       </c>
       <c r="F5" s="44" t="s">
         <v>379</v>
@@ -7205,19 +7423,19 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="120" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B6" s="92" t="s">
         <v>1114</v>
-      </c>
-      <c r="B6" s="92" t="s">
-        <v>1115</v>
       </c>
       <c r="C6" s="44" t="s">
         <v>419</v>
       </c>
       <c r="D6" s="44" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E6" s="44" t="s">
         <v>1116</v>
-      </c>
-      <c r="E6" s="44" t="s">
-        <v>1117</v>
       </c>
       <c r="F6" s="44" t="s">
         <v>379</v>
@@ -7226,7 +7444,7 @@
         <v>364</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="I6" s="44" t="s">
         <v>382</v>
@@ -7244,10 +7462,10 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="120" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B7" s="92" t="s">
         <v>1119</v>
-      </c>
-      <c r="B7" s="92" t="s">
-        <v>1120</v>
       </c>
       <c r="C7" s="44" t="s">
         <v>419</v>
@@ -7271,10 +7489,10 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="120" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B8" s="92" t="s">
         <v>1121</v>
-      </c>
-      <c r="B8" s="92" t="s">
-        <v>1122</v>
       </c>
       <c r="C8" s="44" t="s">
         <v>419</v>
@@ -7302,10 +7520,10 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="121" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B9" s="122" t="s">
         <v>1123</v>
-      </c>
-      <c r="B9" s="122" t="s">
-        <v>1124</v>
       </c>
       <c r="C9" s="44" t="s">
         <v>419</v>
@@ -7379,48 +7597,48 @@
         <v>277</v>
       </c>
       <c r="F1" s="93" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G1" s="93" t="s">
         <v>1125</v>
       </c>
-      <c r="G1" s="93" t="s">
+      <c r="H1" s="93" t="s">
         <v>1126</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="I1" s="93" t="s">
         <v>1127</v>
       </c>
-      <c r="I1" s="93" t="s">
+      <c r="J1" s="93" t="s">
         <v>1128</v>
       </c>
-      <c r="J1" s="93" t="s">
+      <c r="K1" s="93" t="s">
         <v>1129</v>
       </c>
-      <c r="K1" s="93" t="s">
+      <c r="L1" s="93" t="s">
         <v>1130</v>
       </c>
-      <c r="L1" s="93" t="s">
+      <c r="M1" s="93" t="s">
         <v>1131</v>
-      </c>
-      <c r="M1" s="93" t="s">
-        <v>1132</v>
       </c>
       <c r="N1" s="93" t="s">
         <v>357</v>
       </c>
       <c r="O1" s="93" t="s">
+        <v>1132</v>
+      </c>
+      <c r="P1" s="93" t="s">
         <v>1133</v>
       </c>
-      <c r="P1" s="93" t="s">
+      <c r="Q1" s="93" t="s">
         <v>1134</v>
-      </c>
-      <c r="Q1" s="93" t="s">
-        <v>1135</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B2" t="s">
         <v>1136</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1137</v>
       </c>
       <c r="C2" t="s">
         <v>419</v>
@@ -7429,22 +7647,22 @@
         <v>486</v>
       </c>
       <c r="E2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F2" t="s">
         <v>1145</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="J2" t="s">
         <v>1146</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1138</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1139</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1148</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1147</v>
       </c>
       <c r="K2">
         <v>50000</v>
@@ -7465,15 +7683,15 @@
         <v>10</v>
       </c>
       <c r="Q2" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B3" t="s">
         <v>1141</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1142</v>
       </c>
       <c r="C3" t="s">
         <v>419</v>
@@ -7482,22 +7700,22 @@
         <v>486</v>
       </c>
       <c r="E3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F3" t="s">
         <v>1145</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="J3" t="s">
         <v>1146</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1138</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1139</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1148</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1147</v>
       </c>
       <c r="K3">
         <v>50000</v>
@@ -7518,15 +7736,15 @@
         <v>10</v>
       </c>
       <c r="Q3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B4" t="s">
         <v>1143</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1144</v>
       </c>
       <c r="C4" t="s">
         <v>419</v>
@@ -7535,22 +7753,22 @@
         <v>486</v>
       </c>
       <c r="E4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F4" t="s">
         <v>1145</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="J4" t="s">
         <v>1146</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1138</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1139</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1148</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1147</v>
       </c>
       <c r="K4">
         <v>50000</v>
@@ -7571,7 +7789,7 @@
         <v>10</v>
       </c>
       <c r="Q4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
   </sheetData>
@@ -7611,36 +7829,36 @@
         <v>275</v>
       </c>
       <c r="E1" s="125" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F1" s="125" t="s">
         <v>1149</v>
       </c>
-      <c r="F1" s="125" t="s">
+      <c r="G1" s="125" t="s">
         <v>1150</v>
       </c>
-      <c r="G1" s="125" t="s">
+      <c r="H1" s="125" t="s">
         <v>1151</v>
       </c>
-      <c r="H1" s="125" t="s">
+      <c r="I1" s="125" t="s">
         <v>1152</v>
       </c>
-      <c r="I1" s="125" t="s">
+      <c r="J1" s="125" t="s">
         <v>1153</v>
       </c>
-      <c r="J1" s="125" t="s">
+      <c r="K1" s="125" t="s">
         <v>1154</v>
       </c>
-      <c r="K1" s="125" t="s">
+      <c r="L1" s="125" t="s">
         <v>1155</v>
-      </c>
-      <c r="L1" s="125" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="92" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B2" s="96" t="s">
         <v>1157</v>
-      </c>
-      <c r="B2" s="96" t="s">
-        <v>1158</v>
       </c>
       <c r="C2" s="96">
         <v>3393</v>
@@ -7649,13 +7867,13 @@
         <v>300</v>
       </c>
       <c r="E2" s="96" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="F2" s="96" t="s">
         <v>29</v>
       </c>
       <c r="G2" s="96" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="H2" s="96">
         <v>123456</v>
@@ -7664,10 +7882,10 @@
         <v>368</v>
       </c>
       <c r="J2" s="96" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K2" s="96" t="s">
         <v>1161</v>
-      </c>
-      <c r="K2" s="96" t="s">
-        <v>1162</v>
       </c>
       <c r="L2" s="96">
         <v>231</v>
@@ -7675,10 +7893,10 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="92" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B3" s="96" t="s">
         <v>1163</v>
-      </c>
-      <c r="B3" s="96" t="s">
-        <v>1164</v>
       </c>
       <c r="C3" s="96">
         <v>3393</v>
@@ -7695,10 +7913,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="92" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B4" s="96" t="s">
         <v>1165</v>
-      </c>
-      <c r="B4" s="96" t="s">
-        <v>1166</v>
       </c>
       <c r="C4" s="96">
         <v>3393</v>
@@ -7753,7 +7971,7 @@
         <v>250</v>
       </c>
       <c r="C1" s="81" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D1" s="81" t="s">
         <v>517</v>
@@ -7785,10 +8003,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="25" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>1168</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>1169</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>419</v>
@@ -7858,7 +8076,7 @@
         <v>250</v>
       </c>
       <c r="C1" s="81" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D1" t="s">
         <v>447</v>
@@ -7887,13 +8105,13 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B2" t="s">
         <v>1171</v>
       </c>
-      <c r="B2" t="s">
-        <v>1172</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D2">
         <v>2974</v>
@@ -7901,13 +8119,13 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B3" t="s">
         <v>1173</v>
       </c>
-      <c r="B3" t="s">
-        <v>1174</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D3">
         <v>2974</v>
@@ -7933,13 +8151,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B4" t="s">
         <v>1175</v>
       </c>
-      <c r="B4" t="s">
-        <v>1176</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D4">
         <v>2974</v>
@@ -8082,52 +8300,52 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="92" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B2" s="92" t="s">
         <v>1181</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="C2" s="44" t="s">
         <v>1182</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>1183</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="92" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B3" s="92" t="s">
         <v>1184</v>
       </c>
-      <c r="B3" s="92" t="s">
-        <v>1185</v>
-      </c>
       <c r="C3" s="44" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="92" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B4" s="92" t="s">
         <v>1186</v>
       </c>
-      <c r="B4" s="92" t="s">
-        <v>1187</v>
-      </c>
       <c r="C4" s="44" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="92" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B5" s="92" t="s">
         <v>1188</v>
       </c>
-      <c r="B5" s="92" t="s">
-        <v>1189</v>
-      </c>
       <c r="C5" s="44" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
   </sheetData>
@@ -8373,8 +8591,8 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N21:N22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8471,10 +8689,10 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="19" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>1191</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>1192</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>596</v>
@@ -8537,17 +8755,17 @@
         <v>606</v>
       </c>
       <c r="Y2" s="44" t="s">
-        <v>1183</v>
+        <v>1322</v>
       </c>
       <c r="Z2" s="25"/>
       <c r="AA2" s="25"/>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="19" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>1193</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>1194</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
@@ -8572,13 +8790,13 @@
       <c r="W3" s="25"/>
       <c r="X3" s="25"/>
       <c r="Y3" s="44" t="s">
-        <v>1183</v>
+        <v>1322</v>
       </c>
       <c r="Z3" s="25" t="s">
         <v>597</v>
       </c>
       <c r="AA3" s="25" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
   </sheetData>
@@ -8617,10 +8835,10 @@
     </row>
     <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="78" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B2" s="78" t="s">
         <v>1165</v>
-      </c>
-      <c r="B2" s="78" t="s">
-        <v>1166</v>
       </c>
       <c r="C2" s="78">
         <v>3546</v>
@@ -8670,73 +8888,73 @@
         <v>276</v>
       </c>
       <c r="D1" s="55" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E1" s="55" t="s">
         <v>1196</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="F1" s="55" t="s">
         <v>1197</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="G1" s="55" t="s">
         <v>1198</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="H1" s="55" t="s">
         <v>1199</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="I1" s="55" t="s">
         <v>1200</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="J1" s="55" t="s">
         <v>1201</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="K1" s="55" t="s">
         <v>1202</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="L1" s="55" t="s">
         <v>1203</v>
-      </c>
-      <c r="L1" s="55" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="120" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B2" s="92" t="s">
         <v>1205</v>
-      </c>
-      <c r="B2" s="92" t="s">
-        <v>1206</v>
       </c>
       <c r="C2" s="44" t="s">
         <v>428</v>
       </c>
       <c r="D2" s="44" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E2" s="44" t="s">
         <v>1207</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="F2" s="44" t="s">
         <v>1208</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="G2" s="44" t="s">
         <v>1209</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="H2" s="44" t="s">
         <v>1210</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="I2" s="44" t="s">
         <v>1211</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="J2" s="44" t="s">
         <v>1212</v>
-      </c>
-      <c r="J2" s="44" t="s">
-        <v>1213</v>
       </c>
       <c r="K2" s="44"/>
       <c r="L2" s="44"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="120" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B3" s="92" t="s">
         <v>1214</v>
-      </c>
-      <c r="B3" s="92" t="s">
-        <v>1215</v>
       </c>
       <c r="C3" s="44" t="s">
         <v>428</v>
@@ -8753,10 +8971,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="120" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B4" s="92" t="s">
         <v>1216</v>
-      </c>
-      <c r="B4" s="92" t="s">
-        <v>1217</v>
       </c>
       <c r="C4" s="44" t="s">
         <v>428</v>
@@ -8773,10 +8991,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="120" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B5" s="92" t="s">
         <v>1218</v>
-      </c>
-      <c r="B5" s="92" t="s">
-        <v>1219</v>
       </c>
       <c r="C5" s="44" t="s">
         <v>428</v>
@@ -8793,10 +9011,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="120" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B6" s="92" t="s">
         <v>1220</v>
-      </c>
-      <c r="B6" s="92" t="s">
-        <v>1221</v>
       </c>
       <c r="C6" s="44" t="s">
         <v>428</v>
@@ -8813,10 +9031,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="120" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B7" s="92" t="s">
         <v>1222</v>
-      </c>
-      <c r="B7" s="92" t="s">
-        <v>1223</v>
       </c>
       <c r="C7" s="44" t="s">
         <v>428</v>
@@ -8833,10 +9051,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="120" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B8" s="92" t="s">
         <v>1224</v>
-      </c>
-      <c r="B8" s="92" t="s">
-        <v>1225</v>
       </c>
       <c r="C8" s="44" t="s">
         <v>428</v>
@@ -8853,10 +9071,10 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="120" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B9" s="92" t="s">
         <v>1226</v>
-      </c>
-      <c r="B9" s="92" t="s">
-        <v>1227</v>
       </c>
       <c r="C9" s="44" t="s">
         <v>428</v>
@@ -8873,10 +9091,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="120" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B10" s="92" t="s">
         <v>1228</v>
-      </c>
-      <c r="B10" s="92" t="s">
-        <v>1229</v>
       </c>
       <c r="C10" s="44" t="s">
         <v>428</v>
@@ -8889,10 +9107,10 @@
       <c r="I10" s="44"/>
       <c r="J10" s="44"/>
       <c r="K10" s="44" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="L10" s="44" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
   </sheetData>
@@ -8902,6 +9120,337 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="90" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="90" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="90" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="92" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="92" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B3" s="92" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="92" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B4" s="92" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="92" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B5" s="92" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="92" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B6" s="92" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="19" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C2" s="22">
+        <v>4043</v>
+      </c>
+      <c r="D2" s="115" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="19" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C3" s="22">
+        <v>4043</v>
+      </c>
+      <c r="D3" s="115" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="28.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="29" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.5703125" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="36.85546875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="30.140625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="28.85546875" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="32.42578125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>1159</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>1352</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>1353</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>1354</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>1355</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>1356</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>1357</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>1358</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>1359</v>
+      </c>
+      <c r="R2" s="154"/>
+      <c r="S2" s="154"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="5" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="154"/>
+      <c r="O3" s="154"/>
+      <c r="P3" s="154"/>
+      <c r="Q3" s="154"/>
+      <c r="R3" s="6" t="s">
+        <v>1350</v>
+      </c>
+      <c r="S3" s="155" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="S3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet51"/>
   <dimension ref="A1:D4"/>
@@ -8929,15 +9478,15 @@
         <v>42</v>
       </c>
       <c r="D1" s="132" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B2" s="133" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C2" s="133" t="s">
         <v>432</v>
@@ -8946,30 +9495,30 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B3" s="133" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C3" s="133" t="s">
         <v>432</v>
       </c>
       <c r="D3" s="134" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C4" s="133" t="s">
         <v>432</v>
       </c>
       <c r="D4" s="134" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
   </sheetData>
@@ -8978,7 +9527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG5"/>
   <sheetViews>
@@ -9007,15 +9556,15 @@
         <v>42</v>
       </c>
       <c r="D1" s="132" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="134" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B2" s="134" t="s">
         <v>1268</v>
-      </c>
-      <c r="B2" s="134" t="s">
-        <v>1269</v>
       </c>
       <c r="C2" s="133" t="s">
         <v>419</v>
@@ -9024,44 +9573,44 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="134" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B3" s="134" t="s">
         <v>1270</v>
-      </c>
-      <c r="B3" s="134" t="s">
-        <v>1271</v>
       </c>
       <c r="C3" s="133" t="s">
         <v>419</v>
       </c>
       <c r="D3" s="134" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="134" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B4" s="134" t="s">
         <v>1272</v>
-      </c>
-      <c r="B4" s="134" t="s">
-        <v>1273</v>
       </c>
       <c r="C4" s="133" t="s">
         <v>419</v>
       </c>
       <c r="D4" s="134" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="134" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B5" s="134" t="s">
         <v>1274</v>
-      </c>
-      <c r="B5" s="134" t="s">
-        <v>1275</v>
       </c>
       <c r="C5" s="133" t="s">
         <v>419</v>
       </c>
       <c r="D5" s="134" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -9070,7 +9619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:AC7"/>
@@ -9500,7 +10049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:S9"/>
@@ -9867,1410 +10416,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet24"/>
-  <dimension ref="A1:L67"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="51.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="41" t="s">
-        <v>249</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>274</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>393</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>394</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>395</v>
-      </c>
-      <c r="F1" s="42" t="s">
-        <v>396</v>
-      </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="43" t="s">
-        <v>397</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>398</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>399</v>
-      </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="44" t="s">
-        <v>400</v>
-      </c>
-      <c r="F2" s="44" t="s">
-        <v>401</v>
-      </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="47" t="s">
-        <v>402</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="43" t="s">
-        <v>403</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>404</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>565</v>
-      </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="47" t="s">
-        <v>405</v>
-      </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="43" t="s">
-        <v>868</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>875</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>406</v>
-      </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="47" t="s">
-        <v>407</v>
-      </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="43" t="s">
-        <v>408</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>409</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>410</v>
-      </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="47" t="s">
-        <v>411</v>
-      </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="47" t="s">
-        <v>412</v>
-      </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>414</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>415</v>
-      </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="47" t="s">
-        <v>416</v>
-      </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="43" t="s">
-        <v>417</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>418</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>419</v>
-      </c>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="47" t="s">
-        <v>420</v>
-      </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="47" t="s">
-        <v>421</v>
-      </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="43" t="s">
-        <v>422</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>423</v>
-      </c>
-      <c r="C28" s="44" t="s">
-        <v>565</v>
-      </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="47" t="s">
-        <v>424</v>
-      </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="47" t="s">
-        <v>425</v>
-      </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="43" t="s">
-        <v>426</v>
-      </c>
-      <c r="B33" s="43" t="s">
-        <v>427</v>
-      </c>
-      <c r="C33" s="44" t="s">
-        <v>428</v>
-      </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="47" t="s">
-        <v>429</v>
-      </c>
-      <c r="B35" s="43"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="43" t="s">
-        <v>430</v>
-      </c>
-      <c r="B37" s="43" t="s">
-        <v>431</v>
-      </c>
-      <c r="C37" s="44" t="s">
-        <v>432</v>
-      </c>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="47" t="s">
-        <v>433</v>
-      </c>
-      <c r="B39" s="43"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="43" t="s">
-        <v>434</v>
-      </c>
-      <c r="B41" s="43" t="s">
-        <v>435</v>
-      </c>
-      <c r="C41" s="44" t="s">
-        <v>436</v>
-      </c>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="47" t="s">
-        <v>437</v>
-      </c>
-      <c r="B43" s="43"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="45"/>
-      <c r="K43" s="45"/>
-      <c r="L43" s="45"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="45"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="43" t="s">
-        <v>438</v>
-      </c>
-      <c r="B45" s="43" t="s">
-        <v>439</v>
-      </c>
-      <c r="C45" s="44" t="s">
-        <v>440</v>
-      </c>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="45"/>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="45"/>
-      <c r="L46" s="45"/>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="47" t="s">
-        <v>441</v>
-      </c>
-      <c r="B47" s="43"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="45"/>
-      <c r="L48" s="45"/>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="43" t="s">
-        <v>442</v>
-      </c>
-      <c r="B49" s="43" t="s">
-        <v>443</v>
-      </c>
-      <c r="C49" s="44" t="s">
-        <v>444</v>
-      </c>
-      <c r="D49" s="45"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="45"/>
-      <c r="K49" s="45"/>
-      <c r="L49" s="45"/>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="45"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="45"/>
-      <c r="L50" s="45"/>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="45"/>
-      <c r="J51" s="45"/>
-      <c r="K51" s="45"/>
-      <c r="L51" s="45"/>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="45"/>
-      <c r="K52" s="45"/>
-      <c r="L52" s="45"/>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="45"/>
-      <c r="L53" s="45"/>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="45"/>
-      <c r="K54" s="45"/>
-      <c r="L54" s="45"/>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="45"/>
-      <c r="K55" s="45"/>
-      <c r="L55" s="45"/>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="45"/>
-      <c r="J56" s="45"/>
-      <c r="K56" s="45"/>
-      <c r="L56" s="45"/>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="43"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="45"/>
-      <c r="J57" s="45"/>
-      <c r="K57" s="45"/>
-      <c r="L57" s="45"/>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="43"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="45"/>
-      <c r="L58" s="45"/>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="43"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="45"/>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="45"/>
-      <c r="J59" s="45"/>
-      <c r="K59" s="45"/>
-      <c r="L59" s="45"/>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="43"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="45"/>
-      <c r="F60" s="45"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="45"/>
-      <c r="J60" s="45"/>
-      <c r="K60" s="45"/>
-      <c r="L60" s="45"/>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="43"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="45"/>
-      <c r="L61" s="45"/>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="43"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="45"/>
-      <c r="G62" s="45"/>
-      <c r="H62" s="45"/>
-      <c r="I62" s="45"/>
-      <c r="J62" s="45"/>
-      <c r="K62" s="45"/>
-      <c r="L62" s="45"/>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="43"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="45"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="45"/>
-      <c r="H63" s="45"/>
-      <c r="I63" s="45"/>
-      <c r="J63" s="45"/>
-      <c r="K63" s="45"/>
-      <c r="L63" s="45"/>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="43"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="45"/>
-      <c r="H64" s="45"/>
-      <c r="I64" s="45"/>
-      <c r="J64" s="45"/>
-      <c r="K64" s="45"/>
-      <c r="L64" s="45"/>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="43"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="45"/>
-      <c r="H65" s="45"/>
-      <c r="I65" s="45"/>
-      <c r="J65" s="45"/>
-      <c r="K65" s="45"/>
-      <c r="L65" s="45"/>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="43"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="45"/>
-      <c r="F66" s="45"/>
-      <c r="G66" s="45"/>
-      <c r="H66" s="45"/>
-      <c r="I66" s="45"/>
-      <c r="J66" s="45"/>
-      <c r="K66" s="45"/>
-      <c r="L66" s="45"/>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="43"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="45"/>
-      <c r="F67" s="45"/>
-      <c r="G67" s="45"/>
-      <c r="H67" s="45"/>
-      <c r="I67" s="45"/>
-      <c r="J67" s="45"/>
-      <c r="K67" s="45"/>
-      <c r="L67" s="45"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet25"/>
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>447</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>448</v>
-      </c>
-      <c r="E1" s="48" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="C2" s="22">
-        <v>2193</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="19" t="s">
-        <v>452</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>453</v>
-      </c>
-      <c r="C3" s="22">
-        <v>2193</v>
-      </c>
-      <c r="D3" s="22">
-        <v>89657845</v>
-      </c>
-      <c r="E3" s="22">
-        <v>6363</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="C4" s="22">
-        <v>2193</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet26"/>
-  <dimension ref="A1:M8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="54" t="s">
-        <v>249</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>274</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>276</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>473</v>
-      </c>
-      <c r="E1" s="55" t="s">
-        <v>474</v>
-      </c>
-      <c r="F1" s="55" t="s">
-        <v>475</v>
-      </c>
-      <c r="G1" s="55" t="s">
-        <v>476</v>
-      </c>
-      <c r="H1" s="55" t="s">
-        <v>477</v>
-      </c>
-      <c r="I1" s="56" t="s">
-        <v>348</v>
-      </c>
-      <c r="J1" s="56" t="s">
-        <v>478</v>
-      </c>
-      <c r="K1" s="56" t="s">
-        <v>358</v>
-      </c>
-      <c r="L1" s="56" t="s">
-        <v>479</v>
-      </c>
-      <c r="M1" s="56" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="57" t="s">
-        <v>481</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>482</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>483</v>
-      </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="57" t="s">
-        <v>484</v>
-      </c>
-      <c r="B3" s="57" t="s">
-        <v>485</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>483</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>486</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>487</v>
-      </c>
-      <c r="F3" s="44" t="s">
-        <v>488</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>489</v>
-      </c>
-      <c r="H3" s="44" t="s">
-        <v>490</v>
-      </c>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="57" t="s">
-        <v>491</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>492</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>483</v>
-      </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44" t="s">
-        <v>493</v>
-      </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44" t="s">
-        <v>494</v>
-      </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44" t="s">
-        <v>490</v>
-      </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="57" t="s">
-        <v>495</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>496</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>483</v>
-      </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44" t="s">
-        <v>497</v>
-      </c>
-      <c r="K5" s="44" t="s">
-        <v>498</v>
-      </c>
-      <c r="L5" s="44" t="s">
-        <v>499</v>
-      </c>
-      <c r="M5" s="44" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="57" t="s">
-        <v>501</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>502</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>483</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>486</v>
-      </c>
-      <c r="E6" s="44">
-        <v>100000</v>
-      </c>
-      <c r="F6" s="44">
-        <v>15</v>
-      </c>
-      <c r="G6" s="44">
-        <v>8000</v>
-      </c>
-      <c r="H6" s="44">
-        <v>14</v>
-      </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="57"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11939,6 +11084,1410 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet24"/>
+  <dimension ref="A1:L67"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="51.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>394</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>396</v>
+      </c>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="43" t="s">
+        <v>397</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>398</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>399</v>
+      </c>
+      <c r="D2" s="45"/>
+      <c r="E2" s="44" t="s">
+        <v>400</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>401</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="47" t="s">
+        <v>402</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>565</v>
+      </c>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="47" t="s">
+        <v>405</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="43" t="s">
+        <v>868</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>875</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>406</v>
+      </c>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="47" t="s">
+        <v>407</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="43" t="s">
+        <v>408</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="47" t="s">
+        <v>411</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="47" t="s">
+        <v>412</v>
+      </c>
+      <c r="B17" s="43"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>415</v>
+      </c>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="47" t="s">
+        <v>416</v>
+      </c>
+      <c r="B21" s="43"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="43" t="s">
+        <v>417</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>418</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="47" t="s">
+        <v>420</v>
+      </c>
+      <c r="B25" s="43"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="47" t="s">
+        <v>421</v>
+      </c>
+      <c r="B26" s="43"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="43" t="s">
+        <v>422</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>565</v>
+      </c>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="B30" s="43"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="47" t="s">
+        <v>425</v>
+      </c>
+      <c r="B31" s="43"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="43" t="s">
+        <v>426</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="47" t="s">
+        <v>429</v>
+      </c>
+      <c r="B35" s="43"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="43" t="s">
+        <v>430</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>431</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>432</v>
+      </c>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="47" t="s">
+        <v>433</v>
+      </c>
+      <c r="B39" s="43"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="43" t="s">
+        <v>434</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>435</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>436</v>
+      </c>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="45"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="47" t="s">
+        <v>437</v>
+      </c>
+      <c r="B43" s="43"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="45"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="45"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="43" t="s">
+        <v>438</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>439</v>
+      </c>
+      <c r="C45" s="44" t="s">
+        <v>440</v>
+      </c>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="45"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="47" t="s">
+        <v>441</v>
+      </c>
+      <c r="B47" s="43"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="45"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="45"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="43" t="s">
+        <v>442</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>443</v>
+      </c>
+      <c r="C49" s="44" t="s">
+        <v>444</v>
+      </c>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="45"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="45"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="45"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="45"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="45"/>
+      <c r="L53" s="45"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="45"/>
+      <c r="L54" s="45"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="45"/>
+      <c r="L55" s="45"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="45"/>
+      <c r="J56" s="45"/>
+      <c r="K56" s="45"/>
+      <c r="L56" s="45"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="45"/>
+      <c r="J57" s="45"/>
+      <c r="K57" s="45"/>
+      <c r="L57" s="45"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="45"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="45"/>
+      <c r="L59" s="45"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="45"/>
+      <c r="K60" s="45"/>
+      <c r="L60" s="45"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="45"/>
+      <c r="L61" s="45"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="43"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="45"/>
+      <c r="L62" s="45"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="43"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="45"/>
+      <c r="J63" s="45"/>
+      <c r="K63" s="45"/>
+      <c r="L63" s="45"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="43"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="45"/>
+      <c r="J64" s="45"/>
+      <c r="K64" s="45"/>
+      <c r="L64" s="45"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="43"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="45"/>
+      <c r="J65" s="45"/>
+      <c r="K65" s="45"/>
+      <c r="L65" s="45"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="43"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="45"/>
+      <c r="J66" s="45"/>
+      <c r="K66" s="45"/>
+      <c r="L66" s="45"/>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="43"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="45"/>
+      <c r="I67" s="45"/>
+      <c r="J67" s="45"/>
+      <c r="K67" s="45"/>
+      <c r="L67" s="45"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet25"/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>448</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="C2" s="22">
+        <v>2193</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="C3" s="22">
+        <v>2193</v>
+      </c>
+      <c r="D3" s="22">
+        <v>89657845</v>
+      </c>
+      <c r="E3" s="22">
+        <v>6363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="C4" s="22">
+        <v>2193</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet26"/>
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="54" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>473</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>474</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>475</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>476</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>477</v>
+      </c>
+      <c r="I1" s="56" t="s">
+        <v>348</v>
+      </c>
+      <c r="J1" s="56" t="s">
+        <v>478</v>
+      </c>
+      <c r="K1" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="L1" s="56" t="s">
+        <v>479</v>
+      </c>
+      <c r="M1" s="56" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="57" t="s">
+        <v>481</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>482</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>483</v>
+      </c>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="57" t="s">
+        <v>484</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>485</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>483</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>487</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>488</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>489</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>490</v>
+      </c>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="57" t="s">
+        <v>491</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>492</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>483</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44" t="s">
+        <v>493</v>
+      </c>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44" t="s">
+        <v>494</v>
+      </c>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44" t="s">
+        <v>490</v>
+      </c>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="57" t="s">
+        <v>495</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>496</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>483</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44" t="s">
+        <v>497</v>
+      </c>
+      <c r="K5" s="44" t="s">
+        <v>498</v>
+      </c>
+      <c r="L5" s="44" t="s">
+        <v>499</v>
+      </c>
+      <c r="M5" s="44" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="57" t="s">
+        <v>501</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>502</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>483</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="E6" s="44">
+        <v>100000</v>
+      </c>
+      <c r="F6" s="44">
+        <v>15</v>
+      </c>
+      <c r="G6" s="44">
+        <v>8000</v>
+      </c>
+      <c r="H6" s="44">
+        <v>14</v>
+      </c>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="57"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="57"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:V9"/>
   <sheetViews>
@@ -12181,7 +12730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:AH3"/>
@@ -12461,7 +13010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet29"/>
   <dimension ref="A1:Y2"/>
@@ -12580,7 +13129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:J20"/>
@@ -12724,7 +13273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:O6"/>
@@ -12924,7 +13473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1:AMJ7"/>
@@ -13327,7 +13876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet33"/>
   <dimension ref="A1:XFD7"/>
@@ -30017,7 +30566,7 @@
       <c r="W6" s="25"/>
       <c r="X6" s="25"/>
       <c r="Y6" s="44" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="Z6" s="25" t="s">
         <v>597</v>
@@ -30056,7 +30605,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="25"/>
       <c r="Y7" s="44" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="Z7" s="25" t="s">
         <v>597</v>
@@ -30068,345 +30617,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet34"/>
-  <dimension ref="A1:AMJ7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20.140625" style="70" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="70" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="70" customWidth="1"/>
-    <col min="4" max="10" width="9.140625" style="70" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="70" customWidth="1"/>
-    <col min="12" max="1024" width="9.140625" style="69" customWidth="1"/>
-    <col min="1025" max="16384" width="20.5703125" style="71"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="73" t="s">
-        <v>276</v>
-      </c>
-      <c r="D1" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="72" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="72" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="72" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="72" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="72" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="72" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="74" t="s">
-        <v>563</v>
-      </c>
-      <c r="B2" s="75" t="s">
-        <v>564</v>
-      </c>
-      <c r="C2" s="76" t="s">
-        <v>565</v>
-      </c>
-      <c r="D2" s="76" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="76" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="74" t="s">
-        <v>566</v>
-      </c>
-      <c r="B3" s="75" t="s">
-        <v>567</v>
-      </c>
-      <c r="C3" s="76" t="s">
-        <v>565</v>
-      </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="74" t="s">
-        <v>568</v>
-      </c>
-      <c r="B4" s="75" t="s">
-        <v>569</v>
-      </c>
-      <c r="C4" s="76" t="s">
-        <v>565</v>
-      </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-    </row>
-    <row r="5" spans="1:11" ht="12.75">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-    </row>
-    <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="69"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-    </row>
-    <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="69"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="1.0452999999999999" bottom="1.0452999999999999" header="0.84840000000000004" footer="0.84840000000000004"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet35"/>
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="B1" s="55" t="s">
-        <v>274</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="92" t="s">
-        <v>687</v>
-      </c>
-      <c r="B2" s="92" t="s">
-        <v>688</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="92" t="s">
-        <v>689</v>
-      </c>
-      <c r="B3" s="92" t="s">
-        <v>690</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="92" t="s">
-        <v>691</v>
-      </c>
-      <c r="B4" s="92" t="s">
-        <v>692</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="92" t="s">
-        <v>693</v>
-      </c>
-      <c r="B5" s="92" t="s">
-        <v>694</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="92" t="s">
-        <v>695</v>
-      </c>
-      <c r="B6" s="92" t="s">
-        <v>696</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="92" t="s">
-        <v>697</v>
-      </c>
-      <c r="B7" s="92" t="s">
-        <v>698</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>565</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet36"/>
-  <dimension ref="A1:AMJ4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="16" style="78" customWidth="1"/>
-    <col min="2" max="2" width="19" style="78" customWidth="1"/>
-    <col min="3" max="1024" width="16" style="78" customWidth="1"/>
-    <col min="1025" max="16384" width="10.28515625" style="82"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="97" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="97" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="97" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="95" t="s">
-        <v>648</v>
-      </c>
-      <c r="B2" s="96" t="s">
-        <v>649</v>
-      </c>
-      <c r="C2" s="22">
-        <v>3061</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="95" t="s">
-        <v>650</v>
-      </c>
-      <c r="B3" s="96" t="s">
-        <v>651</v>
-      </c>
-      <c r="C3" s="22">
-        <v>3061</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="95" t="s">
-        <v>652</v>
-      </c>
-      <c r="B4" s="96" t="s">
-        <v>653</v>
-      </c>
-      <c r="C4" s="22">
-        <v>3061</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -30870,6 +31080,345 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet34"/>
+  <dimension ref="A1:AMJ7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" style="70" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="70" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="70" customWidth="1"/>
+    <col min="4" max="10" width="9.140625" style="70" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="70" customWidth="1"/>
+    <col min="12" max="1024" width="9.140625" style="69" customWidth="1"/>
+    <col min="1025" max="16384" width="20.5703125" style="71"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="73" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="74" t="s">
+        <v>563</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>564</v>
+      </c>
+      <c r="C2" s="76" t="s">
+        <v>565</v>
+      </c>
+      <c r="D2" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="74" t="s">
+        <v>566</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>567</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>565</v>
+      </c>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="74" t="s">
+        <v>568</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>569</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>565</v>
+      </c>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+    </row>
+    <row r="5" spans="1:11" ht="12.75">
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+    </row>
+    <row r="6" spans="1:11" ht="12.75">
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+    </row>
+    <row r="7" spans="1:11" ht="12.75">
+      <c r="A7" s="69"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="1.0452999999999999" bottom="1.0452999999999999" header="0.84840000000000004" footer="0.84840000000000004"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet35"/>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="92" t="s">
+        <v>687</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>688</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="92" t="s">
+        <v>689</v>
+      </c>
+      <c r="B3" s="92" t="s">
+        <v>690</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="92" t="s">
+        <v>691</v>
+      </c>
+      <c r="B4" s="92" t="s">
+        <v>692</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="92" t="s">
+        <v>693</v>
+      </c>
+      <c r="B5" s="92" t="s">
+        <v>694</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="92" t="s">
+        <v>695</v>
+      </c>
+      <c r="B6" s="92" t="s">
+        <v>696</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="92" t="s">
+        <v>697</v>
+      </c>
+      <c r="B7" s="92" t="s">
+        <v>698</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>565</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet36"/>
+  <dimension ref="A1:AMJ4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="16" style="78" customWidth="1"/>
+    <col min="2" max="2" width="19" style="78" customWidth="1"/>
+    <col min="3" max="1024" width="16" style="78" customWidth="1"/>
+    <col min="1025" max="16384" width="10.28515625" style="82"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="97" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="95" t="s">
+        <v>648</v>
+      </c>
+      <c r="B2" s="96" t="s">
+        <v>649</v>
+      </c>
+      <c r="C2" s="22">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="95" t="s">
+        <v>650</v>
+      </c>
+      <c r="B3" s="96" t="s">
+        <v>651</v>
+      </c>
+      <c r="C3" s="22">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="95" t="s">
+        <v>652</v>
+      </c>
+      <c r="B4" s="96" t="s">
+        <v>653</v>
+      </c>
+      <c r="C4" s="22">
+        <v>3061</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet37"/>
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -30933,7 +31482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet38"/>
   <dimension ref="A1:C5"/>
@@ -31010,7 +31559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet39"/>
   <dimension ref="A1:M7"/>
@@ -31231,7 +31780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet40"/>
   <dimension ref="A1:C7"/>
@@ -31329,7 +31878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet41"/>
   <dimension ref="A1:E8"/>
@@ -31489,7 +32038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet42"/>
   <dimension ref="A1:AMJ7"/>
@@ -31681,7 +32230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet43"/>
   <dimension ref="A1:I2"/>
@@ -31766,7 +32315,239 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.140625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="17" t="s">
+        <v>958</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>959</v>
+      </c>
+      <c r="C2" s="115">
+        <v>3419</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>960</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>961</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>962</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="17" t="s">
+        <v>963</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>964</v>
+      </c>
+      <c r="C3" s="115">
+        <v>3419</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="I3" s="116" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="17" t="s">
+        <v>966</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>967</v>
+      </c>
+      <c r="C4" s="115">
+        <v>3419</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="6" t="s">
+        <v>961</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="17" t="s">
+        <v>968</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>969</v>
+      </c>
+      <c r="C5" s="115">
+        <v>3419</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="I5" s="116" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="17" t="s">
+        <v>970</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>971</v>
+      </c>
+      <c r="C6" s="115">
+        <v>3419</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="17" t="s">
+        <v>972</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>973</v>
+      </c>
+      <c r="C7" s="115">
+        <v>3419</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="17" t="s">
+        <v>974</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>975</v>
+      </c>
+      <c r="C8" s="115">
+        <v>3419</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I3" r:id="rId1"/>
+    <hyperlink ref="I5" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet44"/>
   <dimension ref="A1:C2"/>
@@ -31808,7 +32589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet45"/>
   <dimension ref="A1:D2"/>
@@ -31858,7 +32639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet46"/>
   <dimension ref="A1:V6"/>
@@ -32181,239 +32962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:K8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="26" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.140625" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="17" t="s">
-        <v>958</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>959</v>
-      </c>
-      <c r="C2" s="115">
-        <v>3419</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>960</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>961</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>962</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="17" t="s">
-        <v>963</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>964</v>
-      </c>
-      <c r="C3" s="115">
-        <v>3419</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="I3" s="116" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="17" t="s">
-        <v>966</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>967</v>
-      </c>
-      <c r="C4" s="115">
-        <v>3419</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="6" t="s">
-        <v>961</v>
-      </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="17" t="s">
-        <v>968</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>969</v>
-      </c>
-      <c r="C5" s="115">
-        <v>3419</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="I5" s="116" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="17" t="s">
-        <v>970</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>971</v>
-      </c>
-      <c r="C6" s="115">
-        <v>3419</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="17" t="s">
-        <v>972</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>973</v>
-      </c>
-      <c r="C7" s="115">
-        <v>3419</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="17" t="s">
-        <v>974</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>975</v>
-      </c>
-      <c r="C8" s="115">
-        <v>3419</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1"/>
-    <hyperlink ref="I5" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet47"/>
   <dimension ref="A1:AMJ7"/>
@@ -32514,7 +33063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet48"/>
   <dimension ref="A1:AA3"/>
@@ -32720,7 +33269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet50"/>
   <dimension ref="A1:H22"/>
@@ -32769,10 +33318,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="129" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B2" s="129" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C2" s="128" t="s">
         <v>127</v>
@@ -32785,10 +33334,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C3" s="126" t="s">
         <v>127</v>
@@ -32801,10 +33350,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C4" s="126" t="s">
         <v>127</v>
@@ -32817,10 +33366,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C5" s="126" t="s">
         <v>127</v>
@@ -32833,10 +33382,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C6" s="126" t="s">
         <v>127</v>
@@ -32849,10 +33398,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C7" s="126" t="s">
         <v>127</v>
@@ -32865,10 +33414,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="19" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C8" s="126" t="s">
         <v>127</v>
@@ -32881,10 +33430,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C9" s="126" t="s">
         <v>127</v>
@@ -32897,10 +33446,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C10" s="126" t="s">
         <v>127</v>
@@ -32913,10 +33462,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C11" s="126" t="s">
         <v>127</v>
@@ -32929,10 +33478,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="19" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C12" s="126" t="s">
         <v>127</v>
@@ -32945,10 +33494,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="5" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C13" s="126" t="s">
         <v>127</v>
@@ -32961,10 +33510,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="5" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C14" s="126" t="s">
         <v>127</v>
@@ -32977,10 +33526,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="5" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C15" s="126" t="s">
         <v>127</v>
@@ -32993,10 +33542,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="5" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C16" s="126" t="s">
         <v>127</v>
@@ -33009,10 +33558,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="5" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C17" s="126" t="s">
         <v>127</v>
@@ -33025,10 +33574,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="5" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C18" s="126" t="s">
         <v>127</v>
@@ -33041,10 +33590,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="5" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>1268</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>1269</v>
       </c>
       <c r="C19" s="128" t="s">
         <v>127</v>
@@ -33057,10 +33606,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="5" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>1270</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>1271</v>
       </c>
       <c r="C20" s="128" t="s">
         <v>127</v>
@@ -33073,10 +33622,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="5" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>1272</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>1273</v>
       </c>
       <c r="C21" s="128" t="s">
         <v>127</v>
@@ -33089,10 +33638,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="5" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>1274</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>1275</v>
       </c>
       <c r="C22" s="128" t="s">
         <v>127</v>
@@ -33114,7 +33663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -33162,10 +33711,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>1268</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1269</v>
       </c>
       <c r="C2" s="128" t="s">
         <v>127</v>
@@ -33178,10 +33727,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>1270</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>1271</v>
       </c>
       <c r="C3" s="128" t="s">
         <v>127</v>
@@ -33194,10 +33743,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>1272</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>1273</v>
       </c>
       <c r="C4" s="128" t="s">
         <v>127</v>
@@ -33210,10 +33759,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>1274</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>1275</v>
       </c>
       <c r="C5" s="128" t="s">
         <v>127</v>
@@ -33235,7 +33784,143 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="41" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="33.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="106" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="153" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B2" s="153" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C2" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="5" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C3" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="5" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="19" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C5" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="19" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="19" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C7" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="19" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="19" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet49"/>
   <dimension ref="A1:I162"/>
@@ -33294,7 +33979,7 @@
       <c r="B2" s="22" t="s">
         <v>897</v>
       </c>
-      <c r="C2" s="143" t="s">
+      <c r="C2" s="139" t="s">
         <v>812</v>
       </c>
       <c r="D2" s="112" t="s">
@@ -33308,7 +33993,7 @@
       <c r="B3" s="22" t="s">
         <v>898</v>
       </c>
-      <c r="C3" s="144"/>
+      <c r="C3" s="140"/>
       <c r="D3" s="112" t="s">
         <v>127</v>
       </c>
@@ -33320,7 +34005,7 @@
       <c r="B4" s="22" t="s">
         <v>899</v>
       </c>
-      <c r="C4" s="144"/>
+      <c r="C4" s="140"/>
       <c r="D4" s="112" t="s">
         <v>127</v>
       </c>
@@ -33332,7 +34017,7 @@
       <c r="B5" s="22" t="s">
         <v>900</v>
       </c>
-      <c r="C5" s="144"/>
+      <c r="C5" s="140"/>
       <c r="D5" s="112" t="s">
         <v>127</v>
       </c>
@@ -33344,7 +34029,7 @@
       <c r="B6" s="22" t="s">
         <v>907</v>
       </c>
-      <c r="C6" s="144"/>
+      <c r="C6" s="140"/>
       <c r="D6" s="112" t="s">
         <v>127</v>
       </c>
@@ -33356,7 +34041,7 @@
       <c r="B7" s="22" t="s">
         <v>908</v>
       </c>
-      <c r="C7" s="144"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="112" t="s">
         <v>127</v>
       </c>
@@ -33368,7 +34053,7 @@
       <c r="B8" s="22" t="s">
         <v>909</v>
       </c>
-      <c r="C8" s="144"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="112" t="s">
         <v>127</v>
       </c>
@@ -33380,7 +34065,7 @@
       <c r="B9" s="22" t="s">
         <v>910</v>
       </c>
-      <c r="C9" s="144"/>
+      <c r="C9" s="140"/>
       <c r="D9" s="112" t="s">
         <v>127</v>
       </c>
@@ -33392,7 +34077,7 @@
       <c r="B10" s="22" t="s">
         <v>911</v>
       </c>
-      <c r="C10" s="144"/>
+      <c r="C10" s="140"/>
       <c r="D10" s="112" t="s">
         <v>127</v>
       </c>
@@ -33404,7 +34089,7 @@
       <c r="B11" s="22" t="s">
         <v>912</v>
       </c>
-      <c r="C11" s="145"/>
+      <c r="C11" s="141"/>
       <c r="D11" s="112" t="s">
         <v>127</v>
       </c>
@@ -33416,7 +34101,7 @@
       <c r="B12" s="22" t="s">
         <v>916</v>
       </c>
-      <c r="C12" s="136" t="s">
+      <c r="C12" s="142" t="s">
         <v>884</v>
       </c>
       <c r="D12" s="112" t="s">
@@ -33430,7 +34115,7 @@
       <c r="B13" s="22" t="s">
         <v>929</v>
       </c>
-      <c r="C13" s="137"/>
+      <c r="C13" s="143"/>
       <c r="D13" s="112" t="s">
         <v>127</v>
       </c>
@@ -33442,7 +34127,7 @@
       <c r="B14" s="22" t="s">
         <v>931</v>
       </c>
-      <c r="C14" s="137"/>
+      <c r="C14" s="143"/>
       <c r="D14" s="112" t="s">
         <v>127</v>
       </c>
@@ -33454,7 +34139,7 @@
       <c r="B15" s="22" t="s">
         <v>934</v>
       </c>
-      <c r="C15" s="137"/>
+      <c r="C15" s="143"/>
       <c r="D15" s="112" t="s">
         <v>127</v>
       </c>
@@ -33466,7 +34151,7 @@
       <c r="B16" s="22" t="s">
         <v>936</v>
       </c>
-      <c r="C16" s="137"/>
+      <c r="C16" s="143"/>
       <c r="D16" s="112" t="s">
         <v>127</v>
       </c>
@@ -33478,7 +34163,7 @@
       <c r="B17" s="22" t="s">
         <v>939</v>
       </c>
-      <c r="C17" s="137"/>
+      <c r="C17" s="143"/>
       <c r="D17" s="112" t="s">
         <v>127</v>
       </c>
@@ -33490,7 +34175,7 @@
       <c r="B18" s="22" t="s">
         <v>942</v>
       </c>
-      <c r="C18" s="138"/>
+      <c r="C18" s="144"/>
       <c r="D18" s="112" t="s">
         <v>127</v>
       </c>
@@ -33502,7 +34187,7 @@
       <c r="B19" s="22" t="s">
         <v>946</v>
       </c>
-      <c r="C19" s="136" t="s">
+      <c r="C19" s="142" t="s">
         <v>885</v>
       </c>
       <c r="D19" s="112" t="s">
@@ -33516,7 +34201,7 @@
       <c r="B20" s="22" t="s">
         <v>949</v>
       </c>
-      <c r="C20" s="137"/>
+      <c r="C20" s="143"/>
       <c r="D20" s="112" t="s">
         <v>127</v>
       </c>
@@ -33528,7 +34213,7 @@
       <c r="B21" s="22" t="s">
         <v>951</v>
       </c>
-      <c r="C21" s="137"/>
+      <c r="C21" s="143"/>
       <c r="D21" s="112" t="s">
         <v>127</v>
       </c>
@@ -33540,7 +34225,7 @@
       <c r="B22" s="22" t="s">
         <v>953</v>
       </c>
-      <c r="C22" s="137"/>
+      <c r="C22" s="143"/>
       <c r="D22" s="112" t="s">
         <v>127</v>
       </c>
@@ -33552,7 +34237,7 @@
       <c r="B23" s="22" t="s">
         <v>955</v>
       </c>
-      <c r="C23" s="137"/>
+      <c r="C23" s="143"/>
       <c r="D23" s="112" t="s">
         <v>127</v>
       </c>
@@ -33567,7 +34252,7 @@
       <c r="B24" s="22" t="s">
         <v>957</v>
       </c>
-      <c r="C24" s="138"/>
+      <c r="C24" s="144"/>
       <c r="D24" s="112" t="s">
         <v>127</v>
       </c>
@@ -33579,7 +34264,7 @@
       <c r="B25" s="22" t="s">
         <v>959</v>
       </c>
-      <c r="C25" s="136" t="s">
+      <c r="C25" s="142" t="s">
         <v>886</v>
       </c>
       <c r="D25" s="112" t="s">
@@ -33593,7 +34278,7 @@
       <c r="B26" s="22" t="s">
         <v>964</v>
       </c>
-      <c r="C26" s="137"/>
+      <c r="C26" s="143"/>
       <c r="D26" s="112" t="s">
         <v>127</v>
       </c>
@@ -33605,7 +34290,7 @@
       <c r="B27" s="22" t="s">
         <v>967</v>
       </c>
-      <c r="C27" s="137"/>
+      <c r="C27" s="143"/>
       <c r="D27" s="112" t="s">
         <v>127</v>
       </c>
@@ -33617,7 +34302,7 @@
       <c r="B28" s="22" t="s">
         <v>969</v>
       </c>
-      <c r="C28" s="137"/>
+      <c r="C28" s="143"/>
       <c r="D28" s="112" t="s">
         <v>127</v>
       </c>
@@ -33629,7 +34314,7 @@
       <c r="B29" s="22" t="s">
         <v>971</v>
       </c>
-      <c r="C29" s="137"/>
+      <c r="C29" s="143"/>
       <c r="D29" s="112" t="s">
         <v>127</v>
       </c>
@@ -33641,7 +34326,7 @@
       <c r="B30" s="22" t="s">
         <v>973</v>
       </c>
-      <c r="C30" s="137"/>
+      <c r="C30" s="143"/>
       <c r="D30" s="112" t="s">
         <v>127</v>
       </c>
@@ -33653,7 +34338,7 @@
       <c r="B31" s="22" t="s">
         <v>975</v>
       </c>
-      <c r="C31" s="138"/>
+      <c r="C31" s="144"/>
       <c r="D31" s="112" t="s">
         <v>127</v>
       </c>
@@ -33665,7 +34350,7 @@
       <c r="B32" s="22" t="s">
         <v>977</v>
       </c>
-      <c r="C32" s="136" t="s">
+      <c r="C32" s="142" t="s">
         <v>887</v>
       </c>
       <c r="D32" s="112" t="s">
@@ -33679,7 +34364,7 @@
       <c r="B33" s="22" t="s">
         <v>981</v>
       </c>
-      <c r="C33" s="137"/>
+      <c r="C33" s="143"/>
       <c r="D33" s="112" t="s">
         <v>127</v>
       </c>
@@ -33691,7 +34376,7 @@
       <c r="B34" s="22" t="s">
         <v>983</v>
       </c>
-      <c r="C34" s="137"/>
+      <c r="C34" s="143"/>
       <c r="D34" s="112" t="s">
         <v>127</v>
       </c>
@@ -33703,7 +34388,7 @@
       <c r="B35" s="22" t="s">
         <v>985</v>
       </c>
-      <c r="C35" s="137"/>
+      <c r="C35" s="143"/>
       <c r="D35" s="112" t="s">
         <v>127</v>
       </c>
@@ -33715,7 +34400,7 @@
       <c r="B36" s="22" t="s">
         <v>987</v>
       </c>
-      <c r="C36" s="137"/>
+      <c r="C36" s="143"/>
       <c r="D36" s="112" t="s">
         <v>127</v>
       </c>
@@ -33727,7 +34412,7 @@
       <c r="B37" s="22" t="s">
         <v>989</v>
       </c>
-      <c r="C37" s="137"/>
+      <c r="C37" s="143"/>
       <c r="D37" s="112" t="s">
         <v>127</v>
       </c>
@@ -33739,7 +34424,7 @@
       <c r="B38" s="22" t="s">
         <v>991</v>
       </c>
-      <c r="C38" s="138"/>
+      <c r="C38" s="144"/>
       <c r="D38" s="112" t="s">
         <v>127</v>
       </c>
@@ -33751,7 +34436,7 @@
       <c r="B39" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="C39" s="136" t="s">
+      <c r="C39" s="142" t="s">
         <v>888</v>
       </c>
       <c r="D39" s="112" t="s">
@@ -33765,7 +34450,7 @@
       <c r="B40" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="C40" s="137"/>
+      <c r="C40" s="143"/>
       <c r="D40" s="112" t="s">
         <v>127</v>
       </c>
@@ -33777,7 +34462,7 @@
       <c r="B41" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="C41" s="137"/>
+      <c r="C41" s="143"/>
       <c r="D41" s="112" t="s">
         <v>127</v>
       </c>
@@ -33789,7 +34474,7 @@
       <c r="B42" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="C42" s="137"/>
+      <c r="C42" s="143"/>
       <c r="D42" s="112" t="s">
         <v>127</v>
       </c>
@@ -33801,7 +34486,7 @@
       <c r="B43" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="C43" s="138"/>
+      <c r="C43" s="144"/>
       <c r="D43" s="112" t="s">
         <v>127</v>
       </c>
@@ -33813,7 +34498,7 @@
       <c r="B44" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="C44" s="140" t="s">
+      <c r="C44" s="149" t="s">
         <v>889</v>
       </c>
       <c r="D44" s="112" t="s">
@@ -33827,7 +34512,7 @@
       <c r="B45" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="C45" s="141"/>
+      <c r="C45" s="150"/>
       <c r="D45" s="112" t="s">
         <v>127</v>
       </c>
@@ -33839,7 +34524,7 @@
       <c r="B46" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="C46" s="141"/>
+      <c r="C46" s="150"/>
       <c r="D46" s="112" t="s">
         <v>127</v>
       </c>
@@ -33851,7 +34536,7 @@
       <c r="B47" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="C47" s="141"/>
+      <c r="C47" s="150"/>
       <c r="D47" s="112" t="s">
         <v>127</v>
       </c>
@@ -33863,7 +34548,7 @@
       <c r="B48" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="C48" s="141"/>
+      <c r="C48" s="150"/>
       <c r="D48" s="112" t="s">
         <v>127</v>
       </c>
@@ -33875,7 +34560,7 @@
       <c r="B49" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="C49" s="141"/>
+      <c r="C49" s="150"/>
       <c r="D49" s="112" t="s">
         <v>127</v>
       </c>
@@ -33887,7 +34572,7 @@
       <c r="B50" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="C50" s="141"/>
+      <c r="C50" s="150"/>
       <c r="D50" s="112" t="s">
         <v>127</v>
       </c>
@@ -33899,7 +34584,7 @@
       <c r="B51" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="C51" s="141"/>
+      <c r="C51" s="150"/>
       <c r="D51" s="112" t="s">
         <v>127</v>
       </c>
@@ -33911,7 +34596,7 @@
       <c r="B52" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="C52" s="141"/>
+      <c r="C52" s="150"/>
       <c r="D52" s="112" t="s">
         <v>127</v>
       </c>
@@ -33923,7 +34608,7 @@
       <c r="B53" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="C53" s="141"/>
+      <c r="C53" s="150"/>
       <c r="D53" s="112" t="s">
         <v>127</v>
       </c>
@@ -33935,7 +34620,7 @@
       <c r="B54" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="C54" s="141"/>
+      <c r="C54" s="150"/>
       <c r="D54" s="112" t="s">
         <v>127</v>
       </c>
@@ -33947,7 +34632,7 @@
       <c r="B55" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="C55" s="142"/>
+      <c r="C55" s="151"/>
       <c r="D55" s="112" t="s">
         <v>127</v>
       </c>
@@ -33959,7 +34644,7 @@
       <c r="B56" s="22" t="s">
         <v>549</v>
       </c>
-      <c r="C56" s="140" t="s">
+      <c r="C56" s="149" t="s">
         <v>890</v>
       </c>
       <c r="D56" s="112" t="s">
@@ -33973,7 +34658,7 @@
       <c r="B57" s="22" t="s">
         <v>551</v>
       </c>
-      <c r="C57" s="141"/>
+      <c r="C57" s="150"/>
       <c r="D57" s="112" t="s">
         <v>127</v>
       </c>
@@ -33985,7 +34670,7 @@
       <c r="B58" s="22" t="s">
         <v>554</v>
       </c>
-      <c r="C58" s="142"/>
+      <c r="C58" s="151"/>
       <c r="D58" s="112" t="s">
         <v>127</v>
       </c>
@@ -33997,7 +34682,7 @@
       <c r="B59" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C59" s="136" t="s">
+      <c r="C59" s="142" t="s">
         <v>891</v>
       </c>
       <c r="D59" s="112" t="s">
@@ -34011,7 +34696,7 @@
       <c r="B60" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C60" s="137"/>
+      <c r="C60" s="143"/>
       <c r="D60" s="112" t="s">
         <v>127</v>
       </c>
@@ -34023,7 +34708,7 @@
       <c r="B61" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="137"/>
+      <c r="C61" s="143"/>
       <c r="D61" s="112" t="s">
         <v>127</v>
       </c>
@@ -34035,7 +34720,7 @@
       <c r="B62" s="22" t="s">
         <v>811</v>
       </c>
-      <c r="C62" s="137"/>
+      <c r="C62" s="143"/>
       <c r="D62" s="112" t="s">
         <v>127</v>
       </c>
@@ -34047,7 +34732,7 @@
       <c r="B63" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C63" s="137"/>
+      <c r="C63" s="143"/>
       <c r="D63" s="112" t="s">
         <v>127</v>
       </c>
@@ -34059,7 +34744,7 @@
       <c r="B64" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="138"/>
+      <c r="C64" s="144"/>
       <c r="D64" s="112" t="s">
         <v>127</v>
       </c>
@@ -34071,7 +34756,7 @@
       <c r="B65" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="C65" s="146" t="s">
+      <c r="C65" s="145" t="s">
         <v>892</v>
       </c>
       <c r="D65" s="112" t="s">
@@ -34085,7 +34770,7 @@
       <c r="B66" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="C66" s="147"/>
+      <c r="C66" s="146"/>
       <c r="D66" s="112" t="s">
         <v>127</v>
       </c>
@@ -34097,7 +34782,7 @@
       <c r="B67" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="C67" s="147"/>
+      <c r="C67" s="146"/>
       <c r="D67" s="112" t="s">
         <v>127</v>
       </c>
@@ -34109,7 +34794,7 @@
       <c r="B68" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="C68" s="147"/>
+      <c r="C68" s="146"/>
       <c r="D68" s="112" t="s">
         <v>127</v>
       </c>
@@ -34121,7 +34806,7 @@
       <c r="B69" s="22" t="s">
         <v>381</v>
       </c>
-      <c r="C69" s="147"/>
+      <c r="C69" s="146"/>
       <c r="D69" s="112" t="s">
         <v>127</v>
       </c>
@@ -34133,7 +34818,7 @@
       <c r="B70" s="22" t="s">
         <v>384</v>
       </c>
-      <c r="C70" s="147"/>
+      <c r="C70" s="146"/>
       <c r="D70" s="112" t="s">
         <v>127</v>
       </c>
@@ -34145,7 +34830,7 @@
       <c r="B71" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="C71" s="147"/>
+      <c r="C71" s="146"/>
       <c r="D71" s="112" t="s">
         <v>127</v>
       </c>
@@ -34157,7 +34842,7 @@
       <c r="B72" s="22" t="s">
         <v>390</v>
       </c>
-      <c r="C72" s="148"/>
+      <c r="C72" s="147"/>
       <c r="D72" s="112" t="s">
         <v>127</v>
       </c>
@@ -34169,7 +34854,7 @@
       <c r="B73" s="22" t="s">
         <v>827</v>
       </c>
-      <c r="C73" s="139" t="s">
+      <c r="C73" s="148" t="s">
         <v>816</v>
       </c>
       <c r="D73" s="112" t="s">
@@ -34183,7 +34868,7 @@
       <c r="B74" s="22" t="s">
         <v>828</v>
       </c>
-      <c r="C74" s="139"/>
+      <c r="C74" s="148"/>
       <c r="D74" s="112" t="s">
         <v>127</v>
       </c>
@@ -34195,7 +34880,7 @@
       <c r="B75" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="C75" s="135" t="s">
+      <c r="C75" s="138" t="s">
         <v>815</v>
       </c>
       <c r="D75" s="112" t="s">
@@ -34209,7 +34894,7 @@
       <c r="B76" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C76" s="135"/>
+      <c r="C76" s="138"/>
       <c r="D76" s="112" t="s">
         <v>127</v>
       </c>
@@ -34221,7 +34906,7 @@
       <c r="B77" s="22" t="s">
         <v>455</v>
       </c>
-      <c r="C77" s="135"/>
+      <c r="C77" s="138"/>
       <c r="D77" s="112" t="s">
         <v>127</v>
       </c>
@@ -34233,7 +34918,7 @@
       <c r="B78" s="22" t="s">
         <v>482</v>
       </c>
-      <c r="C78" s="135" t="s">
+      <c r="C78" s="138" t="s">
         <v>814</v>
       </c>
       <c r="D78" s="112" t="s">
@@ -34247,7 +34932,7 @@
       <c r="B79" s="22" t="s">
         <v>485</v>
       </c>
-      <c r="C79" s="135"/>
+      <c r="C79" s="138"/>
       <c r="D79" s="112" t="s">
         <v>127</v>
       </c>
@@ -34259,7 +34944,7 @@
       <c r="B80" s="22" t="s">
         <v>492</v>
       </c>
-      <c r="C80" s="135"/>
+      <c r="C80" s="138"/>
       <c r="D80" s="112" t="s">
         <v>127</v>
       </c>
@@ -34271,7 +34956,7 @@
       <c r="B81" s="22" t="s">
         <v>496</v>
       </c>
-      <c r="C81" s="135"/>
+      <c r="C81" s="138"/>
       <c r="D81" s="112" t="s">
         <v>127</v>
       </c>
@@ -34283,7 +34968,7 @@
       <c r="B82" s="22" t="s">
         <v>502</v>
       </c>
-      <c r="C82" s="135"/>
+      <c r="C82" s="138"/>
       <c r="D82" s="112" t="s">
         <v>127</v>
       </c>
@@ -34309,7 +34994,7 @@
       <c r="B84" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C84" s="139" t="s">
+      <c r="C84" s="148" t="s">
         <v>818</v>
       </c>
       <c r="D84" s="112" t="s">
@@ -34323,7 +35008,7 @@
       <c r="B85" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C85" s="139"/>
+      <c r="C85" s="148"/>
       <c r="D85" s="112" t="s">
         <v>127</v>
       </c>
@@ -34349,7 +35034,7 @@
       <c r="B87" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="C87" s="139" t="s">
+      <c r="C87" s="148" t="s">
         <v>820</v>
       </c>
       <c r="D87" s="112" t="s">
@@ -34363,7 +35048,7 @@
       <c r="B88" s="22" t="s">
         <v>466</v>
       </c>
-      <c r="C88" s="139"/>
+      <c r="C88" s="148"/>
       <c r="D88" s="112" t="s">
         <v>127</v>
       </c>
@@ -34375,7 +35060,7 @@
       <c r="B89" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="C89" s="139"/>
+      <c r="C89" s="148"/>
       <c r="D89" s="112" t="s">
         <v>127</v>
       </c>
@@ -34387,7 +35072,7 @@
       <c r="B90" s="22" t="s">
         <v>672</v>
       </c>
-      <c r="C90" s="139" t="s">
+      <c r="C90" s="148" t="s">
         <v>821</v>
       </c>
       <c r="D90" s="112" t="s">
@@ -34401,7 +35086,7 @@
       <c r="B91" s="22" t="s">
         <v>679</v>
       </c>
-      <c r="C91" s="139"/>
+      <c r="C91" s="148"/>
       <c r="D91" s="112" t="s">
         <v>127</v>
       </c>
@@ -34413,7 +35098,7 @@
       <c r="B92" s="22" t="s">
         <v>681</v>
       </c>
-      <c r="C92" s="139"/>
+      <c r="C92" s="148"/>
       <c r="D92" s="112" t="s">
         <v>127</v>
       </c>
@@ -34425,7 +35110,7 @@
       <c r="B93" s="22" t="s">
         <v>683</v>
       </c>
-      <c r="C93" s="139"/>
+      <c r="C93" s="148"/>
       <c r="D93" s="112" t="s">
         <v>127</v>
       </c>
@@ -34437,7 +35122,7 @@
       <c r="B94" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="C94" s="139"/>
+      <c r="C94" s="148"/>
       <c r="D94" s="112" t="s">
         <v>127</v>
       </c>
@@ -34449,7 +35134,7 @@
       <c r="B95" s="22" t="s">
         <v>655</v>
       </c>
-      <c r="C95" s="139" t="s">
+      <c r="C95" s="148" t="s">
         <v>822</v>
       </c>
       <c r="D95" s="112" t="s">
@@ -34463,7 +35148,7 @@
       <c r="B96" s="22" t="s">
         <v>657</v>
       </c>
-      <c r="C96" s="139"/>
+      <c r="C96" s="148"/>
       <c r="D96" s="112" t="s">
         <v>127</v>
       </c>
@@ -34475,7 +35160,7 @@
       <c r="B97" s="22" t="s">
         <v>595</v>
       </c>
-      <c r="C97" s="135" t="s">
+      <c r="C97" s="138" t="s">
         <v>823</v>
       </c>
       <c r="D97" s="112" t="s">
@@ -34489,7 +35174,7 @@
       <c r="B98" s="22" t="s">
         <v>608</v>
       </c>
-      <c r="C98" s="135"/>
+      <c r="C98" s="138"/>
       <c r="D98" s="112" t="s">
         <v>127</v>
       </c>
@@ -34501,7 +35186,7 @@
       <c r="B99" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="C99" s="135"/>
+      <c r="C99" s="138"/>
       <c r="D99" s="112" t="s">
         <v>127</v>
       </c>
@@ -34513,7 +35198,7 @@
       <c r="B100" s="22" t="s">
         <v>612</v>
       </c>
-      <c r="C100" s="135"/>
+      <c r="C100" s="138"/>
       <c r="D100" s="112" t="s">
         <v>127</v>
       </c>
@@ -34539,7 +35224,7 @@
       <c r="B102" s="22" t="s">
         <v>404</v>
       </c>
-      <c r="C102" s="135" t="s">
+      <c r="C102" s="138" t="s">
         <v>839</v>
       </c>
       <c r="D102" s="112" t="s">
@@ -34553,7 +35238,7 @@
       <c r="B103" s="22" t="s">
         <v>834</v>
       </c>
-      <c r="C103" s="135"/>
+      <c r="C103" s="138"/>
       <c r="D103" s="112" t="s">
         <v>127</v>
       </c>
@@ -34565,7 +35250,7 @@
       <c r="B104" s="22" t="s">
         <v>835</v>
       </c>
-      <c r="C104" s="135"/>
+      <c r="C104" s="138"/>
       <c r="D104" s="112" t="s">
         <v>127</v>
       </c>
@@ -34577,7 +35262,7 @@
       <c r="B105" s="22" t="s">
         <v>836</v>
       </c>
-      <c r="C105" s="135"/>
+      <c r="C105" s="138"/>
       <c r="D105" s="112" t="s">
         <v>127</v>
       </c>
@@ -34589,7 +35274,7 @@
       <c r="B106" s="22" t="s">
         <v>837</v>
       </c>
-      <c r="C106" s="135"/>
+      <c r="C106" s="138"/>
       <c r="D106" s="112" t="s">
         <v>127</v>
       </c>
@@ -34601,7 +35286,7 @@
       <c r="B107" s="22" t="s">
         <v>838</v>
       </c>
-      <c r="C107" s="135"/>
+      <c r="C107" s="138"/>
       <c r="D107" s="112" t="s">
         <v>127</v>
       </c>
@@ -34613,7 +35298,7 @@
       <c r="B108" s="22" t="s">
         <v>688</v>
       </c>
-      <c r="C108" s="135" t="s">
+      <c r="C108" s="138" t="s">
         <v>840</v>
       </c>
       <c r="D108" s="112" t="s">
@@ -34627,7 +35312,7 @@
       <c r="B109" s="22" t="s">
         <v>690</v>
       </c>
-      <c r="C109" s="135"/>
+      <c r="C109" s="138"/>
       <c r="D109" s="112" t="s">
         <v>127</v>
       </c>
@@ -34639,7 +35324,7 @@
       <c r="B110" s="22" t="s">
         <v>692</v>
       </c>
-      <c r="C110" s="135"/>
+      <c r="C110" s="138"/>
       <c r="D110" s="112" t="s">
         <v>127</v>
       </c>
@@ -34651,7 +35336,7 @@
       <c r="B111" s="22" t="s">
         <v>694</v>
       </c>
-      <c r="C111" s="135"/>
+      <c r="C111" s="138"/>
       <c r="D111" s="112" t="s">
         <v>127</v>
       </c>
@@ -34663,7 +35348,7 @@
       <c r="B112" s="22" t="s">
         <v>696</v>
       </c>
-      <c r="C112" s="135"/>
+      <c r="C112" s="138"/>
       <c r="D112" s="112" t="s">
         <v>127</v>
       </c>
@@ -34675,7 +35360,7 @@
       <c r="B113" s="22" t="s">
         <v>698</v>
       </c>
-      <c r="C113" s="135"/>
+      <c r="C113" s="138"/>
       <c r="D113" s="112" t="s">
         <v>127</v>
       </c>
@@ -34687,7 +35372,7 @@
       <c r="B114" s="22" t="s">
         <v>649</v>
       </c>
-      <c r="C114" s="135" t="s">
+      <c r="C114" s="138" t="s">
         <v>841</v>
       </c>
       <c r="D114" s="112" t="s">
@@ -34701,7 +35386,7 @@
       <c r="B115" s="22" t="s">
         <v>651</v>
       </c>
-      <c r="C115" s="135"/>
+      <c r="C115" s="138"/>
       <c r="D115" s="112" t="s">
         <v>127</v>
       </c>
@@ -34713,7 +35398,7 @@
       <c r="B116" s="22" t="s">
         <v>653</v>
       </c>
-      <c r="C116" s="135"/>
+      <c r="C116" s="138"/>
       <c r="D116" s="112" t="s">
         <v>127</v>
       </c>
@@ -34725,7 +35410,7 @@
       <c r="B117" s="22" t="s">
         <v>619</v>
       </c>
-      <c r="C117" s="135" t="s">
+      <c r="C117" s="138" t="s">
         <v>842</v>
       </c>
       <c r="D117" s="112" t="s">
@@ -34739,7 +35424,7 @@
       <c r="B118" s="22" t="s">
         <v>621</v>
       </c>
-      <c r="C118" s="135"/>
+      <c r="C118" s="138"/>
       <c r="D118" s="112" t="s">
         <v>127</v>
       </c>
@@ -34751,7 +35436,7 @@
       <c r="B119" s="22" t="s">
         <v>623</v>
       </c>
-      <c r="C119" s="135"/>
+      <c r="C119" s="138"/>
       <c r="D119" s="112" t="s">
         <v>127</v>
       </c>
@@ -34763,7 +35448,7 @@
       <c r="B120" s="22" t="s">
         <v>849</v>
       </c>
-      <c r="C120" s="135" t="s">
+      <c r="C120" s="138" t="s">
         <v>855</v>
       </c>
       <c r="D120" s="112" t="s">
@@ -34777,7 +35462,7 @@
       <c r="B121" s="22" t="s">
         <v>850</v>
       </c>
-      <c r="C121" s="135"/>
+      <c r="C121" s="138"/>
       <c r="D121" s="112" t="s">
         <v>127</v>
       </c>
@@ -34789,7 +35474,7 @@
       <c r="B122" s="22" t="s">
         <v>851</v>
       </c>
-      <c r="C122" s="135"/>
+      <c r="C122" s="138"/>
       <c r="D122" s="112" t="s">
         <v>127</v>
       </c>
@@ -34801,7 +35486,7 @@
       <c r="B123" s="22" t="s">
         <v>852</v>
       </c>
-      <c r="C123" s="135"/>
+      <c r="C123" s="138"/>
       <c r="D123" s="112" t="s">
         <v>127</v>
       </c>
@@ -34813,7 +35498,7 @@
       <c r="B124" s="22" t="s">
         <v>853</v>
       </c>
-      <c r="C124" s="135"/>
+      <c r="C124" s="138"/>
       <c r="D124" s="112" t="s">
         <v>127</v>
       </c>
@@ -34825,7 +35510,7 @@
       <c r="B125" s="22" t="s">
         <v>854</v>
       </c>
-      <c r="C125" s="135"/>
+      <c r="C125" s="138"/>
       <c r="D125" s="112" t="s">
         <v>127</v>
       </c>
@@ -34837,7 +35522,7 @@
       <c r="B126" s="22" t="s">
         <v>423</v>
       </c>
-      <c r="C126" s="135" t="s">
+      <c r="C126" s="138" t="s">
         <v>856</v>
       </c>
       <c r="D126" s="112" t="s">
@@ -34851,7 +35536,7 @@
       <c r="B127" s="22" t="s">
         <v>860</v>
       </c>
-      <c r="C127" s="135"/>
+      <c r="C127" s="138"/>
       <c r="D127" s="112" t="s">
         <v>127</v>
       </c>
@@ -34863,7 +35548,7 @@
       <c r="B128" s="22" t="s">
         <v>861</v>
       </c>
-      <c r="C128" s="135"/>
+      <c r="C128" s="138"/>
       <c r="D128" s="112" t="s">
         <v>127</v>
       </c>
@@ -34875,7 +35560,7 @@
       <c r="B129" s="22" t="s">
         <v>862</v>
       </c>
-      <c r="C129" s="135"/>
+      <c r="C129" s="138"/>
       <c r="D129" s="112" t="s">
         <v>127</v>
       </c>
@@ -34887,7 +35572,7 @@
       <c r="B130" s="22" t="s">
         <v>641</v>
       </c>
-      <c r="C130" s="135" t="s">
+      <c r="C130" s="138" t="s">
         <v>863</v>
       </c>
       <c r="D130" s="112" t="s">
@@ -34901,7 +35586,7 @@
       <c r="B131" s="22" t="s">
         <v>643</v>
       </c>
-      <c r="C131" s="135"/>
+      <c r="C131" s="138"/>
       <c r="D131" s="112" t="s">
         <v>127</v>
       </c>
@@ -34913,7 +35598,7 @@
       <c r="B132" s="22" t="s">
         <v>645</v>
       </c>
-      <c r="C132" s="135"/>
+      <c r="C132" s="138"/>
       <c r="D132" s="112" t="s">
         <v>127</v>
       </c>
@@ -34925,7 +35610,7 @@
       <c r="B133" s="22" t="s">
         <v>647</v>
       </c>
-      <c r="C133" s="135"/>
+      <c r="C133" s="138"/>
       <c r="D133" s="112" t="s">
         <v>127</v>
       </c>
@@ -34937,7 +35622,7 @@
       <c r="B134" s="22" t="s">
         <v>734</v>
       </c>
-      <c r="C134" s="135" t="s">
+      <c r="C134" s="138" t="s">
         <v>864</v>
       </c>
       <c r="D134" s="112" t="s">
@@ -34951,7 +35636,7 @@
       <c r="B135" s="22" t="s">
         <v>736</v>
       </c>
-      <c r="C135" s="135"/>
+      <c r="C135" s="138"/>
       <c r="D135" s="112" t="s">
         <v>127</v>
       </c>
@@ -34963,7 +35648,7 @@
       <c r="B136" s="22" t="s">
         <v>739</v>
       </c>
-      <c r="C136" s="135"/>
+      <c r="C136" s="138"/>
       <c r="D136" s="112" t="s">
         <v>127</v>
       </c>
@@ -34975,7 +35660,7 @@
       <c r="B137" s="22" t="s">
         <v>741</v>
       </c>
-      <c r="C137" s="135"/>
+      <c r="C137" s="138"/>
       <c r="D137" s="112" t="s">
         <v>127</v>
       </c>
@@ -34987,7 +35672,7 @@
       <c r="B138" s="22" t="s">
         <v>744</v>
       </c>
-      <c r="C138" s="135"/>
+      <c r="C138" s="138"/>
       <c r="D138" s="112" t="s">
         <v>127</v>
       </c>
@@ -34999,7 +35684,7 @@
       <c r="B139" s="22" t="s">
         <v>746</v>
       </c>
-      <c r="C139" s="135"/>
+      <c r="C139" s="138"/>
       <c r="D139" s="112" t="s">
         <v>127</v>
       </c>
@@ -35011,7 +35696,7 @@
       <c r="B140" s="22" t="s">
         <v>749</v>
       </c>
-      <c r="C140" s="135" t="s">
+      <c r="C140" s="138" t="s">
         <v>867</v>
       </c>
       <c r="D140" s="112" t="s">
@@ -35025,7 +35710,7 @@
       <c r="B141" s="22" t="s">
         <v>751</v>
       </c>
-      <c r="C141" s="135"/>
+      <c r="C141" s="138"/>
       <c r="D141" s="112" t="s">
         <v>127</v>
       </c>
@@ -35037,7 +35722,7 @@
       <c r="B142" s="22" t="s">
         <v>753</v>
       </c>
-      <c r="C142" s="135"/>
+      <c r="C142" s="138"/>
       <c r="D142" s="112" t="s">
         <v>127</v>
       </c>
@@ -35049,7 +35734,7 @@
       <c r="B143" s="22" t="s">
         <v>755</v>
       </c>
-      <c r="C143" s="135"/>
+      <c r="C143" s="138"/>
       <c r="D143" s="112" t="s">
         <v>127</v>
       </c>
@@ -35061,7 +35746,7 @@
       <c r="B144" s="22" t="s">
         <v>757</v>
       </c>
-      <c r="C144" s="135"/>
+      <c r="C144" s="138"/>
       <c r="D144" s="112" t="s">
         <v>127</v>
       </c>
@@ -35073,7 +35758,7 @@
       <c r="B145" s="22" t="s">
         <v>759</v>
       </c>
-      <c r="C145" s="135"/>
+      <c r="C145" s="138"/>
       <c r="D145" s="112" t="s">
         <v>127</v>
       </c>
@@ -35085,7 +35770,7 @@
       <c r="B146" s="22" t="s">
         <v>875</v>
       </c>
-      <c r="C146" s="135" t="s">
+      <c r="C146" s="138" t="s">
         <v>882</v>
       </c>
       <c r="D146" s="112" t="s">
@@ -35099,7 +35784,7 @@
       <c r="B147" s="22" t="s">
         <v>876</v>
       </c>
-      <c r="C147" s="135"/>
+      <c r="C147" s="138"/>
       <c r="D147" s="112" t="s">
         <v>127</v>
       </c>
@@ -35111,7 +35796,7 @@
       <c r="B148" s="22" t="s">
         <v>877</v>
       </c>
-      <c r="C148" s="135"/>
+      <c r="C148" s="138"/>
       <c r="D148" s="112" t="s">
         <v>127</v>
       </c>
@@ -35123,7 +35808,7 @@
       <c r="B149" s="22" t="s">
         <v>878</v>
       </c>
-      <c r="C149" s="135"/>
+      <c r="C149" s="138"/>
       <c r="D149" s="112" t="s">
         <v>127</v>
       </c>
@@ -35135,7 +35820,7 @@
       <c r="B150" s="22" t="s">
         <v>879</v>
       </c>
-      <c r="C150" s="135"/>
+      <c r="C150" s="138"/>
       <c r="D150" s="112" t="s">
         <v>127</v>
       </c>
@@ -35147,7 +35832,7 @@
       <c r="B151" s="22" t="s">
         <v>880</v>
       </c>
-      <c r="C151" s="135"/>
+      <c r="C151" s="138"/>
       <c r="D151" s="112" t="s">
         <v>127</v>
       </c>
@@ -35159,7 +35844,7 @@
       <c r="B152" s="22" t="s">
         <v>881</v>
       </c>
-      <c r="C152" s="135"/>
+      <c r="C152" s="138"/>
       <c r="D152" s="112" t="s">
         <v>127</v>
       </c>
@@ -35171,7 +35856,7 @@
       <c r="B153" s="22" t="s">
         <v>704</v>
       </c>
-      <c r="C153" s="135"/>
+      <c r="C153" s="138"/>
       <c r="D153" s="112" t="s">
         <v>127</v>
       </c>
@@ -35183,7 +35868,7 @@
       <c r="B154" s="22" t="s">
         <v>706</v>
       </c>
-      <c r="C154" s="135"/>
+      <c r="C154" s="138"/>
       <c r="D154" s="112" t="s">
         <v>127</v>
       </c>
@@ -35195,7 +35880,7 @@
       <c r="B155" s="22" t="s">
         <v>708</v>
       </c>
-      <c r="C155" s="135"/>
+      <c r="C155" s="138"/>
       <c r="D155" s="112" t="s">
         <v>127</v>
       </c>
@@ -35207,7 +35892,7 @@
       <c r="B156" s="22" t="s">
         <v>710</v>
       </c>
-      <c r="C156" s="135"/>
+      <c r="C156" s="138"/>
       <c r="D156" s="112" t="s">
         <v>127</v>
       </c>
@@ -35219,7 +35904,7 @@
       <c r="B157" s="22" t="s">
         <v>712</v>
       </c>
-      <c r="C157" s="135"/>
+      <c r="C157" s="138"/>
       <c r="D157" s="112" t="s">
         <v>127</v>
       </c>
@@ -35231,7 +35916,7 @@
       <c r="B158" s="22" t="s">
         <v>714</v>
       </c>
-      <c r="C158" s="135"/>
+      <c r="C158" s="138"/>
       <c r="D158" s="112" t="s">
         <v>127</v>
       </c>
@@ -35243,7 +35928,7 @@
       <c r="B159" s="22" t="s">
         <v>716</v>
       </c>
-      <c r="C159" s="135"/>
+      <c r="C159" s="138"/>
       <c r="D159" s="112" t="s">
         <v>127</v>
       </c>
@@ -35255,7 +35940,7 @@
       <c r="B160" s="22" t="s">
         <v>770</v>
       </c>
-      <c r="C160" s="135" t="s">
+      <c r="C160" s="138" t="s">
         <v>883</v>
       </c>
       <c r="D160" s="112" t="s">
@@ -35269,7 +35954,7 @@
       <c r="B161" s="22" t="s">
         <v>774</v>
       </c>
-      <c r="C161" s="135"/>
+      <c r="C161" s="138"/>
       <c r="D161" s="112" t="s">
         <v>127</v>
       </c>
@@ -35281,21 +35966,18 @@
       <c r="B162" s="22" t="s">
         <v>776</v>
       </c>
-      <c r="C162" s="135"/>
+      <c r="C162" s="138"/>
       <c r="D162" s="112" t="s">
         <v>127</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="C108:C113"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="C65:C72"/>
-    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="C134:C139"/>
+    <mergeCell ref="C140:C145"/>
+    <mergeCell ref="C146:C159"/>
+    <mergeCell ref="C160:C162"/>
     <mergeCell ref="C117:C119"/>
     <mergeCell ref="C120:C125"/>
     <mergeCell ref="C126:C129"/>
@@ -35312,17 +35994,20 @@
     <mergeCell ref="C97:C100"/>
     <mergeCell ref="C44:C55"/>
     <mergeCell ref="C56:C58"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="C134:C139"/>
-    <mergeCell ref="C140:C145"/>
-    <mergeCell ref="C146:C159"/>
-    <mergeCell ref="C160:C162"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="C108:C113"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="C65:C72"/>
+    <mergeCell ref="C73:C74"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C2 C12 C19 C25 A1:B31 C32 A39:C1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:B38">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D162">
@@ -36233,7 +36918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
@@ -36267,80 +36952,80 @@
         <v>250</v>
       </c>
       <c r="C1" s="81" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D1" s="81" t="s">
         <v>1277</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="E1" s="81" t="s">
         <v>1278</v>
       </c>
-      <c r="E1" s="81" t="s">
+      <c r="F1" s="81" t="s">
         <v>1279</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="G1" s="81" t="s">
         <v>1280</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="H1" s="81" t="s">
         <v>1281</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="I1" s="81" t="s">
         <v>1282</v>
       </c>
-      <c r="I1" s="81" t="s">
+      <c r="J1" s="81" t="s">
         <v>1283</v>
       </c>
-      <c r="J1" s="81" t="s">
+      <c r="K1" s="81" t="s">
         <v>1284</v>
       </c>
-      <c r="K1" s="81" t="s">
+      <c r="L1" s="81" t="s">
         <v>1285</v>
-      </c>
-      <c r="L1" s="81" t="s">
-        <v>1286</v>
       </c>
       <c r="M1" s="81" t="s">
         <v>286</v>
       </c>
       <c r="N1" s="81" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="O1" s="81" t="s">
+        <v>1286</v>
+      </c>
+      <c r="P1" s="81" t="s">
         <v>1287</v>
       </c>
-      <c r="P1" s="81" t="s">
+      <c r="Q1" s="81" t="s">
         <v>1288</v>
       </c>
-      <c r="Q1" s="81" t="s">
+      <c r="R1" s="81" t="s">
         <v>1289</v>
       </c>
-      <c r="R1" s="81" t="s">
+      <c r="S1" s="81" t="s">
         <v>1290</v>
-      </c>
-      <c r="S1" s="81" t="s">
-        <v>1291</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B2" t="s">
         <v>1292</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>1293</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1294</v>
       </c>
-      <c r="D2" t="s">
-        <v>1295</v>
-      </c>
       <c r="E2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B3" t="s">
         <v>1296</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1297</v>
       </c>
       <c r="F3">
         <v>10000</v>
@@ -36352,10 +37037,10 @@
         <v>10000</v>
       </c>
       <c r="I3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="J3" t="s">
         <v>1298</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1299</v>
       </c>
       <c r="K3" t="s">
         <v>305</v>
@@ -36364,36 +37049,36 @@
         <v>155</v>
       </c>
       <c r="M3" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B4" t="s">
         <v>1300</v>
       </c>
-      <c r="B4" t="s">
+      <c r="M4" t="s">
+        <v>1305</v>
+      </c>
+      <c r="N4" t="s">
         <v>1301</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
+        <v>1302</v>
+      </c>
+      <c r="P4" t="s">
         <v>1306</v>
       </c>
-      <c r="N4" t="s">
-        <v>1302</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>1303</v>
-      </c>
-      <c r="P4" t="s">
-        <v>1307</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>1304</v>
       </c>
       <c r="R4">
         <v>10000</v>
       </c>
       <c r="S4" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
   </sheetData>

--- a/ULS_Murabha_MainRepository/TestData/MurabhaTestData.xlsx
+++ b/ULS_Murabha_MainRepository/TestData/MurabhaTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="23" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="25" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Murabha_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -32,46 +32,48 @@
     <sheet name="Murabha_Offering_OfferDetails" sheetId="99" r:id="rId23"/>
     <sheet name="MurabahaPurchaseOrder_TestData" sheetId="102" r:id="rId24"/>
     <sheet name="Murabaha_BeneficiaryTestData" sheetId="101" r:id="rId25"/>
-    <sheet name="EmploymentDetailsTestData" sheetId="94" r:id="rId26"/>
-    <sheet name="EmploymentDetails_AppData" sheetId="95" r:id="rId27"/>
-    <sheet name="ijarah_AddressDetailsTestData" sheetId="2" r:id="rId28"/>
-    <sheet name="IjaraAppDataEntryCFIncome" sheetId="41" r:id="rId29"/>
-    <sheet name="AD_CustomerFolllowUpDetails_610" sheetId="42" r:id="rId30"/>
-    <sheet name="Ijara_Repayment_Mode" sheetId="44" r:id="rId31"/>
-    <sheet name="CF_DebtTestData" sheetId="46" r:id="rId32"/>
-    <sheet name="Living_Expense" sheetId="47" r:id="rId33"/>
-    <sheet name="Ijarah_AssetDetailsTestData" sheetId="3" r:id="rId34"/>
-    <sheet name="InsuranceInfo" sheetId="48" r:id="rId35"/>
-    <sheet name="Ijara_Quotation_Info" sheetId="45" r:id="rId36"/>
-    <sheet name="DataCheck_AppDetails" sheetId="61" r:id="rId37"/>
-    <sheet name="ijarah_AddressDetailsTestDataDC" sheetId="72" r:id="rId38"/>
-    <sheet name="Document_Details" sheetId="53" r:id="rId39"/>
-    <sheet name=" customerDebtExcelData" sheetId="51" r:id="rId40"/>
-    <sheet name="DataCheck_Income" sheetId="63" r:id="rId41"/>
-    <sheet name="EmpDetailsTestData" sheetId="58" r:id="rId42"/>
-    <sheet name="AppDataCheck_RepaymentMode" sheetId="54" r:id="rId43"/>
-    <sheet name="IjaraAppDataCheckQuationInfo" sheetId="57" r:id="rId44"/>
-    <sheet name="UnderWriter_TestData" sheetId="67" r:id="rId45"/>
-    <sheet name="Offering_OfferDetails" sheetId="68" r:id="rId46"/>
-    <sheet name="Offer_Details" sheetId="65" r:id="rId47"/>
-    <sheet name="AssetDetailsTestData" sheetId="69" r:id="rId48"/>
-    <sheet name="Underwriter" sheetId="66" r:id="rId49"/>
-    <sheet name="AppDataCheck_ApplicationDetails" sheetId="55" r:id="rId50"/>
-    <sheet name="Ijara_AddCustInfo_TestData" sheetId="49" r:id="rId51"/>
-    <sheet name="ContractSign_AppDetails" sheetId="71" r:id="rId52"/>
-    <sheet name="EmpDetailsCom_firmTestData" sheetId="56" r:id="rId53"/>
-    <sheet name="AppDetail_ContractStage_TestDat" sheetId="70" r:id="rId54"/>
-    <sheet name="Appdata_ApplicationDetailsExe" sheetId="93" r:id="rId55"/>
-    <sheet name="Appdata_EmployementDetailsExe" sheetId="97" r:id="rId56"/>
-    <sheet name="Muraba_beneficiaryExeSheet" sheetId="103" r:id="rId57"/>
-    <sheet name="Murabha_ExecutionTracker" sheetId="74" r:id="rId58"/>
+    <sheet name="Murabha_OperationCheck" sheetId="105" r:id="rId26"/>
+    <sheet name="EmploymentDetailsTestData" sheetId="94" r:id="rId27"/>
+    <sheet name="MurabhaContractSigningTestData" sheetId="104" r:id="rId28"/>
+    <sheet name="EmploymentDetails_AppData" sheetId="95" r:id="rId29"/>
+    <sheet name="ijarah_AddressDetailsTestData" sheetId="2" r:id="rId30"/>
+    <sheet name="IjaraAppDataEntryCFIncome" sheetId="41" r:id="rId31"/>
+    <sheet name="AD_CustomerFolllowUpDetails_610" sheetId="42" r:id="rId32"/>
+    <sheet name="Ijara_Repayment_Mode" sheetId="44" r:id="rId33"/>
+    <sheet name="CF_DebtTestData" sheetId="46" r:id="rId34"/>
+    <sheet name="Living_Expense" sheetId="47" r:id="rId35"/>
+    <sheet name="Ijarah_AssetDetailsTestData" sheetId="3" r:id="rId36"/>
+    <sheet name="InsuranceInfo" sheetId="48" r:id="rId37"/>
+    <sheet name="Ijara_Quotation_Info" sheetId="45" r:id="rId38"/>
+    <sheet name="DataCheck_AppDetails" sheetId="61" r:id="rId39"/>
+    <sheet name="ijarah_AddressDetailsTestDataDC" sheetId="72" r:id="rId40"/>
+    <sheet name="Document_Details" sheetId="53" r:id="rId41"/>
+    <sheet name=" customerDebtExcelData" sheetId="51" r:id="rId42"/>
+    <sheet name="DataCheck_Income" sheetId="63" r:id="rId43"/>
+    <sheet name="EmpDetailsTestData" sheetId="58" r:id="rId44"/>
+    <sheet name="AppDataCheck_RepaymentMode" sheetId="54" r:id="rId45"/>
+    <sheet name="IjaraAppDataCheckQuationInfo" sheetId="57" r:id="rId46"/>
+    <sheet name="UnderWriter_TestData" sheetId="67" r:id="rId47"/>
+    <sheet name="Offering_OfferDetails" sheetId="68" r:id="rId48"/>
+    <sheet name="Offer_Details" sheetId="65" r:id="rId49"/>
+    <sheet name="AssetDetailsTestData" sheetId="69" r:id="rId50"/>
+    <sheet name="Underwriter" sheetId="66" r:id="rId51"/>
+    <sheet name="AppDataCheck_ApplicationDetails" sheetId="55" r:id="rId52"/>
+    <sheet name="Ijara_AddCustInfo_TestData" sheetId="49" r:id="rId53"/>
+    <sheet name="ContractSign_AppDetails" sheetId="71" r:id="rId54"/>
+    <sheet name="EmpDetailsCom_firmTestData" sheetId="56" r:id="rId55"/>
+    <sheet name="AppDetail_ContractStage_TestDat" sheetId="70" r:id="rId56"/>
+    <sheet name="Appdata_ApplicationDetailsExe" sheetId="93" r:id="rId57"/>
+    <sheet name="Appdata_EmployementDetailsExe" sheetId="97" r:id="rId58"/>
+    <sheet name="Muraba_beneficiaryExeSheet" sheetId="103" r:id="rId59"/>
+    <sheet name="Murabha_ExecutionTracker" sheetId="74" r:id="rId60"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2883" uniqueCount="1363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2946" uniqueCount="1404">
   <si>
     <t>UserName</t>
   </si>
@@ -4160,6 +4162,129 @@
   </si>
   <si>
     <t>4137</t>
+  </si>
+  <si>
+    <t>ContractSigningAuthority1</t>
+  </si>
+  <si>
+    <t>ContractSigningAuthority2</t>
+  </si>
+  <si>
+    <t>PromissoryNoteFrequency</t>
+  </si>
+  <si>
+    <t>NoOfPromissoryNote</t>
+  </si>
+  <si>
+    <t>CharacterInvalidData</t>
+  </si>
+  <si>
+    <t>SpeicalCharacterInvalidData</t>
+  </si>
+  <si>
+    <t>AT_MU_CS_01</t>
+  </si>
+  <si>
+    <t>AT_MU_CS_01_D1</t>
+  </si>
+  <si>
+    <t>4046</t>
+  </si>
+  <si>
+    <t>Purchases Contract</t>
+  </si>
+  <si>
+    <t>Expense Contract</t>
+  </si>
+  <si>
+    <t>AT_MU_CS_02</t>
+  </si>
+  <si>
+    <t>AT_MU_CS_02_D1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>AT_MU_CS_03</t>
+  </si>
+  <si>
+    <t>AT_MU_CS_03_D1</t>
+  </si>
+  <si>
+    <t>2abc</t>
+  </si>
+  <si>
+    <t>2%$$%</t>
+  </si>
+  <si>
+    <t>AT_MU_CS_04</t>
+  </si>
+  <si>
+    <t>AT_MU_CS_04_D1</t>
+  </si>
+  <si>
+    <t>2052</t>
+  </si>
+  <si>
+    <t>userType21</t>
+  </si>
+  <si>
+    <t>Murabha Contract Singing</t>
+  </si>
+  <si>
+    <t>AT_MU_CS_05</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_CS_05</t>
+  </si>
+  <si>
+    <t>0369</t>
+  </si>
+  <si>
+    <t>userType22</t>
+  </si>
+  <si>
+    <t>AssetDelivered</t>
+  </si>
+  <si>
+    <t>AT_MU_OC_01</t>
+  </si>
+  <si>
+    <t>AT_MU_OC_01_D1</t>
+  </si>
+  <si>
+    <t>AT_MU_OC_02</t>
+  </si>
+  <si>
+    <t>AT_MU_OC_02_D1</t>
+  </si>
+  <si>
+    <t>TATA</t>
+  </si>
+  <si>
+    <t>$#$#$#</t>
+  </si>
+  <si>
+    <t>AT_MU_OC_03</t>
+  </si>
+  <si>
+    <t>AT_MU_OC_03_D1</t>
+  </si>
+  <si>
+    <t>AT_MU_OC_04</t>
+  </si>
+  <si>
+    <t>AT_MU_OC_04_D1</t>
+  </si>
+  <si>
+    <t>Updated</t>
+  </si>
+  <si>
+    <t>AT_MU_OC_05</t>
+  </si>
+  <si>
+    <t>AT_MU_OC_05_D1</t>
   </si>
 </sst>
 </file>
@@ -4771,7 +4896,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -4980,6 +5105,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5022,12 +5154,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="10"/>
@@ -5406,10 +5532,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5651,13 +5777,35 @@
       <c r="B21" s="1">
         <v>3083</v>
       </c>
-      <c r="C21" s="152" t="s">
+      <c r="C21" s="138" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A22" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C22" s="138" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="25" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B22:B1048576 B1:B20">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B1:B20 B23:B1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
@@ -5678,9 +5826,11 @@
     <hyperlink ref="C19" r:id="rId16" display="mailto:Admin@1"/>
     <hyperlink ref="C20" r:id="rId17" display="mailto:Admin@1"/>
     <hyperlink ref="C21" r:id="rId18" display="mailto:Admin@1"/>
+    <hyperlink ref="C22" r:id="rId19" display="mailto:Admin@1"/>
+    <hyperlink ref="C23" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -9271,8 +9421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9408,8 +9558,8 @@
       <c r="Q2" s="13" t="s">
         <v>1359</v>
       </c>
-      <c r="R2" s="154"/>
-      <c r="S2" s="154"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="5" t="s">
@@ -9421,24 +9571,24 @@
       <c r="C3" s="6" t="s">
         <v>1362</v>
       </c>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="154"/>
-      <c r="O3" s="154"/>
-      <c r="P3" s="154"/>
-      <c r="Q3" s="154"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="140"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
       <c r="R3" s="6" t="s">
         <v>1350</v>
       </c>
-      <c r="S3" s="155" t="s">
+      <c r="S3" s="141" t="s">
         <v>50</v>
       </c>
     </row>
@@ -9451,6 +9601,121 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="90" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="93" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="93" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="93" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G1" s="93" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="92" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="92" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B3" s="92" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="92" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B4" s="92" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="92" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B5" s="92" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="92" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B6" s="92" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet51"/>
   <dimension ref="A1:D4"/>
@@ -9527,7 +9792,143 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="132" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="142" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E1" s="142" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F1" s="142" t="s">
+        <v>1365</v>
+      </c>
+      <c r="G1" s="142" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H1" s="142" t="s">
+        <v>1367</v>
+      </c>
+      <c r="I1" s="142" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="134" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B2" s="134" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C2" s="133" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D2" s="133" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E2" s="133" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="134" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B3" s="134" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C3" s="133" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133" t="s">
+        <v>189</v>
+      </c>
+      <c r="G3" s="133" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="134" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B4" s="134" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C4" s="133" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="134" t="s">
+        <v>1379</v>
+      </c>
+      <c r="I4" s="134" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="134" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B5" s="134" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C5" s="133" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG5"/>
   <sheetViews>
@@ -9616,806 +10017,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet22"/>
-  <dimension ref="A1:AC7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="26" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="27.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="26.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.140625" style="3" collapsed="1"/>
-    <col min="13" max="13" width="29.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="14.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="19.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="30.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="21.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="41.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="24.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="29.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="26.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="26.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="22.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="17.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="16.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="20.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="30" max="16384" width="9.140625" style="3" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29">
-      <c r="A1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
-      <c r="A2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="6">
-        <v>987456</v>
-      </c>
-      <c r="O2" s="6">
-        <v>974121</v>
-      </c>
-      <c r="P2" s="6">
-        <v>9874563210</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>20</v>
-      </c>
-      <c r="R2" s="6">
-        <v>101010</v>
-      </c>
-      <c r="S2" s="6">
-        <v>101010</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-    </row>
-    <row r="3" spans="1:29">
-      <c r="A3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-    </row>
-    <row r="4" spans="1:29">
-      <c r="A4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-    </row>
-    <row r="5" spans="1:29">
-      <c r="A5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>811</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-    </row>
-    <row r="6" spans="1:29">
-      <c r="A6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-    </row>
-    <row r="7" spans="1:29">
-      <c r="A7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC7" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="Z3" r:id="rId1"/>
-    <hyperlink ref="Z5" r:id="rId2"/>
-    <hyperlink ref="Z6" r:id="rId3"/>
-    <hyperlink ref="Z7" r:id="rId4"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet23"/>
-  <dimension ref="A1:S9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="39.75" thickBot="1">
-      <c r="A1" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>250</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>343</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>344</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>345</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>346</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>347</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>348</v>
-      </c>
-      <c r="J1" s="37" t="s">
-        <v>349</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="L1" s="37" t="s">
-        <v>351</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>352</v>
-      </c>
-      <c r="N1" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="O1" s="37" t="s">
-        <v>354</v>
-      </c>
-      <c r="P1" s="37" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q1" s="37" t="s">
-        <v>356</v>
-      </c>
-      <c r="R1" s="37" t="s">
-        <v>357</v>
-      </c>
-      <c r="S1" s="37" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A2" s="38" t="s">
-        <v>359</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>360</v>
-      </c>
-      <c r="C2" s="39">
-        <v>2193</v>
-      </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-    </row>
-    <row r="3" spans="1:19" ht="39.75" thickBot="1">
-      <c r="A3" s="38" t="s">
-        <v>361</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>362</v>
-      </c>
-      <c r="C3" s="39">
-        <v>2193</v>
-      </c>
-      <c r="D3" s="39">
-        <v>1450000</v>
-      </c>
-      <c r="E3" s="39">
-        <v>13000</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>363</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>364</v>
-      </c>
-      <c r="H3" s="39">
-        <v>85000</v>
-      </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39">
-        <v>100</v>
-      </c>
-      <c r="K3" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="L3" s="39" t="s">
-        <v>365</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>366</v>
-      </c>
-      <c r="N3" s="39" t="s">
-        <v>367</v>
-      </c>
-      <c r="O3" s="39" t="s">
-        <v>364</v>
-      </c>
-      <c r="P3" s="39">
-        <v>1500</v>
-      </c>
-      <c r="Q3" s="39">
-        <v>100</v>
-      </c>
-      <c r="R3" s="39" t="s">
-        <v>368</v>
-      </c>
-      <c r="S3" s="39"/>
-    </row>
-    <row r="4" spans="1:19" ht="27" thickBot="1">
-      <c r="A4" s="38" t="s">
-        <v>369</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="C4" s="39">
-        <v>2193</v>
-      </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39" t="s">
-        <v>371</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>372</v>
-      </c>
-      <c r="H4" s="39">
-        <v>58000</v>
-      </c>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39">
-        <v>100</v>
-      </c>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39" t="s">
-        <v>373</v>
-      </c>
-      <c r="M4" s="39" t="s">
-        <v>374</v>
-      </c>
-      <c r="N4" s="39" t="s">
-        <v>375</v>
-      </c>
-      <c r="O4" s="39" t="s">
-        <v>376</v>
-      </c>
-      <c r="P4" s="39">
-        <v>750</v>
-      </c>
-      <c r="Q4" s="39">
-        <v>100</v>
-      </c>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-    </row>
-    <row r="5" spans="1:19" ht="39.75" thickBot="1">
-      <c r="A5" s="38" t="s">
-        <v>377</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>378</v>
-      </c>
-      <c r="C5" s="39">
-        <v>2193</v>
-      </c>
-      <c r="D5" s="39">
-        <v>1150500</v>
-      </c>
-      <c r="E5" s="39">
-        <v>18500</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>379</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>364</v>
-      </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-    </row>
-    <row r="6" spans="1:19" ht="39.75" thickBot="1">
-      <c r="A6" s="38" t="s">
-        <v>380</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>381</v>
-      </c>
-      <c r="C6" s="39">
-        <v>2193</v>
-      </c>
-      <c r="D6" s="39">
-        <v>880000</v>
-      </c>
-      <c r="E6" s="39">
-        <v>8950</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>379</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>364</v>
-      </c>
-      <c r="H6" s="39">
-        <v>22000</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>382</v>
-      </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A7" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>384</v>
-      </c>
-      <c r="C7" s="39">
-        <v>2193</v>
-      </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-    </row>
-    <row r="8" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A8" s="38" t="s">
-        <v>385</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>386</v>
-      </c>
-      <c r="C8" s="39">
-        <v>2193</v>
-      </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39" t="s">
-        <v>387</v>
-      </c>
-      <c r="S8" s="39" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A9" s="38" t="s">
-        <v>389</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>390</v>
-      </c>
-      <c r="C9" s="39">
-        <v>2193</v>
-      </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -11084,11 +10685,811 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet22"/>
+  <dimension ref="A1:AC7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="26" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="25" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="27.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="26.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="3" collapsed="1"/>
+    <col min="13" max="13" width="29.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="14.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="19.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="30.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="21.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="41.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="24.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="29.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="24.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="26.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="26.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="22.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="17.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="16.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="20.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="30" max="16384" width="9.140625" style="3" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="6">
+        <v>987456</v>
+      </c>
+      <c r="O2" s="6">
+        <v>974121</v>
+      </c>
+      <c r="P2" s="6">
+        <v>9874563210</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>20</v>
+      </c>
+      <c r="R2" s="6">
+        <v>101010</v>
+      </c>
+      <c r="S2" s="6">
+        <v>101010</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Z3" r:id="rId1"/>
+    <hyperlink ref="Z5" r:id="rId2"/>
+    <hyperlink ref="Z6" r:id="rId3"/>
+    <hyperlink ref="Z7" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet23"/>
+  <dimension ref="A1:S9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="39.75" thickBot="1">
+      <c r="A1" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>345</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>352</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>357</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A2" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" s="39">
+        <v>2193</v>
+      </c>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+    </row>
+    <row r="3" spans="1:19" ht="39.75" thickBot="1">
+      <c r="A3" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>362</v>
+      </c>
+      <c r="C3" s="39">
+        <v>2193</v>
+      </c>
+      <c r="D3" s="39">
+        <v>1450000</v>
+      </c>
+      <c r="E3" s="39">
+        <v>13000</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>363</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="H3" s="39">
+        <v>85000</v>
+      </c>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39">
+        <v>100</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="N3" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="O3" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="P3" s="39">
+        <v>1500</v>
+      </c>
+      <c r="Q3" s="39">
+        <v>100</v>
+      </c>
+      <c r="R3" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="S3" s="39"/>
+    </row>
+    <row r="4" spans="1:19" ht="27" thickBot="1">
+      <c r="A4" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="C4" s="39">
+        <v>2193</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="H4" s="39">
+        <v>58000</v>
+      </c>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39">
+        <v>100</v>
+      </c>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="M4" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="N4" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="O4" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="P4" s="39">
+        <v>750</v>
+      </c>
+      <c r="Q4" s="39">
+        <v>100</v>
+      </c>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+    </row>
+    <row r="5" spans="1:19" ht="39.75" thickBot="1">
+      <c r="A5" s="38" t="s">
+        <v>377</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="C5" s="39">
+        <v>2193</v>
+      </c>
+      <c r="D5" s="39">
+        <v>1150500</v>
+      </c>
+      <c r="E5" s="39">
+        <v>18500</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+    </row>
+    <row r="6" spans="1:19" ht="39.75" thickBot="1">
+      <c r="A6" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="C6" s="39">
+        <v>2193</v>
+      </c>
+      <c r="D6" s="39">
+        <v>880000</v>
+      </c>
+      <c r="E6" s="39">
+        <v>8950</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="H6" s="39">
+        <v>22000</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>382</v>
+      </c>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A7" s="38" t="s">
+        <v>383</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>384</v>
+      </c>
+      <c r="C7" s="39">
+        <v>2193</v>
+      </c>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A8" s="38" t="s">
+        <v>385</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>386</v>
+      </c>
+      <c r="C8" s="39">
+        <v>2193</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39" t="s">
+        <v>387</v>
+      </c>
+      <c r="S8" s="39" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A9" s="38" t="s">
+        <v>389</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>390</v>
+      </c>
+      <c r="C9" s="39">
+        <v>2193</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11932,7 +12333,9 @@
       <c r="L51" s="45"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="43"/>
+      <c r="A52" s="47" t="s">
+        <v>1385</v>
+      </c>
       <c r="B52" s="43"/>
       <c r="C52" s="45"/>
       <c r="D52" s="45"/>
@@ -11960,9 +12363,15 @@
       <c r="L53" s="45"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="45"/>
+      <c r="A54" s="43" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C54" s="44" t="s">
+        <v>1371</v>
+      </c>
       <c r="D54" s="45"/>
       <c r="E54" s="45"/>
       <c r="F54" s="45"/>
@@ -12161,7 +12570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:E4"/>
@@ -12244,7 +12653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:M8"/>
@@ -12486,7 +12895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:V9"/>
@@ -12730,7 +13139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:AH3"/>
@@ -13010,7 +13419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet29"/>
   <dimension ref="A1:Y2"/>
@@ -13129,7 +13538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:J20"/>
@@ -13273,7 +13682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:O6"/>
@@ -13473,7 +13882,465 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:AE7"/>
+  <sheetViews>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AE18" sqref="AE18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="28.42578125" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="25" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="32.28515625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD1" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE1" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2971</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>947</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="P2" s="6">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="W2" s="6">
+        <v>2</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2971</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" s="5" t="s">
+        <v>950</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2971</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2971</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB5" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>955</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2971</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB6" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD6" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE6" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>957</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2971</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE7" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AC3" r:id="rId1"/>
+    <hyperlink ref="AC5" r:id="rId2"/>
+    <hyperlink ref="AC6" r:id="rId3"/>
+    <hyperlink ref="AC7" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1:AMJ7"/>
@@ -13876,7 +14743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet33"/>
   <dimension ref="A1:XFD7"/>
@@ -30620,465 +31487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AE7"/>
-  <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AE18" sqref="AE18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="25" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="32.28515625" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:31">
-      <c r="A1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>943</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>944</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD1" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="AE1" s="15" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31">
-      <c r="A2" s="5" t="s">
-        <v>945</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="C2" s="6">
-        <v>2971</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>947</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="P2" s="6">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="W2" s="6">
-        <v>2</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-    </row>
-    <row r="3" spans="1:31">
-      <c r="A3" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>949</v>
-      </c>
-      <c r="C3" s="6">
-        <v>2971</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-    </row>
-    <row r="4" spans="1:31">
-      <c r="A4" s="5" t="s">
-        <v>950</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>951</v>
-      </c>
-      <c r="C4" s="6">
-        <v>2971</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-    </row>
-    <row r="5" spans="1:31">
-      <c r="A5" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>953</v>
-      </c>
-      <c r="C5" s="6">
-        <v>2971</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB5" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-    </row>
-    <row r="6" spans="1:31">
-      <c r="A6" s="5" t="s">
-        <v>954</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>955</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2971</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB6" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD6" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="AE6" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31">
-      <c r="A7" s="5" t="s">
-        <v>956</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>957</v>
-      </c>
-      <c r="C7" s="6">
-        <v>2971</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB7" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD7" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="AE7" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="AC3" r:id="rId1"/>
-    <hyperlink ref="AC5" r:id="rId2"/>
-    <hyperlink ref="AC6" r:id="rId3"/>
-    <hyperlink ref="AC7" r:id="rId4"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet34"/>
   <dimension ref="A1:AMJ7"/>
@@ -31251,7 +31660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet35"/>
   <dimension ref="A1:C7"/>
@@ -31349,7 +31758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet36"/>
   <dimension ref="A1:AMJ4"/>
@@ -31417,7 +31826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet37"/>
   <dimension ref="A1:C4"/>
@@ -31482,7 +31891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet38"/>
   <dimension ref="A1:C5"/>
@@ -31559,7 +31968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet39"/>
   <dimension ref="A1:M7"/>
@@ -31780,7 +32189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet40"/>
   <dimension ref="A1:C7"/>
@@ -31878,7 +32287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet41"/>
   <dimension ref="A1:E8"/>
@@ -32030,283 +32439,6 @@
       </c>
       <c r="E8" s="19">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet42"/>
-  <dimension ref="A1:AMJ7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="43.7109375" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" style="69" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" style="69" customWidth="1"/>
-    <col min="3" max="1024" width="12.140625" style="69" customWidth="1"/>
-    <col min="1025" max="16384" width="43.7109375" style="71"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15">
-      <c r="A1" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="102" t="s">
-        <v>276</v>
-      </c>
-      <c r="D1" s="83" t="s">
-        <v>763</v>
-      </c>
-      <c r="E1" s="83" t="s">
-        <v>764</v>
-      </c>
-      <c r="F1" s="83" t="s">
-        <v>717</v>
-      </c>
-      <c r="G1" s="83" t="s">
-        <v>718</v>
-      </c>
-      <c r="H1" s="83" t="s">
-        <v>591</v>
-      </c>
-      <c r="I1" s="83" t="s">
-        <v>719</v>
-      </c>
-      <c r="J1" s="83" t="s">
-        <v>720</v>
-      </c>
-      <c r="K1" s="83" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15">
-      <c r="A2" s="74" t="s">
-        <v>765</v>
-      </c>
-      <c r="B2" s="109" t="s">
-        <v>766</v>
-      </c>
-      <c r="C2" s="87" t="s">
-        <v>565</v>
-      </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-    </row>
-    <row r="3" spans="1:11" ht="15">
-      <c r="A3" s="74" t="s">
-        <v>767</v>
-      </c>
-      <c r="B3" s="109" t="s">
-        <v>768</v>
-      </c>
-      <c r="C3" s="87" t="s">
-        <v>565</v>
-      </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-    </row>
-    <row r="4" spans="1:11" ht="15">
-      <c r="A4" s="74" t="s">
-        <v>769</v>
-      </c>
-      <c r="B4" s="109" t="s">
-        <v>770</v>
-      </c>
-      <c r="C4" s="87" t="s">
-        <v>406</v>
-      </c>
-      <c r="D4" s="87" t="s">
-        <v>771</v>
-      </c>
-      <c r="E4" s="87" t="s">
-        <v>772</v>
-      </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-    </row>
-    <row r="5" spans="1:11" ht="15">
-      <c r="A5" s="74" t="s">
-        <v>773</v>
-      </c>
-      <c r="B5" s="109" t="s">
-        <v>774</v>
-      </c>
-      <c r="C5" s="87" t="s">
-        <v>406</v>
-      </c>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-    </row>
-    <row r="6" spans="1:11" ht="15">
-      <c r="A6" s="74" t="s">
-        <v>775</v>
-      </c>
-      <c r="B6" s="109" t="s">
-        <v>776</v>
-      </c>
-      <c r="C6" s="87" t="s">
-        <v>406</v>
-      </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-    </row>
-    <row r="7" spans="1:11" ht="15">
-      <c r="A7" s="74" t="s">
-        <v>722</v>
-      </c>
-      <c r="B7" s="109" t="s">
-        <v>777</v>
-      </c>
-      <c r="C7" s="87" t="s">
-        <v>735</v>
-      </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87" t="s">
-        <v>742</v>
-      </c>
-      <c r="G7" s="87" t="s">
-        <v>724</v>
-      </c>
-      <c r="H7" s="110" t="s">
-        <v>725</v>
-      </c>
-      <c r="I7" s="87" t="s">
-        <v>726</v>
-      </c>
-      <c r="J7" s="87" t="s">
-        <v>727</v>
-      </c>
-      <c r="K7" s="87" t="s">
-        <v>728</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.0247999999999999" bottom="1.0247999999999999" header="0.88580000000000003" footer="0.88580000000000003"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;10&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;10Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet43"/>
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="99" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="99" t="s">
-        <v>503</v>
-      </c>
-      <c r="C1" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="D1" s="100" t="s">
-        <v>717</v>
-      </c>
-      <c r="E1" s="100" t="s">
-        <v>718</v>
-      </c>
-      <c r="F1" s="100" t="s">
-        <v>591</v>
-      </c>
-      <c r="G1" s="100" t="s">
-        <v>719</v>
-      </c>
-      <c r="H1" s="100" t="s">
-        <v>720</v>
-      </c>
-      <c r="I1" s="100" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="19" t="s">
-        <v>722</v>
-      </c>
-      <c r="B2" s="101" t="s">
-        <v>723</v>
-      </c>
-      <c r="C2" s="22">
-        <v>3209</v>
-      </c>
-      <c r="D2" s="101">
-        <v>5679</v>
-      </c>
-      <c r="E2" s="101" t="s">
-        <v>724</v>
-      </c>
-      <c r="F2" s="101" t="s">
-        <v>725</v>
-      </c>
-      <c r="G2" s="101" t="s">
-        <v>726</v>
-      </c>
-      <c r="H2" s="101" t="s">
-        <v>727</v>
-      </c>
-      <c r="I2" s="101" t="s">
-        <v>728</v>
       </c>
     </row>
   </sheetData>
@@ -32549,6 +32681,283 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet42"/>
+  <dimension ref="A1:AMJ7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="43.7109375" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" style="69" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" style="69" customWidth="1"/>
+    <col min="3" max="1024" width="12.140625" style="69" customWidth="1"/>
+    <col min="1025" max="16384" width="43.7109375" style="71"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15">
+      <c r="A1" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="102" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="83" t="s">
+        <v>763</v>
+      </c>
+      <c r="E1" s="83" t="s">
+        <v>764</v>
+      </c>
+      <c r="F1" s="83" t="s">
+        <v>717</v>
+      </c>
+      <c r="G1" s="83" t="s">
+        <v>718</v>
+      </c>
+      <c r="H1" s="83" t="s">
+        <v>591</v>
+      </c>
+      <c r="I1" s="83" t="s">
+        <v>719</v>
+      </c>
+      <c r="J1" s="83" t="s">
+        <v>720</v>
+      </c>
+      <c r="K1" s="83" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15">
+      <c r="A2" s="74" t="s">
+        <v>765</v>
+      </c>
+      <c r="B2" s="109" t="s">
+        <v>766</v>
+      </c>
+      <c r="C2" s="87" t="s">
+        <v>565</v>
+      </c>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+    </row>
+    <row r="3" spans="1:11" ht="15">
+      <c r="A3" s="74" t="s">
+        <v>767</v>
+      </c>
+      <c r="B3" s="109" t="s">
+        <v>768</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>565</v>
+      </c>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+    </row>
+    <row r="4" spans="1:11" ht="15">
+      <c r="A4" s="74" t="s">
+        <v>769</v>
+      </c>
+      <c r="B4" s="109" t="s">
+        <v>770</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>406</v>
+      </c>
+      <c r="D4" s="87" t="s">
+        <v>771</v>
+      </c>
+      <c r="E4" s="87" t="s">
+        <v>772</v>
+      </c>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+    </row>
+    <row r="5" spans="1:11" ht="15">
+      <c r="A5" s="74" t="s">
+        <v>773</v>
+      </c>
+      <c r="B5" s="109" t="s">
+        <v>774</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>406</v>
+      </c>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+    </row>
+    <row r="6" spans="1:11" ht="15">
+      <c r="A6" s="74" t="s">
+        <v>775</v>
+      </c>
+      <c r="B6" s="109" t="s">
+        <v>776</v>
+      </c>
+      <c r="C6" s="87" t="s">
+        <v>406</v>
+      </c>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+    </row>
+    <row r="7" spans="1:11" ht="15">
+      <c r="A7" s="74" t="s">
+        <v>722</v>
+      </c>
+      <c r="B7" s="109" t="s">
+        <v>777</v>
+      </c>
+      <c r="C7" s="87" t="s">
+        <v>735</v>
+      </c>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87" t="s">
+        <v>742</v>
+      </c>
+      <c r="G7" s="87" t="s">
+        <v>724</v>
+      </c>
+      <c r="H7" s="110" t="s">
+        <v>725</v>
+      </c>
+      <c r="I7" s="87" t="s">
+        <v>726</v>
+      </c>
+      <c r="J7" s="87" t="s">
+        <v>727</v>
+      </c>
+      <c r="K7" s="87" t="s">
+        <v>728</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.0247999999999999" bottom="1.0247999999999999" header="0.88580000000000003" footer="0.88580000000000003"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;10Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet43"/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="99" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="99" t="s">
+        <v>503</v>
+      </c>
+      <c r="C1" s="93" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="100" t="s">
+        <v>717</v>
+      </c>
+      <c r="E1" s="100" t="s">
+        <v>718</v>
+      </c>
+      <c r="F1" s="100" t="s">
+        <v>591</v>
+      </c>
+      <c r="G1" s="100" t="s">
+        <v>719</v>
+      </c>
+      <c r="H1" s="100" t="s">
+        <v>720</v>
+      </c>
+      <c r="I1" s="100" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="19" t="s">
+        <v>722</v>
+      </c>
+      <c r="B2" s="101" t="s">
+        <v>723</v>
+      </c>
+      <c r="C2" s="22">
+        <v>3209</v>
+      </c>
+      <c r="D2" s="101">
+        <v>5679</v>
+      </c>
+      <c r="E2" s="101" t="s">
+        <v>724</v>
+      </c>
+      <c r="F2" s="101" t="s">
+        <v>725</v>
+      </c>
+      <c r="G2" s="101" t="s">
+        <v>726</v>
+      </c>
+      <c r="H2" s="101" t="s">
+        <v>727</v>
+      </c>
+      <c r="I2" s="101" t="s">
+        <v>728</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet44"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -32589,7 +32998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet45"/>
   <dimension ref="A1:D2"/>
@@ -32639,7 +33048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet46"/>
   <dimension ref="A1:V6"/>
@@ -32962,7 +33371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet47"/>
   <dimension ref="A1:AMJ7"/>
@@ -33063,7 +33472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet48"/>
   <dimension ref="A1:AA3"/>
@@ -33269,7 +33678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet50"/>
   <dimension ref="A1:H22"/>
@@ -33663,7 +34072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -33784,12 +34193,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33831,10 +34240,10 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="139" t="s">
         <v>1323</v>
       </c>
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="139" t="s">
         <v>1324</v>
       </c>
       <c r="C2" s="112" t="s">
@@ -33916,2108 +34325,6 @@
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet49"/>
-  <dimension ref="A1:I162"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="42.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="36.28515625" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>813</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="19" t="s">
-        <v>893</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>897</v>
-      </c>
-      <c r="C2" s="139" t="s">
-        <v>812</v>
-      </c>
-      <c r="D2" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="19" t="s">
-        <v>894</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>898</v>
-      </c>
-      <c r="C3" s="140"/>
-      <c r="D3" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="19" t="s">
-        <v>895</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>899</v>
-      </c>
-      <c r="C4" s="140"/>
-      <c r="D4" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="19" t="s">
-        <v>896</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>900</v>
-      </c>
-      <c r="C5" s="140"/>
-      <c r="D5" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="19" t="s">
-        <v>901</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>907</v>
-      </c>
-      <c r="C6" s="140"/>
-      <c r="D6" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="19" t="s">
-        <v>902</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>908</v>
-      </c>
-      <c r="C7" s="140"/>
-      <c r="D7" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="19" t="s">
-        <v>903</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>909</v>
-      </c>
-      <c r="C8" s="140"/>
-      <c r="D8" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="19" t="s">
-        <v>904</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>910</v>
-      </c>
-      <c r="C9" s="140"/>
-      <c r="D9" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="19" t="s">
-        <v>905</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>911</v>
-      </c>
-      <c r="C10" s="140"/>
-      <c r="D10" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="19" t="s">
-        <v>906</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>912</v>
-      </c>
-      <c r="C11" s="141"/>
-      <c r="D11" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="5" t="s">
-        <v>915</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>916</v>
-      </c>
-      <c r="C12" s="142" t="s">
-        <v>884</v>
-      </c>
-      <c r="D12" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="5" t="s">
-        <v>928</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>929</v>
-      </c>
-      <c r="C13" s="143"/>
-      <c r="D13" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="5" t="s">
-        <v>930</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>931</v>
-      </c>
-      <c r="C14" s="143"/>
-      <c r="D14" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="5" t="s">
-        <v>933</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>934</v>
-      </c>
-      <c r="C15" s="143"/>
-      <c r="D15" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="5" t="s">
-        <v>935</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>936</v>
-      </c>
-      <c r="C16" s="143"/>
-      <c r="D16" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="5" t="s">
-        <v>938</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>939</v>
-      </c>
-      <c r="C17" s="143"/>
-      <c r="D17" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="5" t="s">
-        <v>941</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>942</v>
-      </c>
-      <c r="C18" s="144"/>
-      <c r="D18" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="5" t="s">
-        <v>945</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>946</v>
-      </c>
-      <c r="C19" s="142" t="s">
-        <v>885</v>
-      </c>
-      <c r="D19" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>949</v>
-      </c>
-      <c r="C20" s="143"/>
-      <c r="D20" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="5" t="s">
-        <v>950</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>951</v>
-      </c>
-      <c r="C21" s="143"/>
-      <c r="D21" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>953</v>
-      </c>
-      <c r="C22" s="143"/>
-      <c r="D22" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="5" t="s">
-        <v>954</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>955</v>
-      </c>
-      <c r="C23" s="143"/>
-      <c r="D23" s="112" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="5" t="s">
-        <v>956</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>957</v>
-      </c>
-      <c r="C24" s="144"/>
-      <c r="D24" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="17" t="s">
-        <v>958</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>959</v>
-      </c>
-      <c r="C25" s="142" t="s">
-        <v>886</v>
-      </c>
-      <c r="D25" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="17" t="s">
-        <v>963</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>964</v>
-      </c>
-      <c r="C26" s="143"/>
-      <c r="D26" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="17" t="s">
-        <v>966</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>967</v>
-      </c>
-      <c r="C27" s="143"/>
-      <c r="D27" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="17" t="s">
-        <v>968</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>969</v>
-      </c>
-      <c r="C28" s="143"/>
-      <c r="D28" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="17" t="s">
-        <v>970</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>971</v>
-      </c>
-      <c r="C29" s="143"/>
-      <c r="D29" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="17" t="s">
-        <v>972</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>973</v>
-      </c>
-      <c r="C30" s="143"/>
-      <c r="D30" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="17" t="s">
-        <v>974</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>975</v>
-      </c>
-      <c r="C31" s="144"/>
-      <c r="D31" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="5" t="s">
-        <v>976</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>977</v>
-      </c>
-      <c r="C32" s="142" t="s">
-        <v>887</v>
-      </c>
-      <c r="D32" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="5" t="s">
-        <v>980</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>981</v>
-      </c>
-      <c r="C33" s="143"/>
-      <c r="D33" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="5" t="s">
-        <v>982</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>983</v>
-      </c>
-      <c r="C34" s="143"/>
-      <c r="D34" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="5" t="s">
-        <v>984</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>985</v>
-      </c>
-      <c r="C35" s="143"/>
-      <c r="D35" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="5" t="s">
-        <v>986</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>987</v>
-      </c>
-      <c r="C36" s="143"/>
-      <c r="D36" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="5" t="s">
-        <v>988</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>989</v>
-      </c>
-      <c r="C37" s="143"/>
-      <c r="D37" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="5" t="s">
-        <v>990</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>991</v>
-      </c>
-      <c r="C38" s="144"/>
-      <c r="D38" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="C39" s="142" t="s">
-        <v>888</v>
-      </c>
-      <c r="D39" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="C40" s="143"/>
-      <c r="D40" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="C41" s="143"/>
-      <c r="D41" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="C42" s="143"/>
-      <c r="D42" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="C43" s="144"/>
-      <c r="D43" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="C44" s="149" t="s">
-        <v>889</v>
-      </c>
-      <c r="D44" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="C45" s="150"/>
-      <c r="D45" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="C46" s="150"/>
-      <c r="D46" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>321</v>
-      </c>
-      <c r="C47" s="150"/>
-      <c r="D47" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="C48" s="150"/>
-      <c r="D48" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>326</v>
-      </c>
-      <c r="C49" s="150"/>
-      <c r="D49" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="C50" s="150"/>
-      <c r="D50" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>334</v>
-      </c>
-      <c r="C51" s="150"/>
-      <c r="D51" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>336</v>
-      </c>
-      <c r="C52" s="150"/>
-      <c r="D52" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="B53" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="C53" s="150"/>
-      <c r="D53" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="C54" s="150"/>
-      <c r="D54" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="B55" s="22" t="s">
-        <v>342</v>
-      </c>
-      <c r="C55" s="151"/>
-      <c r="D55" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="19" t="s">
-        <v>548</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>549</v>
-      </c>
-      <c r="C56" s="149" t="s">
-        <v>890</v>
-      </c>
-      <c r="D56" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="19" t="s">
-        <v>550</v>
-      </c>
-      <c r="B57" s="22" t="s">
-        <v>551</v>
-      </c>
-      <c r="C57" s="150"/>
-      <c r="D57" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="19" t="s">
-        <v>553</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>554</v>
-      </c>
-      <c r="C58" s="151"/>
-      <c r="D58" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B59" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C59" s="142" t="s">
-        <v>891</v>
-      </c>
-      <c r="D59" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B60" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C60" s="143"/>
-      <c r="D60" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B61" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C61" s="143"/>
-      <c r="D61" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B62" s="22" t="s">
-        <v>811</v>
-      </c>
-      <c r="C62" s="143"/>
-      <c r="D62" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B63" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C63" s="143"/>
-      <c r="D63" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B64" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C64" s="144"/>
-      <c r="D64" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="108" t="s">
-        <v>359</v>
-      </c>
-      <c r="B65" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="C65" s="145" t="s">
-        <v>892</v>
-      </c>
-      <c r="D65" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="108" t="s">
-        <v>361</v>
-      </c>
-      <c r="B66" s="22" t="s">
-        <v>362</v>
-      </c>
-      <c r="C66" s="146"/>
-      <c r="D66" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="108" t="s">
-        <v>369</v>
-      </c>
-      <c r="B67" s="22" t="s">
-        <v>370</v>
-      </c>
-      <c r="C67" s="146"/>
-      <c r="D67" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="108" t="s">
-        <v>377</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>378</v>
-      </c>
-      <c r="C68" s="146"/>
-      <c r="D68" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="108" t="s">
-        <v>380</v>
-      </c>
-      <c r="B69" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="C69" s="146"/>
-      <c r="D69" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="108" t="s">
-        <v>383</v>
-      </c>
-      <c r="B70" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="C70" s="146"/>
-      <c r="D70" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="108" t="s">
-        <v>385</v>
-      </c>
-      <c r="B71" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="C71" s="146"/>
-      <c r="D71" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="108" t="s">
-        <v>389</v>
-      </c>
-      <c r="B72" s="22" t="s">
-        <v>390</v>
-      </c>
-      <c r="C72" s="147"/>
-      <c r="D72" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="5" t="s">
-        <v>825</v>
-      </c>
-      <c r="B73" s="22" t="s">
-        <v>827</v>
-      </c>
-      <c r="C73" s="148" t="s">
-        <v>816</v>
-      </c>
-      <c r="D73" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="5" t="s">
-        <v>826</v>
-      </c>
-      <c r="B74" s="22" t="s">
-        <v>828</v>
-      </c>
-      <c r="C74" s="148"/>
-      <c r="D74" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="B75" s="22" t="s">
-        <v>451</v>
-      </c>
-      <c r="C75" s="138" t="s">
-        <v>815</v>
-      </c>
-      <c r="D75" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="19" t="s">
-        <v>452</v>
-      </c>
-      <c r="B76" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="C76" s="138"/>
-      <c r="D76" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="B77" s="22" t="s">
-        <v>455</v>
-      </c>
-      <c r="C77" s="138"/>
-      <c r="D77" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="57" t="s">
-        <v>481</v>
-      </c>
-      <c r="B78" s="22" t="s">
-        <v>482</v>
-      </c>
-      <c r="C78" s="138" t="s">
-        <v>814</v>
-      </c>
-      <c r="D78" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="57" t="s">
-        <v>484</v>
-      </c>
-      <c r="B79" s="22" t="s">
-        <v>485</v>
-      </c>
-      <c r="C79" s="138"/>
-      <c r="D79" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="57" t="s">
-        <v>491</v>
-      </c>
-      <c r="B80" s="22" t="s">
-        <v>492</v>
-      </c>
-      <c r="C80" s="138"/>
-      <c r="D80" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="57" t="s">
-        <v>495</v>
-      </c>
-      <c r="B81" s="22" t="s">
-        <v>496</v>
-      </c>
-      <c r="C81" s="138"/>
-      <c r="D81" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="57" t="s">
-        <v>501</v>
-      </c>
-      <c r="B82" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="C82" s="138"/>
-      <c r="D82" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="19" t="s">
-        <v>511</v>
-      </c>
-      <c r="B83" s="22" t="s">
-        <v>512</v>
-      </c>
-      <c r="C83" s="114" t="s">
-        <v>817</v>
-      </c>
-      <c r="D83" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B84" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="C84" s="148" t="s">
-        <v>818</v>
-      </c>
-      <c r="D84" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B85" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C85" s="148"/>
-      <c r="D85" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="19" t="s">
-        <v>526</v>
-      </c>
-      <c r="B86" s="22" t="s">
-        <v>527</v>
-      </c>
-      <c r="C86" s="114" t="s">
-        <v>819</v>
-      </c>
-      <c r="D86" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="49" t="s">
-        <v>463</v>
-      </c>
-      <c r="B87" s="22" t="s">
-        <v>464</v>
-      </c>
-      <c r="C87" s="148" t="s">
-        <v>820</v>
-      </c>
-      <c r="D87" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="49" t="s">
-        <v>465</v>
-      </c>
-      <c r="B88" s="22" t="s">
-        <v>466</v>
-      </c>
-      <c r="C88" s="148"/>
-      <c r="D88" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="49" t="s">
-        <v>468</v>
-      </c>
-      <c r="B89" s="22" t="s">
-        <v>469</v>
-      </c>
-      <c r="C89" s="148"/>
-      <c r="D89" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="92" t="s">
-        <v>671</v>
-      </c>
-      <c r="B90" s="22" t="s">
-        <v>672</v>
-      </c>
-      <c r="C90" s="148" t="s">
-        <v>821</v>
-      </c>
-      <c r="D90" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="92" t="s">
-        <v>678</v>
-      </c>
-      <c r="B91" s="22" t="s">
-        <v>679</v>
-      </c>
-      <c r="C91" s="148"/>
-      <c r="D91" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="92" t="s">
-        <v>680</v>
-      </c>
-      <c r="B92" s="22" t="s">
-        <v>681</v>
-      </c>
-      <c r="C92" s="148"/>
-      <c r="D92" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="92" t="s">
-        <v>682</v>
-      </c>
-      <c r="B93" s="22" t="s">
-        <v>683</v>
-      </c>
-      <c r="C93" s="148"/>
-      <c r="D93" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="92" t="s">
-        <v>684</v>
-      </c>
-      <c r="B94" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="C94" s="148"/>
-      <c r="D94" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="85" t="s">
-        <v>654</v>
-      </c>
-      <c r="B95" s="22" t="s">
-        <v>655</v>
-      </c>
-      <c r="C95" s="148" t="s">
-        <v>822</v>
-      </c>
-      <c r="D95" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="92" t="s">
-        <v>656</v>
-      </c>
-      <c r="B96" s="22" t="s">
-        <v>657</v>
-      </c>
-      <c r="C96" s="148"/>
-      <c r="D96" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="19" t="s">
-        <v>594</v>
-      </c>
-      <c r="B97" s="22" t="s">
-        <v>595</v>
-      </c>
-      <c r="C97" s="138" t="s">
-        <v>823</v>
-      </c>
-      <c r="D97" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="19" t="s">
-        <v>607</v>
-      </c>
-      <c r="B98" s="22" t="s">
-        <v>608</v>
-      </c>
-      <c r="C98" s="138"/>
-      <c r="D98" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="19" t="s">
-        <v>609</v>
-      </c>
-      <c r="B99" s="22" t="s">
-        <v>610</v>
-      </c>
-      <c r="C99" s="138"/>
-      <c r="D99" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="19" t="s">
-        <v>611</v>
-      </c>
-      <c r="B100" s="22" t="s">
-        <v>612</v>
-      </c>
-      <c r="C100" s="138"/>
-      <c r="D100" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="19" t="s">
-        <v>563</v>
-      </c>
-      <c r="B101" s="22" t="s">
-        <v>564</v>
-      </c>
-      <c r="C101" s="113" t="s">
-        <v>824</v>
-      </c>
-      <c r="D101" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="43" t="s">
-        <v>403</v>
-      </c>
-      <c r="B102" s="22" t="s">
-        <v>404</v>
-      </c>
-      <c r="C102" s="138" t="s">
-        <v>839</v>
-      </c>
-      <c r="D102" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="43" t="s">
-        <v>829</v>
-      </c>
-      <c r="B103" s="22" t="s">
-        <v>834</v>
-      </c>
-      <c r="C103" s="138"/>
-      <c r="D103" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="43" t="s">
-        <v>830</v>
-      </c>
-      <c r="B104" s="22" t="s">
-        <v>835</v>
-      </c>
-      <c r="C104" s="138"/>
-      <c r="D104" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="43" t="s">
-        <v>831</v>
-      </c>
-      <c r="B105" s="22" t="s">
-        <v>836</v>
-      </c>
-      <c r="C105" s="138"/>
-      <c r="D105" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="43" t="s">
-        <v>832</v>
-      </c>
-      <c r="B106" s="22" t="s">
-        <v>837</v>
-      </c>
-      <c r="C106" s="138"/>
-      <c r="D106" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="43" t="s">
-        <v>833</v>
-      </c>
-      <c r="B107" s="22" t="s">
-        <v>838</v>
-      </c>
-      <c r="C107" s="138"/>
-      <c r="D107" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="92" t="s">
-        <v>687</v>
-      </c>
-      <c r="B108" s="22" t="s">
-        <v>688</v>
-      </c>
-      <c r="C108" s="138" t="s">
-        <v>840</v>
-      </c>
-      <c r="D108" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="92" t="s">
-        <v>689</v>
-      </c>
-      <c r="B109" s="22" t="s">
-        <v>690</v>
-      </c>
-      <c r="C109" s="138"/>
-      <c r="D109" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="92" t="s">
-        <v>691</v>
-      </c>
-      <c r="B110" s="22" t="s">
-        <v>692</v>
-      </c>
-      <c r="C110" s="138"/>
-      <c r="D110" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="92" t="s">
-        <v>693</v>
-      </c>
-      <c r="B111" s="22" t="s">
-        <v>694</v>
-      </c>
-      <c r="C111" s="138"/>
-      <c r="D111" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="92" t="s">
-        <v>695</v>
-      </c>
-      <c r="B112" s="22" t="s">
-        <v>696</v>
-      </c>
-      <c r="C112" s="138"/>
-      <c r="D112" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="92" t="s">
-        <v>697</v>
-      </c>
-      <c r="B113" s="22" t="s">
-        <v>698</v>
-      </c>
-      <c r="C113" s="138"/>
-      <c r="D113" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="92" t="s">
-        <v>648</v>
-      </c>
-      <c r="B114" s="22" t="s">
-        <v>649</v>
-      </c>
-      <c r="C114" s="138" t="s">
-        <v>841</v>
-      </c>
-      <c r="D114" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="92" t="s">
-        <v>650</v>
-      </c>
-      <c r="B115" s="22" t="s">
-        <v>651</v>
-      </c>
-      <c r="C115" s="138"/>
-      <c r="D115" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="92" t="s">
-        <v>652</v>
-      </c>
-      <c r="B116" s="22" t="s">
-        <v>653</v>
-      </c>
-      <c r="C116" s="138"/>
-      <c r="D116" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="92" t="s">
-        <v>618</v>
-      </c>
-      <c r="B117" s="22" t="s">
-        <v>619</v>
-      </c>
-      <c r="C117" s="138" t="s">
-        <v>842</v>
-      </c>
-      <c r="D117" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="92" t="s">
-        <v>620</v>
-      </c>
-      <c r="B118" s="22" t="s">
-        <v>621</v>
-      </c>
-      <c r="C118" s="138"/>
-      <c r="D118" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="92" t="s">
-        <v>622</v>
-      </c>
-      <c r="B119" s="22" t="s">
-        <v>623</v>
-      </c>
-      <c r="C119" s="138"/>
-      <c r="D119" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="92" t="s">
-        <v>843</v>
-      </c>
-      <c r="B120" s="22" t="s">
-        <v>849</v>
-      </c>
-      <c r="C120" s="138" t="s">
-        <v>855</v>
-      </c>
-      <c r="D120" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="92" t="s">
-        <v>844</v>
-      </c>
-      <c r="B121" s="22" t="s">
-        <v>850</v>
-      </c>
-      <c r="C121" s="138"/>
-      <c r="D121" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="92" t="s">
-        <v>845</v>
-      </c>
-      <c r="B122" s="22" t="s">
-        <v>851</v>
-      </c>
-      <c r="C122" s="138"/>
-      <c r="D122" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="92" t="s">
-        <v>846</v>
-      </c>
-      <c r="B123" s="22" t="s">
-        <v>852</v>
-      </c>
-      <c r="C123" s="138"/>
-      <c r="D123" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="92" t="s">
-        <v>847</v>
-      </c>
-      <c r="B124" s="22" t="s">
-        <v>853</v>
-      </c>
-      <c r="C124" s="138"/>
-      <c r="D124" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="92" t="s">
-        <v>848</v>
-      </c>
-      <c r="B125" s="22" t="s">
-        <v>854</v>
-      </c>
-      <c r="C125" s="138"/>
-      <c r="D125" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="92" t="s">
-        <v>422</v>
-      </c>
-      <c r="B126" s="22" t="s">
-        <v>423</v>
-      </c>
-      <c r="C126" s="138" t="s">
-        <v>856</v>
-      </c>
-      <c r="D126" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="92" t="s">
-        <v>857</v>
-      </c>
-      <c r="B127" s="22" t="s">
-        <v>860</v>
-      </c>
-      <c r="C127" s="138"/>
-      <c r="D127" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="92" t="s">
-        <v>858</v>
-      </c>
-      <c r="B128" s="22" t="s">
-        <v>861</v>
-      </c>
-      <c r="C128" s="138"/>
-      <c r="D128" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="92" t="s">
-        <v>859</v>
-      </c>
-      <c r="B129" s="22" t="s">
-        <v>862</v>
-      </c>
-      <c r="C129" s="138"/>
-      <c r="D129" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="92" t="s">
-        <v>640</v>
-      </c>
-      <c r="B130" s="22" t="s">
-        <v>641</v>
-      </c>
-      <c r="C130" s="138" t="s">
-        <v>863</v>
-      </c>
-      <c r="D130" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="92" t="s">
-        <v>642</v>
-      </c>
-      <c r="B131" s="22" t="s">
-        <v>643</v>
-      </c>
-      <c r="C131" s="138"/>
-      <c r="D131" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="92" t="s">
-        <v>644</v>
-      </c>
-      <c r="B132" s="22" t="s">
-        <v>645</v>
-      </c>
-      <c r="C132" s="138"/>
-      <c r="D132" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="92" t="s">
-        <v>646</v>
-      </c>
-      <c r="B133" s="22" t="s">
-        <v>647</v>
-      </c>
-      <c r="C133" s="138"/>
-      <c r="D133" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="92" t="s">
-        <v>865</v>
-      </c>
-      <c r="B134" s="22" t="s">
-        <v>734</v>
-      </c>
-      <c r="C134" s="138" t="s">
-        <v>864</v>
-      </c>
-      <c r="D134" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="92" t="s">
-        <v>866</v>
-      </c>
-      <c r="B135" s="22" t="s">
-        <v>736</v>
-      </c>
-      <c r="C135" s="138"/>
-      <c r="D135" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="92" t="s">
-        <v>738</v>
-      </c>
-      <c r="B136" s="22" t="s">
-        <v>739</v>
-      </c>
-      <c r="C136" s="138"/>
-      <c r="D136" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="92" t="s">
-        <v>722</v>
-      </c>
-      <c r="B137" s="22" t="s">
-        <v>741</v>
-      </c>
-      <c r="C137" s="138"/>
-      <c r="D137" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="92" t="s">
-        <v>743</v>
-      </c>
-      <c r="B138" s="22" t="s">
-        <v>744</v>
-      </c>
-      <c r="C138" s="138"/>
-      <c r="D138" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="92" t="s">
-        <v>745</v>
-      </c>
-      <c r="B139" s="22" t="s">
-        <v>746</v>
-      </c>
-      <c r="C139" s="138"/>
-      <c r="D139" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="92" t="s">
-        <v>748</v>
-      </c>
-      <c r="B140" s="22" t="s">
-        <v>749</v>
-      </c>
-      <c r="C140" s="138" t="s">
-        <v>867</v>
-      </c>
-      <c r="D140" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="92" t="s">
-        <v>750</v>
-      </c>
-      <c r="B141" s="22" t="s">
-        <v>751</v>
-      </c>
-      <c r="C141" s="138"/>
-      <c r="D141" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="92" t="s">
-        <v>752</v>
-      </c>
-      <c r="B142" s="22" t="s">
-        <v>753</v>
-      </c>
-      <c r="C142" s="138"/>
-      <c r="D142" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="92" t="s">
-        <v>754</v>
-      </c>
-      <c r="B143" s="22" t="s">
-        <v>755</v>
-      </c>
-      <c r="C143" s="138"/>
-      <c r="D143" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="92" t="s">
-        <v>756</v>
-      </c>
-      <c r="B144" s="22" t="s">
-        <v>757</v>
-      </c>
-      <c r="C144" s="138"/>
-      <c r="D144" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="92" t="s">
-        <v>758</v>
-      </c>
-      <c r="B145" s="22" t="s">
-        <v>759</v>
-      </c>
-      <c r="C145" s="138"/>
-      <c r="D145" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="92" t="s">
-        <v>868</v>
-      </c>
-      <c r="B146" s="22" t="s">
-        <v>875</v>
-      </c>
-      <c r="C146" s="138" t="s">
-        <v>882</v>
-      </c>
-      <c r="D146" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="92" t="s">
-        <v>869</v>
-      </c>
-      <c r="B147" s="22" t="s">
-        <v>876</v>
-      </c>
-      <c r="C147" s="138"/>
-      <c r="D147" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="92" t="s">
-        <v>870</v>
-      </c>
-      <c r="B148" s="22" t="s">
-        <v>877</v>
-      </c>
-      <c r="C148" s="138"/>
-      <c r="D148" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="92" t="s">
-        <v>871</v>
-      </c>
-      <c r="B149" s="22" t="s">
-        <v>878</v>
-      </c>
-      <c r="C149" s="138"/>
-      <c r="D149" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="92" t="s">
-        <v>872</v>
-      </c>
-      <c r="B150" s="22" t="s">
-        <v>879</v>
-      </c>
-      <c r="C150" s="138"/>
-      <c r="D150" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="92" t="s">
-        <v>873</v>
-      </c>
-      <c r="B151" s="22" t="s">
-        <v>880</v>
-      </c>
-      <c r="C151" s="138"/>
-      <c r="D151" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="92" t="s">
-        <v>874</v>
-      </c>
-      <c r="B152" s="22" t="s">
-        <v>881</v>
-      </c>
-      <c r="C152" s="138"/>
-      <c r="D152" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="92" t="s">
-        <v>703</v>
-      </c>
-      <c r="B153" s="22" t="s">
-        <v>704</v>
-      </c>
-      <c r="C153" s="138"/>
-      <c r="D153" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="92" t="s">
-        <v>705</v>
-      </c>
-      <c r="B154" s="22" t="s">
-        <v>706</v>
-      </c>
-      <c r="C154" s="138"/>
-      <c r="D154" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="92" t="s">
-        <v>707</v>
-      </c>
-      <c r="B155" s="22" t="s">
-        <v>708</v>
-      </c>
-      <c r="C155" s="138"/>
-      <c r="D155" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="92" t="s">
-        <v>709</v>
-      </c>
-      <c r="B156" s="22" t="s">
-        <v>710</v>
-      </c>
-      <c r="C156" s="138"/>
-      <c r="D156" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="92" t="s">
-        <v>711</v>
-      </c>
-      <c r="B157" s="22" t="s">
-        <v>712</v>
-      </c>
-      <c r="C157" s="138"/>
-      <c r="D157" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="92" t="s">
-        <v>713</v>
-      </c>
-      <c r="B158" s="22" t="s">
-        <v>714</v>
-      </c>
-      <c r="C158" s="138"/>
-      <c r="D158" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="92" t="s">
-        <v>715</v>
-      </c>
-      <c r="B159" s="22" t="s">
-        <v>716</v>
-      </c>
-      <c r="C159" s="138"/>
-      <c r="D159" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="74" t="s">
-        <v>769</v>
-      </c>
-      <c r="B160" s="22" t="s">
-        <v>770</v>
-      </c>
-      <c r="C160" s="138" t="s">
-        <v>883</v>
-      </c>
-      <c r="D160" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="74" t="s">
-        <v>773</v>
-      </c>
-      <c r="B161" s="22" t="s">
-        <v>774</v>
-      </c>
-      <c r="C161" s="138"/>
-      <c r="D161" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="74" t="s">
-        <v>775</v>
-      </c>
-      <c r="B162" s="22" t="s">
-        <v>776</v>
-      </c>
-      <c r="C162" s="138"/>
-      <c r="D162" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="C134:C139"/>
-    <mergeCell ref="C140:C145"/>
-    <mergeCell ref="C146:C159"/>
-    <mergeCell ref="C160:C162"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="C120:C125"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="C12:C18"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="C25:C31"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="C102:C107"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="C90:C94"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="C97:C100"/>
-    <mergeCell ref="C44:C55"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="C108:C113"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="C65:C72"/>
-    <mergeCell ref="C73:C74"/>
-  </mergeCells>
-  <conditionalFormatting sqref="C1:C2 C12 C19 C25 A1:B31 C32 A39:C1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:B38">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D162">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="DS_@AT_IJCS_01"/>
-    <hyperlink ref="B3:B11" r:id="rId2" display="DS_@AT_IJCS_01"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -36485,6 +34792,2108 @@
     <hyperlink ref="Z3" r:id="rId1"/>
     <hyperlink ref="Z4" r:id="rId2"/>
     <hyperlink ref="Z5" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet49"/>
+  <dimension ref="A1:I162"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="42.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="36.28515625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>813</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="106" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="19" t="s">
+        <v>893</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>897</v>
+      </c>
+      <c r="C2" s="144" t="s">
+        <v>812</v>
+      </c>
+      <c r="D2" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="19" t="s">
+        <v>894</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="C3" s="145"/>
+      <c r="D3" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="19" t="s">
+        <v>895</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>899</v>
+      </c>
+      <c r="C4" s="145"/>
+      <c r="D4" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="19" t="s">
+        <v>896</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>900</v>
+      </c>
+      <c r="C5" s="145"/>
+      <c r="D5" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="19" t="s">
+        <v>901</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>907</v>
+      </c>
+      <c r="C6" s="145"/>
+      <c r="D6" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="19" t="s">
+        <v>902</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>908</v>
+      </c>
+      <c r="C7" s="145"/>
+      <c r="D7" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="19" t="s">
+        <v>903</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>909</v>
+      </c>
+      <c r="C8" s="145"/>
+      <c r="D8" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="19" t="s">
+        <v>904</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>910</v>
+      </c>
+      <c r="C9" s="145"/>
+      <c r="D9" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="19" t="s">
+        <v>905</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>911</v>
+      </c>
+      <c r="C10" s="145"/>
+      <c r="D10" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="19" t="s">
+        <v>906</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>912</v>
+      </c>
+      <c r="C11" s="146"/>
+      <c r="D11" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>916</v>
+      </c>
+      <c r="C12" s="147" t="s">
+        <v>884</v>
+      </c>
+      <c r="D12" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>929</v>
+      </c>
+      <c r="C13" s="148"/>
+      <c r="D13" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>931</v>
+      </c>
+      <c r="C14" s="148"/>
+      <c r="D14" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>934</v>
+      </c>
+      <c r="C15" s="148"/>
+      <c r="D15" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>936</v>
+      </c>
+      <c r="C16" s="148"/>
+      <c r="D16" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>939</v>
+      </c>
+      <c r="C17" s="148"/>
+      <c r="D17" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>942</v>
+      </c>
+      <c r="C18" s="149"/>
+      <c r="D18" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>946</v>
+      </c>
+      <c r="C19" s="147" t="s">
+        <v>885</v>
+      </c>
+      <c r="D19" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>949</v>
+      </c>
+      <c r="C20" s="148"/>
+      <c r="D20" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5" t="s">
+        <v>950</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>951</v>
+      </c>
+      <c r="C21" s="148"/>
+      <c r="D21" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>953</v>
+      </c>
+      <c r="C22" s="148"/>
+      <c r="D22" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>955</v>
+      </c>
+      <c r="C23" s="148"/>
+      <c r="D23" s="112" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>957</v>
+      </c>
+      <c r="C24" s="149"/>
+      <c r="D24" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="17" t="s">
+        <v>958</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>959</v>
+      </c>
+      <c r="C25" s="147" t="s">
+        <v>886</v>
+      </c>
+      <c r="D25" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="17" t="s">
+        <v>963</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>964</v>
+      </c>
+      <c r="C26" s="148"/>
+      <c r="D26" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="17" t="s">
+        <v>966</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>967</v>
+      </c>
+      <c r="C27" s="148"/>
+      <c r="D27" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="17" t="s">
+        <v>968</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>969</v>
+      </c>
+      <c r="C28" s="148"/>
+      <c r="D28" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="17" t="s">
+        <v>970</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>971</v>
+      </c>
+      <c r="C29" s="148"/>
+      <c r="D29" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="17" t="s">
+        <v>972</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>973</v>
+      </c>
+      <c r="C30" s="148"/>
+      <c r="D30" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="17" t="s">
+        <v>974</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>975</v>
+      </c>
+      <c r="C31" s="149"/>
+      <c r="D31" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>977</v>
+      </c>
+      <c r="C32" s="147" t="s">
+        <v>887</v>
+      </c>
+      <c r="D32" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="C33" s="148"/>
+      <c r="D33" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>983</v>
+      </c>
+      <c r="C34" s="148"/>
+      <c r="D34" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>985</v>
+      </c>
+      <c r="C35" s="148"/>
+      <c r="D35" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>987</v>
+      </c>
+      <c r="C36" s="148"/>
+      <c r="D36" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>989</v>
+      </c>
+      <c r="C37" s="148"/>
+      <c r="D37" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>991</v>
+      </c>
+      <c r="C38" s="149"/>
+      <c r="D38" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="C39" s="147" t="s">
+        <v>888</v>
+      </c>
+      <c r="D39" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C40" s="148"/>
+      <c r="D40" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="C41" s="148"/>
+      <c r="D41" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="C42" s="148"/>
+      <c r="D42" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="C43" s="149"/>
+      <c r="D43" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="C44" s="154" t="s">
+        <v>889</v>
+      </c>
+      <c r="D44" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="C45" s="155"/>
+      <c r="D45" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="C46" s="155"/>
+      <c r="D46" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="C47" s="155"/>
+      <c r="D47" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="C48" s="155"/>
+      <c r="D48" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="C49" s="155"/>
+      <c r="D49" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="C50" s="155"/>
+      <c r="D50" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="C51" s="155"/>
+      <c r="D51" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="C52" s="155"/>
+      <c r="D52" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="C53" s="155"/>
+      <c r="D53" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="C54" s="155"/>
+      <c r="D54" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="C55" s="156"/>
+      <c r="D55" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>549</v>
+      </c>
+      <c r="C56" s="154" t="s">
+        <v>890</v>
+      </c>
+      <c r="D56" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>551</v>
+      </c>
+      <c r="C57" s="155"/>
+      <c r="D57" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>554</v>
+      </c>
+      <c r="C58" s="156"/>
+      <c r="D58" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="147" t="s">
+        <v>891</v>
+      </c>
+      <c r="D59" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="148"/>
+      <c r="D60" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="148"/>
+      <c r="D61" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>811</v>
+      </c>
+      <c r="C62" s="148"/>
+      <c r="D62" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" s="148"/>
+      <c r="D63" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="149"/>
+      <c r="D64" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="108" t="s">
+        <v>359</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="C65" s="150" t="s">
+        <v>892</v>
+      </c>
+      <c r="D65" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="108" t="s">
+        <v>361</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="C66" s="151"/>
+      <c r="D66" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="108" t="s">
+        <v>369</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="C67" s="151"/>
+      <c r="D67" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="108" t="s">
+        <v>377</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="C68" s="151"/>
+      <c r="D68" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="108" t="s">
+        <v>380</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="C69" s="151"/>
+      <c r="D69" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="108" t="s">
+        <v>383</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="C70" s="151"/>
+      <c r="D70" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="108" t="s">
+        <v>385</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="C71" s="151"/>
+      <c r="D71" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="108" t="s">
+        <v>389</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="C72" s="152"/>
+      <c r="D72" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>827</v>
+      </c>
+      <c r="C73" s="153" t="s">
+        <v>816</v>
+      </c>
+      <c r="D73" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>828</v>
+      </c>
+      <c r="C74" s="153"/>
+      <c r="D74" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="C75" s="143" t="s">
+        <v>815</v>
+      </c>
+      <c r="D75" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="C76" s="143"/>
+      <c r="D76" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>455</v>
+      </c>
+      <c r="C77" s="143"/>
+      <c r="D77" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="57" t="s">
+        <v>481</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="C78" s="143" t="s">
+        <v>814</v>
+      </c>
+      <c r="D78" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="57" t="s">
+        <v>484</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="C79" s="143"/>
+      <c r="D79" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="57" t="s">
+        <v>491</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="C80" s="143"/>
+      <c r="D80" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="57" t="s">
+        <v>495</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="C81" s="143"/>
+      <c r="D81" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="57" t="s">
+        <v>501</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="C82" s="143"/>
+      <c r="D82" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="C83" s="114" t="s">
+        <v>817</v>
+      </c>
+      <c r="D83" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C84" s="153" t="s">
+        <v>818</v>
+      </c>
+      <c r="D84" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C85" s="153"/>
+      <c r="D85" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>527</v>
+      </c>
+      <c r="C86" s="114" t="s">
+        <v>819</v>
+      </c>
+      <c r="D86" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="49" t="s">
+        <v>463</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="C87" s="153" t="s">
+        <v>820</v>
+      </c>
+      <c r="D87" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="49" t="s">
+        <v>465</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="C88" s="153"/>
+      <c r="D88" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="49" t="s">
+        <v>468</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="C89" s="153"/>
+      <c r="D89" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="92" t="s">
+        <v>671</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>672</v>
+      </c>
+      <c r="C90" s="153" t="s">
+        <v>821</v>
+      </c>
+      <c r="D90" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="92" t="s">
+        <v>678</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>679</v>
+      </c>
+      <c r="C91" s="153"/>
+      <c r="D91" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="92" t="s">
+        <v>680</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>681</v>
+      </c>
+      <c r="C92" s="153"/>
+      <c r="D92" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="92" t="s">
+        <v>682</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="C93" s="153"/>
+      <c r="D93" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="92" t="s">
+        <v>684</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>685</v>
+      </c>
+      <c r="C94" s="153"/>
+      <c r="D94" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="85" t="s">
+        <v>654</v>
+      </c>
+      <c r="B95" s="22" t="s">
+        <v>655</v>
+      </c>
+      <c r="C95" s="153" t="s">
+        <v>822</v>
+      </c>
+      <c r="D95" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="92" t="s">
+        <v>656</v>
+      </c>
+      <c r="B96" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="C96" s="153"/>
+      <c r="D96" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="B97" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="C97" s="143" t="s">
+        <v>823</v>
+      </c>
+      <c r="D97" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="19" t="s">
+        <v>607</v>
+      </c>
+      <c r="B98" s="22" t="s">
+        <v>608</v>
+      </c>
+      <c r="C98" s="143"/>
+      <c r="D98" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="19" t="s">
+        <v>609</v>
+      </c>
+      <c r="B99" s="22" t="s">
+        <v>610</v>
+      </c>
+      <c r="C99" s="143"/>
+      <c r="D99" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="19" t="s">
+        <v>611</v>
+      </c>
+      <c r="B100" s="22" t="s">
+        <v>612</v>
+      </c>
+      <c r="C100" s="143"/>
+      <c r="D100" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="19" t="s">
+        <v>563</v>
+      </c>
+      <c r="B101" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="C101" s="113" t="s">
+        <v>824</v>
+      </c>
+      <c r="D101" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="B102" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="C102" s="143" t="s">
+        <v>839</v>
+      </c>
+      <c r="D102" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="43" t="s">
+        <v>829</v>
+      </c>
+      <c r="B103" s="22" t="s">
+        <v>834</v>
+      </c>
+      <c r="C103" s="143"/>
+      <c r="D103" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="43" t="s">
+        <v>830</v>
+      </c>
+      <c r="B104" s="22" t="s">
+        <v>835</v>
+      </c>
+      <c r="C104" s="143"/>
+      <c r="D104" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="43" t="s">
+        <v>831</v>
+      </c>
+      <c r="B105" s="22" t="s">
+        <v>836</v>
+      </c>
+      <c r="C105" s="143"/>
+      <c r="D105" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="43" t="s">
+        <v>832</v>
+      </c>
+      <c r="B106" s="22" t="s">
+        <v>837</v>
+      </c>
+      <c r="C106" s="143"/>
+      <c r="D106" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="43" t="s">
+        <v>833</v>
+      </c>
+      <c r="B107" s="22" t="s">
+        <v>838</v>
+      </c>
+      <c r="C107" s="143"/>
+      <c r="D107" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="92" t="s">
+        <v>687</v>
+      </c>
+      <c r="B108" s="22" t="s">
+        <v>688</v>
+      </c>
+      <c r="C108" s="143" t="s">
+        <v>840</v>
+      </c>
+      <c r="D108" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="92" t="s">
+        <v>689</v>
+      </c>
+      <c r="B109" s="22" t="s">
+        <v>690</v>
+      </c>
+      <c r="C109" s="143"/>
+      <c r="D109" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="92" t="s">
+        <v>691</v>
+      </c>
+      <c r="B110" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="C110" s="143"/>
+      <c r="D110" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="92" t="s">
+        <v>693</v>
+      </c>
+      <c r="B111" s="22" t="s">
+        <v>694</v>
+      </c>
+      <c r="C111" s="143"/>
+      <c r="D111" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="92" t="s">
+        <v>695</v>
+      </c>
+      <c r="B112" s="22" t="s">
+        <v>696</v>
+      </c>
+      <c r="C112" s="143"/>
+      <c r="D112" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="92" t="s">
+        <v>697</v>
+      </c>
+      <c r="B113" s="22" t="s">
+        <v>698</v>
+      </c>
+      <c r="C113" s="143"/>
+      <c r="D113" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="92" t="s">
+        <v>648</v>
+      </c>
+      <c r="B114" s="22" t="s">
+        <v>649</v>
+      </c>
+      <c r="C114" s="143" t="s">
+        <v>841</v>
+      </c>
+      <c r="D114" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="92" t="s">
+        <v>650</v>
+      </c>
+      <c r="B115" s="22" t="s">
+        <v>651</v>
+      </c>
+      <c r="C115" s="143"/>
+      <c r="D115" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="92" t="s">
+        <v>652</v>
+      </c>
+      <c r="B116" s="22" t="s">
+        <v>653</v>
+      </c>
+      <c r="C116" s="143"/>
+      <c r="D116" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="92" t="s">
+        <v>618</v>
+      </c>
+      <c r="B117" s="22" t="s">
+        <v>619</v>
+      </c>
+      <c r="C117" s="143" t="s">
+        <v>842</v>
+      </c>
+      <c r="D117" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="92" t="s">
+        <v>620</v>
+      </c>
+      <c r="B118" s="22" t="s">
+        <v>621</v>
+      </c>
+      <c r="C118" s="143"/>
+      <c r="D118" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="92" t="s">
+        <v>622</v>
+      </c>
+      <c r="B119" s="22" t="s">
+        <v>623</v>
+      </c>
+      <c r="C119" s="143"/>
+      <c r="D119" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="92" t="s">
+        <v>843</v>
+      </c>
+      <c r="B120" s="22" t="s">
+        <v>849</v>
+      </c>
+      <c r="C120" s="143" t="s">
+        <v>855</v>
+      </c>
+      <c r="D120" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="92" t="s">
+        <v>844</v>
+      </c>
+      <c r="B121" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="C121" s="143"/>
+      <c r="D121" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="92" t="s">
+        <v>845</v>
+      </c>
+      <c r="B122" s="22" t="s">
+        <v>851</v>
+      </c>
+      <c r="C122" s="143"/>
+      <c r="D122" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="92" t="s">
+        <v>846</v>
+      </c>
+      <c r="B123" s="22" t="s">
+        <v>852</v>
+      </c>
+      <c r="C123" s="143"/>
+      <c r="D123" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="92" t="s">
+        <v>847</v>
+      </c>
+      <c r="B124" s="22" t="s">
+        <v>853</v>
+      </c>
+      <c r="C124" s="143"/>
+      <c r="D124" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="92" t="s">
+        <v>848</v>
+      </c>
+      <c r="B125" s="22" t="s">
+        <v>854</v>
+      </c>
+      <c r="C125" s="143"/>
+      <c r="D125" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="92" t="s">
+        <v>422</v>
+      </c>
+      <c r="B126" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="C126" s="143" t="s">
+        <v>856</v>
+      </c>
+      <c r="D126" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="92" t="s">
+        <v>857</v>
+      </c>
+      <c r="B127" s="22" t="s">
+        <v>860</v>
+      </c>
+      <c r="C127" s="143"/>
+      <c r="D127" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="92" t="s">
+        <v>858</v>
+      </c>
+      <c r="B128" s="22" t="s">
+        <v>861</v>
+      </c>
+      <c r="C128" s="143"/>
+      <c r="D128" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="92" t="s">
+        <v>859</v>
+      </c>
+      <c r="B129" s="22" t="s">
+        <v>862</v>
+      </c>
+      <c r="C129" s="143"/>
+      <c r="D129" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="92" t="s">
+        <v>640</v>
+      </c>
+      <c r="B130" s="22" t="s">
+        <v>641</v>
+      </c>
+      <c r="C130" s="143" t="s">
+        <v>863</v>
+      </c>
+      <c r="D130" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="92" t="s">
+        <v>642</v>
+      </c>
+      <c r="B131" s="22" t="s">
+        <v>643</v>
+      </c>
+      <c r="C131" s="143"/>
+      <c r="D131" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="92" t="s">
+        <v>644</v>
+      </c>
+      <c r="B132" s="22" t="s">
+        <v>645</v>
+      </c>
+      <c r="C132" s="143"/>
+      <c r="D132" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="92" t="s">
+        <v>646</v>
+      </c>
+      <c r="B133" s="22" t="s">
+        <v>647</v>
+      </c>
+      <c r="C133" s="143"/>
+      <c r="D133" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="92" t="s">
+        <v>865</v>
+      </c>
+      <c r="B134" s="22" t="s">
+        <v>734</v>
+      </c>
+      <c r="C134" s="143" t="s">
+        <v>864</v>
+      </c>
+      <c r="D134" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="92" t="s">
+        <v>866</v>
+      </c>
+      <c r="B135" s="22" t="s">
+        <v>736</v>
+      </c>
+      <c r="C135" s="143"/>
+      <c r="D135" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="92" t="s">
+        <v>738</v>
+      </c>
+      <c r="B136" s="22" t="s">
+        <v>739</v>
+      </c>
+      <c r="C136" s="143"/>
+      <c r="D136" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="92" t="s">
+        <v>722</v>
+      </c>
+      <c r="B137" s="22" t="s">
+        <v>741</v>
+      </c>
+      <c r="C137" s="143"/>
+      <c r="D137" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="92" t="s">
+        <v>743</v>
+      </c>
+      <c r="B138" s="22" t="s">
+        <v>744</v>
+      </c>
+      <c r="C138" s="143"/>
+      <c r="D138" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="92" t="s">
+        <v>745</v>
+      </c>
+      <c r="B139" s="22" t="s">
+        <v>746</v>
+      </c>
+      <c r="C139" s="143"/>
+      <c r="D139" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="92" t="s">
+        <v>748</v>
+      </c>
+      <c r="B140" s="22" t="s">
+        <v>749</v>
+      </c>
+      <c r="C140" s="143" t="s">
+        <v>867</v>
+      </c>
+      <c r="D140" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="92" t="s">
+        <v>750</v>
+      </c>
+      <c r="B141" s="22" t="s">
+        <v>751</v>
+      </c>
+      <c r="C141" s="143"/>
+      <c r="D141" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="92" t="s">
+        <v>752</v>
+      </c>
+      <c r="B142" s="22" t="s">
+        <v>753</v>
+      </c>
+      <c r="C142" s="143"/>
+      <c r="D142" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="92" t="s">
+        <v>754</v>
+      </c>
+      <c r="B143" s="22" t="s">
+        <v>755</v>
+      </c>
+      <c r="C143" s="143"/>
+      <c r="D143" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="92" t="s">
+        <v>756</v>
+      </c>
+      <c r="B144" s="22" t="s">
+        <v>757</v>
+      </c>
+      <c r="C144" s="143"/>
+      <c r="D144" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="92" t="s">
+        <v>758</v>
+      </c>
+      <c r="B145" s="22" t="s">
+        <v>759</v>
+      </c>
+      <c r="C145" s="143"/>
+      <c r="D145" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="92" t="s">
+        <v>868</v>
+      </c>
+      <c r="B146" s="22" t="s">
+        <v>875</v>
+      </c>
+      <c r="C146" s="143" t="s">
+        <v>882</v>
+      </c>
+      <c r="D146" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="92" t="s">
+        <v>869</v>
+      </c>
+      <c r="B147" s="22" t="s">
+        <v>876</v>
+      </c>
+      <c r="C147" s="143"/>
+      <c r="D147" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="92" t="s">
+        <v>870</v>
+      </c>
+      <c r="B148" s="22" t="s">
+        <v>877</v>
+      </c>
+      <c r="C148" s="143"/>
+      <c r="D148" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="92" t="s">
+        <v>871</v>
+      </c>
+      <c r="B149" s="22" t="s">
+        <v>878</v>
+      </c>
+      <c r="C149" s="143"/>
+      <c r="D149" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="92" t="s">
+        <v>872</v>
+      </c>
+      <c r="B150" s="22" t="s">
+        <v>879</v>
+      </c>
+      <c r="C150" s="143"/>
+      <c r="D150" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="92" t="s">
+        <v>873</v>
+      </c>
+      <c r="B151" s="22" t="s">
+        <v>880</v>
+      </c>
+      <c r="C151" s="143"/>
+      <c r="D151" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="92" t="s">
+        <v>874</v>
+      </c>
+      <c r="B152" s="22" t="s">
+        <v>881</v>
+      </c>
+      <c r="C152" s="143"/>
+      <c r="D152" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="92" t="s">
+        <v>703</v>
+      </c>
+      <c r="B153" s="22" t="s">
+        <v>704</v>
+      </c>
+      <c r="C153" s="143"/>
+      <c r="D153" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="92" t="s">
+        <v>705</v>
+      </c>
+      <c r="B154" s="22" t="s">
+        <v>706</v>
+      </c>
+      <c r="C154" s="143"/>
+      <c r="D154" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="92" t="s">
+        <v>707</v>
+      </c>
+      <c r="B155" s="22" t="s">
+        <v>708</v>
+      </c>
+      <c r="C155" s="143"/>
+      <c r="D155" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="92" t="s">
+        <v>709</v>
+      </c>
+      <c r="B156" s="22" t="s">
+        <v>710</v>
+      </c>
+      <c r="C156" s="143"/>
+      <c r="D156" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="92" t="s">
+        <v>711</v>
+      </c>
+      <c r="B157" s="22" t="s">
+        <v>712</v>
+      </c>
+      <c r="C157" s="143"/>
+      <c r="D157" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="92" t="s">
+        <v>713</v>
+      </c>
+      <c r="B158" s="22" t="s">
+        <v>714</v>
+      </c>
+      <c r="C158" s="143"/>
+      <c r="D158" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="92" t="s">
+        <v>715</v>
+      </c>
+      <c r="B159" s="22" t="s">
+        <v>716</v>
+      </c>
+      <c r="C159" s="143"/>
+      <c r="D159" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="74" t="s">
+        <v>769</v>
+      </c>
+      <c r="B160" s="22" t="s">
+        <v>770</v>
+      </c>
+      <c r="C160" s="143" t="s">
+        <v>883</v>
+      </c>
+      <c r="D160" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="74" t="s">
+        <v>773</v>
+      </c>
+      <c r="B161" s="22" t="s">
+        <v>774</v>
+      </c>
+      <c r="C161" s="143"/>
+      <c r="D161" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="74" t="s">
+        <v>775</v>
+      </c>
+      <c r="B162" s="22" t="s">
+        <v>776</v>
+      </c>
+      <c r="C162" s="143"/>
+      <c r="D162" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="C134:C139"/>
+    <mergeCell ref="C140:C145"/>
+    <mergeCell ref="C146:C159"/>
+    <mergeCell ref="C160:C162"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="C120:C125"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="C12:C18"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="C102:C107"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C97:C100"/>
+    <mergeCell ref="C44:C55"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="C108:C113"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="C65:C72"/>
+    <mergeCell ref="C73:C74"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C1:C2 C12 C19 C25 A1:B31 C32 A39:C1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:B38">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D162">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="DS_@AT_IJCS_01"/>
+    <hyperlink ref="B3:B11" r:id="rId2" display="DS_@AT_IJCS_01"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ULS_Murabha_MainRepository/TestData/MurabhaTestData.xlsx
+++ b/ULS_Murabha_MainRepository/TestData/MurabhaTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="14" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="58" activeTab="61"/>
   </bookViews>
   <sheets>
     <sheet name="Murabha_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -66,14 +66,16 @@
     <sheet name="Appdata_ApplicationDetailsExe" sheetId="93" r:id="rId57"/>
     <sheet name="Appdata_EmployementDetailsExe" sheetId="97" r:id="rId58"/>
     <sheet name="Muraba_beneficiaryExeSheet" sheetId="103" r:id="rId59"/>
-    <sheet name="Murabha_ExecutionTracker" sheetId="74" r:id="rId60"/>
+    <sheet name="MU_AppData_AssetDetails" sheetId="106" r:id="rId60"/>
+    <sheet name="MU_DataCheck_AddressDetails" sheetId="107" r:id="rId61"/>
+    <sheet name="Murabha_ExecutionTracker" sheetId="74" r:id="rId62"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2946" uniqueCount="1403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3147" uniqueCount="1470">
   <si>
     <t>UserName</t>
   </si>
@@ -4282,6 +4284,207 @@
   </si>
   <si>
     <t>0158</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_ADE_IAD_10</t>
+  </si>
+  <si>
+    <t>AT_MU_ADE_IAD_10</t>
+  </si>
+  <si>
+    <t>Nexon</t>
+  </si>
+  <si>
+    <t>Harrier</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_ADE_IAD_09</t>
+  </si>
+  <si>
+    <t>AT_MU_ADE_IAD_09</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_ADE_IAD_08</t>
+  </si>
+  <si>
+    <t>AT_MU_ADE_IAD_08</t>
+  </si>
+  <si>
+    <t>ألف وخمسة مائة وتسعة وتسعون</t>
+  </si>
+  <si>
+    <t>1589</t>
+  </si>
+  <si>
+    <t>1435897552</t>
+  </si>
+  <si>
+    <t>1.6L, AT, SR, Remote</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_ADE_IAD_07</t>
+  </si>
+  <si>
+    <t>AT_MU_ADE_IAD_07</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_ADE_IAD_06</t>
+  </si>
+  <si>
+    <t>AT_MU_ADE_IAD_06</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_ADE_IAD_05</t>
+  </si>
+  <si>
+    <t>AT_MU_ADE_IAD_05</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_ADE_IAD_03</t>
+  </si>
+  <si>
+    <t>AT_MU_ADE_IAD_03</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_ADE_IAD_02</t>
+  </si>
+  <si>
+    <t>AT_MU_ADE_IAD_02</t>
+  </si>
+  <si>
+    <t>EASTERN</t>
+  </si>
+  <si>
+    <t>2280000</t>
+  </si>
+  <si>
+    <t>Dealer 1</t>
+  </si>
+  <si>
+    <t>أربعة آلاف وثمانية مائة وسبعة وثمانون</t>
+  </si>
+  <si>
+    <t>4887</t>
+  </si>
+  <si>
+    <t>42231522</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>1.6 L</t>
+  </si>
+  <si>
+    <t>TATA Safari</t>
+  </si>
+  <si>
+    <t>Tata Motors</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_ADE_IAD_01</t>
+  </si>
+  <si>
+    <t>AT_MU_ADE_IAD_01</t>
+  </si>
+  <si>
+    <t>Mismatch_Data</t>
+  </si>
+  <si>
+    <t>LocationOfSigning</t>
+  </si>
+  <si>
+    <t>FulfilmentLocation</t>
+  </si>
+  <si>
+    <t>Asset_Price</t>
+  </si>
+  <si>
+    <t>Asset_Dealer</t>
+  </si>
+  <si>
+    <t>PlateNbr_Arabic</t>
+  </si>
+  <si>
+    <t>PlateNbr</t>
+  </si>
+  <si>
+    <t>ChasisNbr</t>
+  </si>
+  <si>
+    <t>Asset_Condition</t>
+  </si>
+  <si>
+    <t>AssetModel_Type</t>
+  </si>
+  <si>
+    <t>Asset_Model</t>
+  </si>
+  <si>
+    <t>Asset_Manufacture</t>
+  </si>
+  <si>
+    <t>Asset_Type</t>
+  </si>
+  <si>
+    <t>Asset_Category</t>
+  </si>
+  <si>
+    <t>APP DATA ENTRY - Asset Details</t>
+  </si>
+  <si>
+    <t>Chattel Mortgage</t>
+  </si>
+  <si>
+    <t>APP DATA ENTRY - Customer debt screen</t>
+  </si>
+  <si>
+    <t>APP DATA ENTRY - Income screen</t>
+  </si>
+  <si>
+    <t>AT_MU_DATACHECK_ADC_01</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_DATACHECK_ADC_01</t>
+  </si>
+  <si>
+    <t>AT_MU_DATACHECK_ADC_02</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_DATACHECK_ADC_02</t>
+  </si>
+  <si>
+    <t>AT_MU_DATACHECK_ADC_03</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_DATACHECK_ADC_03</t>
+  </si>
+  <si>
+    <t>AT_MU_DATACHECK_ADC_04</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_DATACHECK_ADC_04</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>AT_MU_DATACHECK_ADC_05</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_DATACHECK_ADC_05</t>
+  </si>
+  <si>
+    <t>APP DATA CHECK - Address Details</t>
+  </si>
+  <si>
+    <t>APP DATA CHECK - Application details</t>
   </si>
 </sst>
 </file>
@@ -4592,7 +4795,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -4806,6 +5009,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4893,7 +5116,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -5061,12 +5284,6 @@
     <xf numFmtId="49" fontId="14" fillId="5" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="14" fillId="5" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5109,47 +5326,68 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="12" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -5532,16 +5770,16 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" width="19.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.44140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.5546875" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5654,7 +5892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75">
+    <row r="11" spans="1:3" ht="15.6">
       <c r="A11" s="80" t="s">
         <v>638</v>
       </c>
@@ -5676,7 +5914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75">
+    <row r="13" spans="1:3" ht="15.6">
       <c r="A13" s="1" t="s">
         <v>761</v>
       </c>
@@ -5687,7 +5925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75">
+    <row r="14" spans="1:3" ht="15.6">
       <c r="A14" s="1" t="s">
         <v>762</v>
       </c>
@@ -5698,7 +5936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75">
+    <row r="15" spans="1:3" ht="15.6">
       <c r="A15" s="1" t="s">
         <v>783</v>
       </c>
@@ -5709,7 +5947,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75">
+    <row r="16" spans="1:3" ht="15.6">
       <c r="A16" s="1" t="s">
         <v>785</v>
       </c>
@@ -5727,18 +5965,18 @@
       <c r="B17" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="C17" s="119" t="s">
+      <c r="C17" s="117" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1">
+    <row r="18" spans="1:4" ht="15" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>1177</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="C18" s="119" t="s">
+      <c r="C18" s="117" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -5749,43 +5987,43 @@
       <c r="A19" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="B19" s="135" t="s">
+      <c r="B19" s="133" t="s">
         <v>1307</v>
       </c>
-      <c r="C19" s="136" t="s">
+      <c r="C19" s="134" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1">
+    <row r="20" spans="1:4" ht="15" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>1305</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1308</v>
       </c>
-      <c r="C20" s="137" t="s">
+      <c r="C20" s="135" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1">
+    <row r="21" spans="1:4" ht="15" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>1306</v>
       </c>
       <c r="B21" s="1">
         <v>3083</v>
       </c>
-      <c r="C21" s="138" t="s">
+      <c r="C21" s="136" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1">
+    <row r="22" spans="1:4" ht="15" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>1382</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>1381</v>
       </c>
-      <c r="C22" s="138" t="s">
+      <c r="C22" s="136" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5840,30 +6078,30 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
-    <col min="6" max="6" width="57.28515625" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" customWidth="1"/>
-    <col min="10" max="10" width="29.28515625" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" customWidth="1"/>
-    <col min="12" max="12" width="34.28515625" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" customWidth="1"/>
+    <col min="6" max="6" width="57.33203125" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" customWidth="1"/>
+    <col min="8" max="8" width="28.88671875" customWidth="1"/>
+    <col min="9" max="9" width="26.88671875" customWidth="1"/>
+    <col min="10" max="10" width="29.33203125" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="12" max="12" width="34.33203125" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" customWidth="1"/>
     <col min="16" max="16" width="26" customWidth="1"/>
-    <col min="17" max="17" width="32.85546875" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" customWidth="1"/>
-    <col min="20" max="20" width="15.42578125" customWidth="1"/>
-    <col min="21" max="21" width="27.140625" customWidth="1"/>
+    <col min="17" max="17" width="32.88671875" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" customWidth="1"/>
+    <col min="19" max="19" width="16.44140625" customWidth="1"/>
+    <col min="20" max="20" width="15.44140625" customWidth="1"/>
+    <col min="21" max="21" width="27.109375" customWidth="1"/>
     <col min="22" max="22" width="14" customWidth="1"/>
-    <col min="23" max="23" width="17.42578125" customWidth="1"/>
+    <col min="23" max="23" width="17.44140625" customWidth="1"/>
     <col min="24" max="24" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6754,26 +6992,26 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" customWidth="1"/>
     <col min="17" max="17" width="11" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" customWidth="1"/>
+    <col min="18" max="18" width="17.44140625" customWidth="1"/>
+    <col min="20" max="20" width="10.5546875" customWidth="1"/>
+    <col min="21" max="21" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -7003,25 +7241,25 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="15.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="3"/>
     <col min="4" max="4" width="13" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="13" style="3" customWidth="1"/>
-    <col min="8" max="9" width="13.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="3"/>
+    <col min="8" max="9" width="13.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -7100,10 +7338,10 @@
       <c r="C3" s="44" t="s">
         <v>419</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="141" t="s">
         <v>486</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="141" t="s">
         <v>467</v>
       </c>
       <c r="F3" s="44" t="s">
@@ -7118,7 +7356,7 @@
       <c r="I3" s="44" t="s">
         <v>1063</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="141" t="s">
         <v>387</v>
       </c>
       <c r="K3" s="44" t="s">
@@ -7160,10 +7398,10 @@
       <c r="C5" s="44" t="s">
         <v>419</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="141" t="s">
         <v>486</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="141" t="s">
         <v>467</v>
       </c>
       <c r="F5" s="44" t="s">
@@ -7196,7 +7434,7 @@
       <c r="C6" s="44" t="s">
         <v>419</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="141" t="s">
         <v>1072</v>
       </c>
       <c r="E6" s="44"/>
@@ -7320,27 +7558,27 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" customWidth="1"/>
-    <col min="16" max="17" width="15.85546875" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" customWidth="1"/>
-    <col min="19" max="19" width="20.42578125" customWidth="1"/>
+    <col min="8" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" customWidth="1"/>
+    <col min="16" max="17" width="15.88671875" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" customWidth="1"/>
+    <col min="19" max="19" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -7403,7 +7641,7 @@
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="118" t="s">
         <v>1096</v>
       </c>
       <c r="B2" s="92" t="s">
@@ -7432,7 +7670,7 @@
       <c r="S2" s="44"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="118" t="s">
         <v>1098</v>
       </c>
       <c r="B3" s="92" t="s">
@@ -7487,7 +7725,7 @@
       <c r="S3" s="44"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="118" t="s">
         <v>1105</v>
       </c>
       <c r="B4" s="92" t="s">
@@ -7534,7 +7772,7 @@
       <c r="S4" s="44"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="118" t="s">
         <v>1109</v>
       </c>
       <c r="B5" s="92" t="s">
@@ -7569,7 +7807,7 @@
       <c r="S5" s="44"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="118" t="s">
         <v>1113</v>
       </c>
       <c r="B6" s="92" t="s">
@@ -7608,7 +7846,7 @@
       <c r="S6" s="44"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="118" t="s">
         <v>1118</v>
       </c>
       <c r="B7" s="92" t="s">
@@ -7635,7 +7873,7 @@
       <c r="S7" s="44"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="118" t="s">
         <v>1120</v>
       </c>
       <c r="B8" s="92" t="s">
@@ -7666,31 +7904,31 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="119" t="s">
         <v>1122</v>
       </c>
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="120" t="s">
         <v>1123</v>
       </c>
       <c r="C9" s="44" t="s">
         <v>419</v>
       </c>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="123"/>
-      <c r="L9" s="123"/>
-      <c r="M9" s="123"/>
-      <c r="N9" s="123"/>
-      <c r="O9" s="123"/>
-      <c r="P9" s="123"/>
-      <c r="Q9" s="123"/>
-      <c r="R9" s="123"/>
-      <c r="S9" s="123"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="121"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7706,25 +7944,25 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="61.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="61.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -7954,49 +8192,49 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" style="78" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" style="78" customWidth="1"/>
+    <col min="1" max="1" width="41.5546875" style="78" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" style="78" customWidth="1"/>
     <col min="3" max="1024" width="16" style="78" customWidth="1"/>
-    <col min="1025" max="16384" width="10.28515625" style="82"/>
+    <col min="1025" max="16384" width="10.33203125" style="82"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="125" t="s">
+      <c r="C1" s="123" t="s">
         <v>276</v>
       </c>
-      <c r="D1" s="125" t="s">
+      <c r="D1" s="123" t="s">
         <v>275</v>
       </c>
-      <c r="E1" s="125" t="s">
+      <c r="E1" s="123" t="s">
         <v>1148</v>
       </c>
-      <c r="F1" s="125" t="s">
+      <c r="F1" s="123" t="s">
         <v>1149</v>
       </c>
-      <c r="G1" s="125" t="s">
+      <c r="G1" s="123" t="s">
         <v>1150</v>
       </c>
-      <c r="H1" s="125" t="s">
+      <c r="H1" s="123" t="s">
         <v>1151</v>
       </c>
-      <c r="I1" s="125" t="s">
+      <c r="I1" s="123" t="s">
         <v>1152</v>
       </c>
-      <c r="J1" s="125" t="s">
+      <c r="J1" s="123" t="s">
         <v>1153</v>
       </c>
-      <c r="K1" s="125" t="s">
+      <c r="K1" s="123" t="s">
         <v>1154</v>
       </c>
-      <c r="L1" s="125" t="s">
+      <c r="L1" s="123" t="s">
         <v>1155</v>
       </c>
     </row>
@@ -8094,23 +8332,23 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30">
+    <row r="1" spans="1:12" ht="28.8">
       <c r="A1" s="81" t="s">
         <v>249</v>
       </c>
@@ -8201,18 +8439,18 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -8330,14 +8568,14 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8416,37 +8654,37 @@
   <sheetPr codeName="Sheet33"/>
   <dimension ref="A1:XFD7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" s="11" customFormat="1">
@@ -25164,23 +25402,23 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="18" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="30.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="38" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1">
@@ -25397,12 +25635,12 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -25486,12 +25724,12 @@
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
-    <col min="26" max="26" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" customWidth="1"/>
+    <col min="26" max="26" width="24.88671875" customWidth="1"/>
     <col min="27" max="27" width="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -25704,16 +25942,16 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="44.140625" style="82" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" style="82" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="82" customWidth="1"/>
-    <col min="4" max="1024" width="13.85546875" style="82" customWidth="1"/>
-    <col min="1025" max="16384" width="10.28515625" style="82"/>
+    <col min="1" max="1" width="44.109375" style="82" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" style="82" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="82" customWidth="1"/>
+    <col min="4" max="1024" width="13.88671875" style="82" customWidth="1"/>
+    <col min="1025" max="16384" width="10.33203125" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="15.6">
       <c r="A1" s="78" t="s">
         <v>7</v>
       </c>
@@ -25724,7 +25962,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
+    <row r="2" spans="1:3" ht="15.6">
       <c r="A2" s="78" t="s">
         <v>1164</v>
       </c>
@@ -25754,18 +25992,18 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="6" width="21.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
-    <col min="11" max="12" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="5" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="12" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -25807,7 +26045,7 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="118" t="s">
         <v>1202</v>
       </c>
       <c r="B2" s="92" t="s">
@@ -25841,7 +26079,7 @@
       <c r="L2" s="44"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="118" t="s">
         <v>1211</v>
       </c>
       <c r="B3" s="92" t="s">
@@ -25861,7 +26099,7 @@
       <c r="L3" s="44"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="118" t="s">
         <v>1213</v>
       </c>
       <c r="B4" s="92" t="s">
@@ -25881,7 +26119,7 @@
       <c r="L4" s="44"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="118" t="s">
         <v>1215</v>
       </c>
       <c r="B5" s="92" t="s">
@@ -25901,7 +26139,7 @@
       <c r="L5" s="44"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="118" t="s">
         <v>1217</v>
       </c>
       <c r="B6" s="92" t="s">
@@ -25921,7 +26159,7 @@
       <c r="L6" s="44"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="118" t="s">
         <v>1219</v>
       </c>
       <c r="B7" s="92" t="s">
@@ -25941,7 +26179,7 @@
       <c r="L7" s="44"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="118" t="s">
         <v>1221</v>
       </c>
       <c r="B8" s="92" t="s">
@@ -25961,7 +26199,7 @@
       <c r="L8" s="44"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="118" t="s">
         <v>1223</v>
       </c>
       <c r="B9" s="92" t="s">
@@ -25981,7 +26219,7 @@
       <c r="L9" s="44"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="118" t="s">
         <v>1225</v>
       </c>
       <c r="B10" s="92" t="s">
@@ -26018,10 +26256,10 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -26103,12 +26341,12 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -26135,7 +26373,7 @@
       <c r="C2" s="22">
         <v>4043</v>
       </c>
-      <c r="D2" s="115" t="s">
+      <c r="D2" s="113" t="s">
         <v>1359</v>
       </c>
     </row>
@@ -26149,7 +26387,7 @@
       <c r="C3" s="22">
         <v>4043</v>
       </c>
-      <c r="D3" s="115" t="s">
+      <c r="D3" s="113" t="s">
         <v>1307</v>
       </c>
     </row>
@@ -26166,26 +26404,26 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="29.88671875" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.5546875" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="25" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="24.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="28.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="23.88671875" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="29" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.5703125" customWidth="1" collapsed="1"/>
-    <col min="14" max="15" width="36.85546875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="30.140625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="28.85546875" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="32.33203125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.5546875" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="36.88671875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="30.109375" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="28.88671875" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="32.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -26299,8 +26537,8 @@
       <c r="Q2" s="13" t="s">
         <v>1357</v>
       </c>
-      <c r="R2" s="140"/>
-      <c r="S2" s="140"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="5" t="s">
@@ -26312,24 +26550,24 @@
       <c r="C3" s="6" t="s">
         <v>1360</v>
       </c>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="140"/>
-      <c r="N3" s="140"/>
-      <c r="O3" s="140"/>
-      <c r="P3" s="140"/>
-      <c r="Q3" s="140"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="138"/>
+      <c r="Q3" s="138"/>
       <c r="R3" s="6" t="s">
         <v>1348</v>
       </c>
-      <c r="S3" s="141" t="s">
+      <c r="S3" s="139" t="s">
         <v>50</v>
       </c>
     </row>
@@ -26349,15 +26587,15 @@
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -26465,11 +26703,11 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -26483,7 +26721,7 @@
       <c r="C1" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="132" t="s">
+      <c r="D1" s="130" t="s">
         <v>1262</v>
       </c>
     </row>
@@ -26491,25 +26729,25 @@
       <c r="A2" s="5" t="s">
         <v>1247</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="131" t="s">
         <v>1246</v>
       </c>
-      <c r="C2" s="133" t="s">
+      <c r="C2" s="131" t="s">
         <v>432</v>
       </c>
-      <c r="D2" s="134"/>
+      <c r="D2" s="132"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
         <v>1245</v>
       </c>
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="131" t="s">
         <v>1244</v>
       </c>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="131" t="s">
         <v>432</v>
       </c>
-      <c r="D3" s="134" t="s">
+      <c r="D3" s="132" t="s">
         <v>1263</v>
       </c>
     </row>
@@ -26517,13 +26755,13 @@
       <c r="A4" s="5" t="s">
         <v>1243</v>
       </c>
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="131" t="s">
         <v>1242</v>
       </c>
-      <c r="C4" s="133" t="s">
+      <c r="C4" s="131" t="s">
         <v>432</v>
       </c>
-      <c r="D4" s="134" t="s">
+      <c r="D4" s="132" t="s">
         <v>1264</v>
       </c>
     </row>
@@ -26541,127 +26779,127 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" customWidth="1"/>
-    <col min="9" max="9" width="27.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" customWidth="1"/>
+    <col min="8" max="8" width="24.109375" customWidth="1"/>
+    <col min="9" max="9" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="132" t="s">
+      <c r="C1" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="142" t="s">
+      <c r="D1" s="140" t="s">
         <v>1361</v>
       </c>
-      <c r="E1" s="142" t="s">
+      <c r="E1" s="140" t="s">
         <v>1362</v>
       </c>
-      <c r="F1" s="142" t="s">
+      <c r="F1" s="140" t="s">
         <v>1363</v>
       </c>
-      <c r="G1" s="142" t="s">
+      <c r="G1" s="140" t="s">
         <v>1364</v>
       </c>
-      <c r="H1" s="142" t="s">
+      <c r="H1" s="140" t="s">
         <v>1365</v>
       </c>
-      <c r="I1" s="142" t="s">
+      <c r="I1" s="140" t="s">
         <v>1366</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="132" t="s">
         <v>1367</v>
       </c>
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="132" t="s">
         <v>1368</v>
       </c>
-      <c r="C2" s="133" t="s">
+      <c r="C2" s="131" t="s">
         <v>1369</v>
       </c>
-      <c r="D2" s="133" t="s">
+      <c r="D2" s="131" t="s">
         <v>1370</v>
       </c>
-      <c r="E2" s="133" t="s">
+      <c r="E2" s="131" t="s">
         <v>1371</v>
       </c>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="132" t="s">
         <v>1372</v>
       </c>
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="132" t="s">
         <v>1373</v>
       </c>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="131" t="s">
         <v>1369</v>
       </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133" t="s">
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131" t="s">
         <v>189</v>
       </c>
-      <c r="G3" s="133" t="s">
+      <c r="G3" s="131" t="s">
         <v>1374</v>
       </c>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="132" t="s">
         <v>1375</v>
       </c>
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="132" t="s">
         <v>1376</v>
       </c>
-      <c r="C4" s="133" t="s">
+      <c r="C4" s="131" t="s">
         <v>1369</v>
       </c>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="134" t="s">
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="132" t="s">
         <v>1377</v>
       </c>
-      <c r="I4" s="134" t="s">
+      <c r="I4" s="132" t="s">
         <v>1378</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="132" t="s">
         <v>1379</v>
       </c>
-      <c r="B5" s="134" t="s">
+      <c r="B5" s="132" t="s">
         <v>1380</v>
       </c>
-      <c r="C5" s="133" t="s">
+      <c r="C5" s="131" t="s">
         <v>1369</v>
       </c>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26678,42 +26916,42 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="36.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.88671875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.88671875" style="3" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="15" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.44140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.33203125" style="3" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="26" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="44.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="31.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="44.88671875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="31.5546875" style="3" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="28" style="3" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="29.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="34.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="22.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="29.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="34.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="22.109375" style="3" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="27" style="3" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="28.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="30.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="15.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="22.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="18.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="15.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="19.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="28" max="29" width="20.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="20.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="28.44140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="30.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="15.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="22.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="14.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="18.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="15.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="19.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="29" width="20.44140625" style="3" customWidth="1" collapsed="1"/>
     <col min="30" max="30" width="16" style="3" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="19.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="22.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="19.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="19.44140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="22.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="19.109375" style="3" customWidth="1" collapsed="1"/>
     <col min="34" max="34" width="19" style="3" customWidth="1" collapsed="1"/>
     <col min="35" max="35" width="20" style="3" customWidth="1" collapsed="1"/>
-    <col min="36" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="36" max="16384" width="9.109375" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -27340,81 +27578,81 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.7109375" style="3" customWidth="1"/>
-    <col min="5" max="33" width="9.140625" style="3"/>
-    <col min="34" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.6640625" style="3" customWidth="1"/>
+    <col min="5" max="33" width="9.109375" style="3"/>
+    <col min="34" max="16384" width="9.109375" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="132" t="s">
+      <c r="C1" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="132" t="s">
+      <c r="D1" s="130" t="s">
         <v>1262</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="132" t="s">
         <v>1265</v>
       </c>
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="132" t="s">
         <v>1266</v>
       </c>
-      <c r="C2" s="133" t="s">
+      <c r="C2" s="131" t="s">
         <v>419</v>
       </c>
-      <c r="D2" s="134"/>
+      <c r="D2" s="132"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="132" t="s">
         <v>1267</v>
       </c>
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="132" t="s">
         <v>1268</v>
       </c>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="131" t="s">
         <v>419</v>
       </c>
-      <c r="D3" s="134" t="s">
+      <c r="D3" s="132" t="s">
         <v>1263</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="132" t="s">
         <v>1269</v>
       </c>
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="132" t="s">
         <v>1270</v>
       </c>
-      <c r="C4" s="133" t="s">
+      <c r="C4" s="131" t="s">
         <v>419</v>
       </c>
-      <c r="D4" s="134" t="s">
+      <c r="D4" s="132" t="s">
         <v>1264</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="132" t="s">
         <v>1271</v>
       </c>
-      <c r="B5" s="134" t="s">
+      <c r="B5" s="132" t="s">
         <v>1272</v>
       </c>
-      <c r="C5" s="133" t="s">
+      <c r="C5" s="131" t="s">
         <v>419</v>
       </c>
-      <c r="D5" s="134" t="s">
+      <c r="D5" s="132" t="s">
         <v>1273</v>
       </c>
     </row>
@@ -27433,36 +27671,36 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="17.6640625" style="3" customWidth="1" collapsed="1"/>
     <col min="2" max="3" width="26" style="3" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="21" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.44140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.109375" style="3" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="25" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="27.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="26.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.140625" style="3" collapsed="1"/>
-    <col min="13" max="13" width="29.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="14.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="19.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="30.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="21.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="41.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="24.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="29.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="26.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="26.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="22.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="17.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="16.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="20.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="30" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="9" max="9" width="27.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="26.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.109375" style="3" collapsed="1"/>
+    <col min="13" max="13" width="29.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="14.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="19.44140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="30.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="21.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="41.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="24.44140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="29.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="24.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="26.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="26.44140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="22.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="17.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="16.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="20.44140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="30" max="16384" width="9.109375" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -27863,14 +28101,14 @@
       <selection activeCell="A2" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="39.75" thickBot="1">
+    <row r="1" spans="1:19" ht="42" thickBot="1">
       <c r="A1" s="37" t="s">
         <v>119</v>
       </c>
@@ -27929,7 +28167,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1">
+    <row r="2" spans="1:19" ht="15" thickBot="1">
       <c r="A2" s="38" t="s">
         <v>359</v>
       </c>
@@ -27958,7 +28196,7 @@
       <c r="R2" s="39"/>
       <c r="S2" s="39"/>
     </row>
-    <row r="3" spans="1:19" ht="39.75" thickBot="1">
+    <row r="3" spans="1:19" ht="42" thickBot="1">
       <c r="A3" s="38" t="s">
         <v>361</v>
       </c>
@@ -28013,7 +28251,7 @@
       </c>
       <c r="S3" s="39"/>
     </row>
-    <row r="4" spans="1:19" ht="27" thickBot="1">
+    <row r="4" spans="1:19" ht="42" thickBot="1">
       <c r="A4" s="38" t="s">
         <v>369</v>
       </c>
@@ -28060,7 +28298,7 @@
       <c r="R4" s="39"/>
       <c r="S4" s="39"/>
     </row>
-    <row r="5" spans="1:19" ht="39.75" thickBot="1">
+    <row r="5" spans="1:19" ht="42" thickBot="1">
       <c r="A5" s="38" t="s">
         <v>377</v>
       </c>
@@ -28095,7 +28333,7 @@
       <c r="R5" s="39"/>
       <c r="S5" s="39"/>
     </row>
-    <row r="6" spans="1:19" ht="39.75" thickBot="1">
+    <row r="6" spans="1:19" ht="42" thickBot="1">
       <c r="A6" s="38" t="s">
         <v>380</v>
       </c>
@@ -28134,7 +28372,7 @@
       <c r="R6" s="39"/>
       <c r="S6" s="39"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75" thickBot="1">
+    <row r="7" spans="1:19" ht="15" thickBot="1">
       <c r="A7" s="38" t="s">
         <v>383</v>
       </c>
@@ -28161,7 +28399,7 @@
       <c r="R7" s="39"/>
       <c r="S7" s="39"/>
     </row>
-    <row r="8" spans="1:19" ht="15.75" thickBot="1">
+    <row r="8" spans="1:19" ht="15" thickBot="1">
       <c r="A8" s="38" t="s">
         <v>385</v>
       </c>
@@ -28192,7 +28430,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15.75" thickBot="1">
+    <row r="9" spans="1:19" ht="15" thickBot="1">
       <c r="A9" s="38" t="s">
         <v>389</v>
       </c>
@@ -28233,14 +28471,14 @@
       <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="51.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -29320,12 +29558,12 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -29400,24 +29638,24 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B6"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="16" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -29645,18 +29883,18 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="11" max="11" width="20.88671875" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -29889,15 +30127,15 @@
       <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="34" width="33.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="26.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="30.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="22.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="38" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" width="26.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="34" width="33.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="26.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="30.44140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="22.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="38" max="16384" width="9.109375" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
@@ -30004,7 +30242,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15.75">
+    <row r="2" spans="1:34" ht="15">
       <c r="A2" s="5" t="s">
         <v>117</v>
       </c>
@@ -30169,19 +30407,19 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="4" width="20.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" customWidth="1"/>
+    <col min="13" max="14" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -30288,17 +30526,17 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
   </cols>
   <sheetData>
@@ -30428,37 +30666,37 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AE18" sqref="AE18"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AH18" sqref="AH18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.5546875" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="23" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.44140625" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="31.33203125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.88671875" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="24.5546875" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.5546875" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="20.33203125" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="28.44140625" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="21.44140625" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="25.88671875" customWidth="1" collapsed="1"/>
     <col min="30" max="30" width="25" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="32.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -30890,22 +31128,22 @@
       <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="18.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="24.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="20.5546875" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="91" customFormat="1">
@@ -31090,37 +31328,37 @@
       <selection activeCell="A2" sqref="A2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="89" customWidth="1"/>
-    <col min="2" max="3" width="27.7109375" style="89" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" style="89" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="89" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" style="89" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" style="89" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="89" customWidth="1"/>
-    <col min="9" max="9" width="28.85546875" style="89" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" style="89" customWidth="1"/>
+    <col min="2" max="3" width="27.6640625" style="89" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" style="89" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="89" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" style="89" customWidth="1"/>
+    <col min="7" max="7" width="24.5546875" style="89" customWidth="1"/>
+    <col min="8" max="8" width="26.5546875" style="89" customWidth="1"/>
+    <col min="9" max="9" width="28.88671875" style="89" customWidth="1"/>
     <col min="10" max="10" width="28" style="89" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" style="89" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" style="89" customWidth="1"/>
-    <col min="13" max="13" width="31.42578125" style="89" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="89" customWidth="1"/>
-    <col min="15" max="15" width="20.5703125" style="89" customWidth="1"/>
-    <col min="16" max="16" width="22.140625" style="89" customWidth="1"/>
-    <col min="17" max="17" width="32.7109375" style="89" customWidth="1"/>
-    <col min="18" max="18" width="23.28515625" style="89" customWidth="1"/>
-    <col min="19" max="19" width="44.28515625" style="89" customWidth="1"/>
+    <col min="11" max="11" width="19.88671875" style="89" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" style="89" customWidth="1"/>
+    <col min="13" max="13" width="31.44140625" style="89" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="89" customWidth="1"/>
+    <col min="15" max="15" width="20.5546875" style="89" customWidth="1"/>
+    <col min="16" max="16" width="22.109375" style="89" customWidth="1"/>
+    <col min="17" max="17" width="32.6640625" style="89" customWidth="1"/>
+    <col min="18" max="18" width="23.33203125" style="89" customWidth="1"/>
+    <col min="19" max="19" width="44.33203125" style="89" customWidth="1"/>
     <col min="20" max="20" width="26" style="89" customWidth="1"/>
-    <col min="21" max="21" width="31.42578125" style="89" customWidth="1"/>
-    <col min="22" max="22" width="25.7109375" style="89" customWidth="1"/>
-    <col min="23" max="24" width="28.5703125" style="89" customWidth="1"/>
-    <col min="25" max="25" width="28.140625" style="89" customWidth="1"/>
+    <col min="21" max="21" width="31.44140625" style="89" customWidth="1"/>
+    <col min="22" max="22" width="25.6640625" style="89" customWidth="1"/>
+    <col min="23" max="24" width="28.5546875" style="89" customWidth="1"/>
+    <col min="25" max="25" width="28.109375" style="89" customWidth="1"/>
     <col min="26" max="26" width="24" style="89" customWidth="1"/>
     <col min="27" max="27" width="19" style="89" customWidth="1"/>
-    <col min="28" max="28" width="17.140625" style="89" customWidth="1"/>
-    <col min="29" max="29" width="21.7109375" style="89" customWidth="1"/>
-    <col min="30" max="1024" width="9.7109375" style="84" customWidth="1"/>
-    <col min="1025" max="16384" width="20.7109375" style="71"/>
+    <col min="28" max="28" width="17.109375" style="89" customWidth="1"/>
+    <col min="29" max="29" width="21.6640625" style="89" customWidth="1"/>
+    <col min="30" max="1024" width="9.6640625" style="84" customWidth="1"/>
+    <col min="1025" max="16384" width="20.6640625" style="71"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -31493,15 +31731,15 @@
       <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="20.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="70" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="70" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="70" customWidth="1"/>
-    <col min="4" max="10" width="9.140625" style="70" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="70" customWidth="1"/>
-    <col min="12" max="1024" width="9.140625" style="69" customWidth="1"/>
-    <col min="1025" max="16384" width="20.5703125" style="71"/>
+    <col min="1" max="1" width="20.109375" style="70" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="70" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="70" customWidth="1"/>
+    <col min="4" max="10" width="9.109375" style="70" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" style="70" customWidth="1"/>
+    <col min="12" max="1024" width="9.109375" style="69" customWidth="1"/>
+    <col min="1025" max="16384" width="20.5546875" style="71"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -31612,7 +31850,7 @@
       <c r="J4" s="76"/>
       <c r="K4" s="76"/>
     </row>
-    <row r="5" spans="1:11" ht="12.75">
+    <row r="5" spans="1:11" ht="13.2">
       <c r="A5" s="69"/>
       <c r="B5" s="69"/>
       <c r="C5" s="69"/>
@@ -31625,7 +31863,7 @@
       <c r="J5" s="69"/>
       <c r="K5" s="69"/>
     </row>
-    <row r="6" spans="1:11" ht="12.75">
+    <row r="6" spans="1:11" ht="13.2">
       <c r="A6" s="69"/>
       <c r="B6" s="69"/>
       <c r="C6" s="69"/>
@@ -31638,7 +31876,7 @@
       <c r="J6" s="69"/>
       <c r="K6" s="69"/>
     </row>
-    <row r="7" spans="1:11" ht="12.75">
+    <row r="7" spans="1:11" ht="13.2">
       <c r="A7" s="69"/>
       <c r="B7" s="69"/>
       <c r="C7" s="69"/>
@@ -31666,11 +31904,11 @@
       <selection activeCell="A2" sqref="A2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -31764,12 +32002,12 @@
       <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="16" style="78" customWidth="1"/>
     <col min="2" max="2" width="19" style="78" customWidth="1"/>
     <col min="3" max="1024" width="16" style="78" customWidth="1"/>
-    <col min="1025" max="16384" width="10.28515625" style="82"/>
+    <col min="1025" max="16384" width="10.33203125" style="82"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -31832,10 +32070,10 @@
       <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -31897,11 +32135,11 @@
       <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -31974,22 +32212,22 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="3" customWidth="1"/>
     <col min="6" max="6" width="16" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="3"/>
+    <col min="7" max="7" width="11.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="18.109375" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -32195,11 +32433,11 @@
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -32293,13 +32531,13 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="98" customFormat="1">
@@ -32453,19 +32691,19 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.109375" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="18" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="29.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="27.109375" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="24" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -32510,7 +32748,7 @@
       <c r="B2" s="19" t="s">
         <v>959</v>
       </c>
-      <c r="C2" s="115">
+      <c r="C2" s="113">
         <v>3419</v>
       </c>
       <c r="D2" s="20" t="s">
@@ -32526,7 +32764,7 @@
         <v>32</v>
       </c>
       <c r="H2" s="19"/>
-      <c r="I2" s="116"/>
+      <c r="I2" s="114"/>
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
     </row>
@@ -32537,7 +32775,7 @@
       <c r="B3" s="19" t="s">
         <v>964</v>
       </c>
-      <c r="C3" s="115">
+      <c r="C3" s="113">
         <v>3419</v>
       </c>
       <c r="D3" s="19"/>
@@ -32547,7 +32785,7 @@
       <c r="H3" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="I3" s="116" t="s">
+      <c r="I3" s="114" t="s">
         <v>50</v>
       </c>
       <c r="J3" s="19" t="s">
@@ -32564,7 +32802,7 @@
       <c r="B4" s="19" t="s">
         <v>967</v>
       </c>
-      <c r="C4" s="115">
+      <c r="C4" s="113">
         <v>3419</v>
       </c>
       <c r="D4" s="19"/>
@@ -32585,7 +32823,7 @@
       <c r="B5" s="19" t="s">
         <v>969</v>
       </c>
-      <c r="C5" s="115">
+      <c r="C5" s="113">
         <v>3419</v>
       </c>
       <c r="D5" s="19"/>
@@ -32595,7 +32833,7 @@
       <c r="H5" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="I5" s="116" t="s">
+      <c r="I5" s="114" t="s">
         <v>50</v>
       </c>
       <c r="J5" s="19" t="s">
@@ -32612,7 +32850,7 @@
       <c r="B6" s="19" t="s">
         <v>971</v>
       </c>
-      <c r="C6" s="115">
+      <c r="C6" s="113">
         <v>3419</v>
       </c>
       <c r="D6" s="19"/>
@@ -32631,7 +32869,7 @@
       <c r="B7" s="19" t="s">
         <v>973</v>
       </c>
-      <c r="C7" s="115">
+      <c r="C7" s="113">
         <v>3419</v>
       </c>
       <c r="D7" s="19"/>
@@ -32654,7 +32892,7 @@
       <c r="B8" s="19" t="s">
         <v>975</v>
       </c>
-      <c r="C8" s="115">
+      <c r="C8" s="113">
         <v>3419</v>
       </c>
       <c r="D8" s="19"/>
@@ -32682,18 +32920,18 @@
   <dimension ref="A1:AMJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B6"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="43.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="43.6640625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="69" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" style="69" customWidth="1"/>
-    <col min="3" max="1024" width="12.140625" style="69" customWidth="1"/>
-    <col min="1025" max="16384" width="43.7109375" style="71"/>
+    <col min="1" max="1" width="18.109375" style="69" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" style="69" customWidth="1"/>
+    <col min="3" max="1024" width="12.109375" style="69" customWidth="1"/>
+    <col min="1025" max="16384" width="43.6640625" style="71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15">
+    <row r="1" spans="1:11" ht="14.4">
       <c r="A1" s="72" t="s">
         <v>7</v>
       </c>
@@ -32728,7 +32966,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15">
+    <row r="2" spans="1:11" ht="14.4">
       <c r="A2" s="74" t="s">
         <v>765</v>
       </c>
@@ -32747,7 +32985,7 @@
       <c r="J2" s="87"/>
       <c r="K2" s="87"/>
     </row>
-    <row r="3" spans="1:11" ht="15">
+    <row r="3" spans="1:11" ht="14.4">
       <c r="A3" s="74" t="s">
         <v>767</v>
       </c>
@@ -32766,7 +33004,7 @@
       <c r="J3" s="87"/>
       <c r="K3" s="87"/>
     </row>
-    <row r="4" spans="1:11" ht="15">
+    <row r="4" spans="1:11" ht="14.4">
       <c r="A4" s="74" t="s">
         <v>769</v>
       </c>
@@ -32789,7 +33027,7 @@
       <c r="J4" s="87"/>
       <c r="K4" s="87"/>
     </row>
-    <row r="5" spans="1:11" ht="15">
+    <row r="5" spans="1:11" ht="14.4">
       <c r="A5" s="74" t="s">
         <v>773</v>
       </c>
@@ -32808,7 +33046,7 @@
       <c r="J5" s="87"/>
       <c r="K5" s="87"/>
     </row>
-    <row r="6" spans="1:11" ht="15">
+    <row r="6" spans="1:11" ht="14.4">
       <c r="A6" s="74" t="s">
         <v>775</v>
       </c>
@@ -32827,7 +33065,7 @@
       <c r="J6" s="111"/>
       <c r="K6" s="111"/>
     </row>
-    <row r="7" spans="1:11" ht="15">
+    <row r="7" spans="1:11" ht="14.4">
       <c r="A7" s="74" t="s">
         <v>722</v>
       </c>
@@ -32877,16 +33115,16 @@
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -32918,7 +33156,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="27.6">
       <c r="A2" s="19" t="s">
         <v>722</v>
       </c>
@@ -32962,10 +33200,10 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -33004,10 +33242,10 @@
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
@@ -33054,33 +33292,33 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
-    <col min="9" max="9" width="27.28515625" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
-    <col min="11" max="11" width="29.42578125" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" customWidth="1"/>
-    <col min="19" max="19" width="19.5703125" customWidth="1"/>
-    <col min="20" max="20" width="13.28515625" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="105" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" customWidth="1"/>
+    <col min="9" max="9" width="27.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="29.44140625" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" customWidth="1"/>
+    <col min="19" max="19" width="19.5546875" customWidth="1"/>
+    <col min="20" max="20" width="13.33203125" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" customWidth="1"/>
+    <col min="22" max="22" width="14.44140625" style="105" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="91" customFormat="1" ht="30">
+    <row r="1" spans="1:22" s="91" customFormat="1">
       <c r="A1" s="90" t="s">
         <v>249</v>
       </c>
@@ -33377,12 +33615,12 @@
       <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="16" style="78" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="78" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="78" customWidth="1"/>
     <col min="3" max="1024" width="16" style="78" customWidth="1"/>
-    <col min="1025" max="16384" width="10.28515625" style="79"/>
+    <col min="1025" max="16384" width="10.33203125" style="79"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -33478,33 +33716,33 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" customWidth="1"/>
-    <col min="6" max="6" width="52.5703125" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" customWidth="1"/>
-    <col min="9" max="9" width="30.140625" customWidth="1"/>
-    <col min="10" max="10" width="36.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="52.5546875" customWidth="1"/>
+    <col min="7" max="7" width="36.109375" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1"/>
+    <col min="9" max="9" width="30.109375" customWidth="1"/>
+    <col min="10" max="10" width="36.44140625" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="37.28515625" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" customWidth="1"/>
-    <col min="15" max="15" width="22.42578125" customWidth="1"/>
-    <col min="16" max="16" width="30.7109375" customWidth="1"/>
-    <col min="17" max="17" width="41.5703125" customWidth="1"/>
-    <col min="18" max="18" width="25.140625" customWidth="1"/>
-    <col min="19" max="19" width="29.85546875" customWidth="1"/>
-    <col min="20" max="20" width="16.85546875" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" customWidth="1"/>
-    <col min="22" max="22" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="37.33203125" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" customWidth="1"/>
+    <col min="15" max="15" width="22.44140625" customWidth="1"/>
+    <col min="16" max="16" width="30.6640625" customWidth="1"/>
+    <col min="17" max="17" width="41.5546875" customWidth="1"/>
+    <col min="18" max="18" width="25.109375" customWidth="1"/>
+    <col min="19" max="19" width="29.88671875" customWidth="1"/>
+    <col min="20" max="20" width="16.88671875" customWidth="1"/>
+    <col min="21" max="21" width="15.109375" customWidth="1"/>
+    <col min="22" max="22" width="18.5546875" customWidth="1"/>
     <col min="23" max="23" width="20" customWidth="1"/>
-    <col min="24" max="24" width="17.140625" customWidth="1"/>
+    <col min="24" max="24" width="17.109375" customWidth="1"/>
     <col min="25" max="25" width="21" customWidth="1"/>
-    <col min="26" max="26" width="23.7109375" customWidth="1"/>
+    <col min="26" max="26" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -33684,15 +33922,15 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="24.109375" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="31" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="27" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.109375" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="30" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -33703,40 +33941,40 @@
       <c r="B1" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="131" t="s">
+      <c r="C1" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="130" t="s">
+      <c r="D1" s="128" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="130" t="s">
+      <c r="E1" s="128" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="130" t="s">
+      <c r="F1" s="128" t="s">
         <v>124</v>
       </c>
-      <c r="G1" s="130" t="s">
+      <c r="G1" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="H1" s="130" t="s">
+      <c r="H1" s="128" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="127" t="s">
         <v>1261</v>
       </c>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="127" t="s">
         <v>1260</v>
       </c>
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="126" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
@@ -33745,7 +33983,7 @@
       <c r="B3" s="5" t="s">
         <v>1258</v>
       </c>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="124" t="s">
         <v>127</v>
       </c>
       <c r="D3" s="19"/>
@@ -33761,7 +33999,7 @@
       <c r="B4" s="5" t="s">
         <v>1256</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="124" t="s">
         <v>127</v>
       </c>
       <c r="D4" s="19"/>
@@ -33777,7 +34015,7 @@
       <c r="B5" s="5" t="s">
         <v>1254</v>
       </c>
-      <c r="C5" s="126" t="s">
+      <c r="C5" s="124" t="s">
         <v>127</v>
       </c>
       <c r="D5" s="19"/>
@@ -33793,7 +34031,7 @@
       <c r="B6" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="C6" s="126" t="s">
+      <c r="C6" s="124" t="s">
         <v>127</v>
       </c>
       <c r="D6" s="19"/>
@@ -33809,7 +34047,7 @@
       <c r="B7" s="5" t="s">
         <v>1250</v>
       </c>
-      <c r="C7" s="126" t="s">
+      <c r="C7" s="124" t="s">
         <v>127</v>
       </c>
       <c r="D7" s="19"/>
@@ -33825,7 +34063,7 @@
       <c r="B8" s="5" t="s">
         <v>1248</v>
       </c>
-      <c r="C8" s="126" t="s">
+      <c r="C8" s="124" t="s">
         <v>127</v>
       </c>
       <c r="D8" s="19"/>
@@ -33841,7 +34079,7 @@
       <c r="B9" s="5" t="s">
         <v>1246</v>
       </c>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="124" t="s">
         <v>127</v>
       </c>
       <c r="D9" s="19"/>
@@ -33857,7 +34095,7 @@
       <c r="B10" s="5" t="s">
         <v>1244</v>
       </c>
-      <c r="C10" s="126" t="s">
+      <c r="C10" s="124" t="s">
         <v>127</v>
       </c>
       <c r="D10" s="19"/>
@@ -33873,7 +34111,7 @@
       <c r="B11" s="5" t="s">
         <v>1242</v>
       </c>
-      <c r="C11" s="126" t="s">
+      <c r="C11" s="124" t="s">
         <v>127</v>
       </c>
       <c r="D11" s="19"/>
@@ -33889,7 +34127,7 @@
       <c r="B12" s="5" t="s">
         <v>1240</v>
       </c>
-      <c r="C12" s="126" t="s">
+      <c r="C12" s="124" t="s">
         <v>127</v>
       </c>
       <c r="D12" s="19"/>
@@ -33905,7 +34143,7 @@
       <c r="B13" s="5" t="s">
         <v>1238</v>
       </c>
-      <c r="C13" s="126" t="s">
+      <c r="C13" s="124" t="s">
         <v>127</v>
       </c>
       <c r="D13" s="19"/>
@@ -33921,7 +34159,7 @@
       <c r="B14" s="5" t="s">
         <v>1236</v>
       </c>
-      <c r="C14" s="126" t="s">
+      <c r="C14" s="124" t="s">
         <v>127</v>
       </c>
       <c r="D14" s="19"/>
@@ -33937,7 +34175,7 @@
       <c r="B15" s="5" t="s">
         <v>1234</v>
       </c>
-      <c r="C15" s="126" t="s">
+      <c r="C15" s="124" t="s">
         <v>127</v>
       </c>
       <c r="D15" s="19"/>
@@ -33953,7 +34191,7 @@
       <c r="B16" s="5" t="s">
         <v>1232</v>
       </c>
-      <c r="C16" s="126" t="s">
+      <c r="C16" s="124" t="s">
         <v>127</v>
       </c>
       <c r="D16" s="19"/>
@@ -33969,7 +34207,7 @@
       <c r="B17" s="5" t="s">
         <v>1230</v>
       </c>
-      <c r="C17" s="126" t="s">
+      <c r="C17" s="124" t="s">
         <v>127</v>
       </c>
       <c r="D17" s="19"/>
@@ -33985,7 +34223,7 @@
       <c r="B18" s="5" t="s">
         <v>1228</v>
       </c>
-      <c r="C18" s="126" t="s">
+      <c r="C18" s="124" t="s">
         <v>127</v>
       </c>
       <c r="D18" s="19"/>
@@ -34001,7 +34239,7 @@
       <c r="B19" s="5" t="s">
         <v>1266</v>
       </c>
-      <c r="C19" s="128" t="s">
+      <c r="C19" s="126" t="s">
         <v>127</v>
       </c>
       <c r="D19" s="19"/>
@@ -34017,7 +34255,7 @@
       <c r="B20" s="5" t="s">
         <v>1268</v>
       </c>
-      <c r="C20" s="128" t="s">
+      <c r="C20" s="126" t="s">
         <v>127</v>
       </c>
       <c r="D20" s="19"/>
@@ -34033,7 +34271,7 @@
       <c r="B21" s="5" t="s">
         <v>1270</v>
       </c>
-      <c r="C21" s="128" t="s">
+      <c r="C21" s="126" t="s">
         <v>127</v>
       </c>
       <c r="D21" s="19"/>
@@ -34049,7 +34287,7 @@
       <c r="B22" s="5" t="s">
         <v>1272</v>
       </c>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="126" t="s">
         <v>127</v>
       </c>
       <c r="D22" s="19"/>
@@ -34077,15 +34315,15 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="24.109375" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="31" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="27" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.109375" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="30" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -34096,22 +34334,22 @@
       <c r="B1" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="131" t="s">
+      <c r="C1" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="130" t="s">
+      <c r="D1" s="128" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="130" t="s">
+      <c r="E1" s="128" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="130" t="s">
+      <c r="F1" s="128" t="s">
         <v>124</v>
       </c>
-      <c r="G1" s="130" t="s">
+      <c r="G1" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="H1" s="130" t="s">
+      <c r="H1" s="128" t="s">
         <v>126</v>
       </c>
     </row>
@@ -34122,14 +34360,14 @@
       <c r="B2" s="5" t="s">
         <v>1266</v>
       </c>
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="126" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
@@ -34138,14 +34376,14 @@
       <c r="B3" s="5" t="s">
         <v>1268</v>
       </c>
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="126" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
@@ -34154,14 +34392,14 @@
       <c r="B4" s="5" t="s">
         <v>1270</v>
       </c>
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="126" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
@@ -34170,14 +34408,14 @@
       <c r="B5" s="5" t="s">
         <v>1272</v>
       </c>
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="126" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -34198,16 +34436,16 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="27.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="30.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="36.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.33203125" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="41" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="33.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -34237,10 +34475,10 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="137" t="s">
         <v>1321</v>
       </c>
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="137" t="s">
         <v>1322</v>
       </c>
       <c r="C2" s="112" t="s">
@@ -34335,35 +34573,35 @@
       <selection activeCell="A2" sqref="A2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="36" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="29.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.7109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="29.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.88671875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.6640625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.5546875" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="16" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="25.140625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="14.88671875" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.44140625" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="25.109375" customWidth="1" collapsed="1"/>
     <col min="24" max="24" width="16" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="24.109375" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="19.5546875" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="20.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -34796,25 +35034,510 @@
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet49"/>
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" customWidth="1"/>
+    <col min="12" max="12" width="22.77734375" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="13.44140625" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" customWidth="1"/>
+    <col min="16" max="16" width="18.33203125" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" customWidth="1"/>
+    <col min="18" max="18" width="18" customWidth="1"/>
+    <col min="19" max="19" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>1449</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>1448</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>1447</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>1446</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>1445</v>
+      </c>
+      <c r="K1" s="55" t="s">
+        <v>1444</v>
+      </c>
+      <c r="L1" s="55" t="s">
+        <v>1443</v>
+      </c>
+      <c r="M1" s="55" t="s">
+        <v>1442</v>
+      </c>
+      <c r="N1" s="55" t="s">
+        <v>1441</v>
+      </c>
+      <c r="O1" s="55" t="s">
+        <v>1440</v>
+      </c>
+      <c r="P1" s="55" t="s">
+        <v>1439</v>
+      </c>
+      <c r="Q1" s="55" t="s">
+        <v>591</v>
+      </c>
+      <c r="R1" s="55" t="s">
+        <v>1200</v>
+      </c>
+      <c r="S1" s="55" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="92" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2" s="141" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E2" s="141" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F2" s="141" t="s">
+        <v>1434</v>
+      </c>
+      <c r="G2" s="141" t="s">
+        <v>1433</v>
+      </c>
+      <c r="H2" s="141" t="s">
+        <v>1432</v>
+      </c>
+      <c r="I2" s="141" t="s">
+        <v>1431</v>
+      </c>
+      <c r="J2" s="44" t="s">
+        <v>1430</v>
+      </c>
+      <c r="K2" s="44" t="s">
+        <v>1429</v>
+      </c>
+      <c r="L2" s="44" t="s">
+        <v>1428</v>
+      </c>
+      <c r="M2" s="141" t="s">
+        <v>1427</v>
+      </c>
+      <c r="N2" s="44" t="s">
+        <v>1426</v>
+      </c>
+      <c r="O2" s="141" t="s">
+        <v>1425</v>
+      </c>
+      <c r="P2" s="141" t="s">
+        <v>1425</v>
+      </c>
+      <c r="Q2" s="44" t="s">
+        <v>1069</v>
+      </c>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="92" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B3" s="92" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="92" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B4" s="92" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="92" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B5" s="92" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="92" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B6" s="92" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="92" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B7" s="92" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="141" t="s">
+        <v>1414</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44" t="s">
+        <v>1413</v>
+      </c>
+      <c r="K7" s="44" t="s">
+        <v>1412</v>
+      </c>
+      <c r="L7" s="44" t="s">
+        <v>1411</v>
+      </c>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="92" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B8" s="92" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="92" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B9" s="92" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44" t="s">
+        <v>1406</v>
+      </c>
+      <c r="S9" s="44" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="92" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B10" s="92" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="92" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="92" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B3" s="92" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="92" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B4" s="92" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="92" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B5" s="92" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="92" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B6" s="92" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet49"/>
+  <dimension ref="A1:I198"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D194" sqref="D194"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.88671875" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="42" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="42.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="42" style="145" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="42.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.33203125" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="36.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -34824,7 +35547,7 @@
       <c r="B1" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="142" t="s">
         <v>813</v>
       </c>
       <c r="D1" s="24" t="s">
@@ -34853,7 +35576,7 @@
       <c r="B2" s="22" t="s">
         <v>897</v>
       </c>
-      <c r="C2" s="151" t="s">
+      <c r="C2" s="153" t="s">
         <v>812</v>
       </c>
       <c r="D2" s="112" t="s">
@@ -34867,7 +35590,7 @@
       <c r="B3" s="22" t="s">
         <v>898</v>
       </c>
-      <c r="C3" s="152"/>
+      <c r="C3" s="154"/>
       <c r="D3" s="112" t="s">
         <v>127</v>
       </c>
@@ -34879,7 +35602,7 @@
       <c r="B4" s="22" t="s">
         <v>899</v>
       </c>
-      <c r="C4" s="152"/>
+      <c r="C4" s="154"/>
       <c r="D4" s="112" t="s">
         <v>127</v>
       </c>
@@ -34891,7 +35614,7 @@
       <c r="B5" s="22" t="s">
         <v>900</v>
       </c>
-      <c r="C5" s="152"/>
+      <c r="C5" s="154"/>
       <c r="D5" s="112" t="s">
         <v>127</v>
       </c>
@@ -34903,7 +35626,7 @@
       <c r="B6" s="22" t="s">
         <v>907</v>
       </c>
-      <c r="C6" s="152"/>
+      <c r="C6" s="154"/>
       <c r="D6" s="112" t="s">
         <v>127</v>
       </c>
@@ -34915,7 +35638,7 @@
       <c r="B7" s="22" t="s">
         <v>908</v>
       </c>
-      <c r="C7" s="152"/>
+      <c r="C7" s="154"/>
       <c r="D7" s="112" t="s">
         <v>127</v>
       </c>
@@ -34927,7 +35650,7 @@
       <c r="B8" s="22" t="s">
         <v>909</v>
       </c>
-      <c r="C8" s="152"/>
+      <c r="C8" s="154"/>
       <c r="D8" s="112" t="s">
         <v>127</v>
       </c>
@@ -34939,7 +35662,7 @@
       <c r="B9" s="22" t="s">
         <v>910</v>
       </c>
-      <c r="C9" s="152"/>
+      <c r="C9" s="154"/>
       <c r="D9" s="112" t="s">
         <v>127</v>
       </c>
@@ -34951,7 +35674,7 @@
       <c r="B10" s="22" t="s">
         <v>911</v>
       </c>
-      <c r="C10" s="152"/>
+      <c r="C10" s="154"/>
       <c r="D10" s="112" t="s">
         <v>127</v>
       </c>
@@ -34963,7 +35686,7 @@
       <c r="B11" s="22" t="s">
         <v>912</v>
       </c>
-      <c r="C11" s="153"/>
+      <c r="C11" s="155"/>
       <c r="D11" s="112" t="s">
         <v>127</v>
       </c>
@@ -34975,7 +35698,7 @@
       <c r="B12" s="22" t="s">
         <v>916</v>
       </c>
-      <c r="C12" s="144" t="s">
+      <c r="C12" s="156" t="s">
         <v>884</v>
       </c>
       <c r="D12" s="112" t="s">
@@ -34989,7 +35712,7 @@
       <c r="B13" s="22" t="s">
         <v>929</v>
       </c>
-      <c r="C13" s="145"/>
+      <c r="C13" s="157"/>
       <c r="D13" s="112" t="s">
         <v>127</v>
       </c>
@@ -35001,7 +35724,7 @@
       <c r="B14" s="22" t="s">
         <v>931</v>
       </c>
-      <c r="C14" s="145"/>
+      <c r="C14" s="157"/>
       <c r="D14" s="112" t="s">
         <v>127</v>
       </c>
@@ -35013,7 +35736,7 @@
       <c r="B15" s="22" t="s">
         <v>934</v>
       </c>
-      <c r="C15" s="145"/>
+      <c r="C15" s="157"/>
       <c r="D15" s="112" t="s">
         <v>127</v>
       </c>
@@ -35025,7 +35748,7 @@
       <c r="B16" s="22" t="s">
         <v>936</v>
       </c>
-      <c r="C16" s="145"/>
+      <c r="C16" s="157"/>
       <c r="D16" s="112" t="s">
         <v>127</v>
       </c>
@@ -35037,7 +35760,7 @@
       <c r="B17" s="22" t="s">
         <v>939</v>
       </c>
-      <c r="C17" s="145"/>
+      <c r="C17" s="157"/>
       <c r="D17" s="112" t="s">
         <v>127</v>
       </c>
@@ -35049,7 +35772,7 @@
       <c r="B18" s="22" t="s">
         <v>942</v>
       </c>
-      <c r="C18" s="146"/>
+      <c r="C18" s="158"/>
       <c r="D18" s="112" t="s">
         <v>127</v>
       </c>
@@ -35061,7 +35784,7 @@
       <c r="B19" s="22" t="s">
         <v>946</v>
       </c>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="156" t="s">
         <v>885</v>
       </c>
       <c r="D19" s="112" t="s">
@@ -35075,7 +35798,7 @@
       <c r="B20" s="22" t="s">
         <v>949</v>
       </c>
-      <c r="C20" s="145"/>
+      <c r="C20" s="157"/>
       <c r="D20" s="112" t="s">
         <v>127</v>
       </c>
@@ -35087,7 +35810,7 @@
       <c r="B21" s="22" t="s">
         <v>951</v>
       </c>
-      <c r="C21" s="145"/>
+      <c r="C21" s="157"/>
       <c r="D21" s="112" t="s">
         <v>127</v>
       </c>
@@ -35099,7 +35822,7 @@
       <c r="B22" s="22" t="s">
         <v>953</v>
       </c>
-      <c r="C22" s="145"/>
+      <c r="C22" s="157"/>
       <c r="D22" s="112" t="s">
         <v>127</v>
       </c>
@@ -35111,7 +35834,7 @@
       <c r="B23" s="22" t="s">
         <v>955</v>
       </c>
-      <c r="C23" s="145"/>
+      <c r="C23" s="157"/>
       <c r="D23" s="112" t="s">
         <v>127</v>
       </c>
@@ -35126,7 +35849,7 @@
       <c r="B24" s="22" t="s">
         <v>957</v>
       </c>
-      <c r="C24" s="146"/>
+      <c r="C24" s="158"/>
       <c r="D24" s="112" t="s">
         <v>127</v>
       </c>
@@ -35138,7 +35861,7 @@
       <c r="B25" s="22" t="s">
         <v>959</v>
       </c>
-      <c r="C25" s="144" t="s">
+      <c r="C25" s="156" t="s">
         <v>886</v>
       </c>
       <c r="D25" s="112" t="s">
@@ -35152,7 +35875,7 @@
       <c r="B26" s="22" t="s">
         <v>964</v>
       </c>
-      <c r="C26" s="145"/>
+      <c r="C26" s="157"/>
       <c r="D26" s="112" t="s">
         <v>127</v>
       </c>
@@ -35164,7 +35887,7 @@
       <c r="B27" s="22" t="s">
         <v>967</v>
       </c>
-      <c r="C27" s="145"/>
+      <c r="C27" s="157"/>
       <c r="D27" s="112" t="s">
         <v>127</v>
       </c>
@@ -35176,7 +35899,7 @@
       <c r="B28" s="22" t="s">
         <v>969</v>
       </c>
-      <c r="C28" s="145"/>
+      <c r="C28" s="157"/>
       <c r="D28" s="112" t="s">
         <v>127</v>
       </c>
@@ -35188,7 +35911,7 @@
       <c r="B29" s="22" t="s">
         <v>971</v>
       </c>
-      <c r="C29" s="145"/>
+      <c r="C29" s="157"/>
       <c r="D29" s="112" t="s">
         <v>127</v>
       </c>
@@ -35200,7 +35923,7 @@
       <c r="B30" s="22" t="s">
         <v>973</v>
       </c>
-      <c r="C30" s="145"/>
+      <c r="C30" s="157"/>
       <c r="D30" s="112" t="s">
         <v>127</v>
       </c>
@@ -35212,7 +35935,7 @@
       <c r="B31" s="22" t="s">
         <v>975</v>
       </c>
-      <c r="C31" s="146"/>
+      <c r="C31" s="158"/>
       <c r="D31" s="112" t="s">
         <v>127</v>
       </c>
@@ -35224,7 +35947,7 @@
       <c r="B32" s="22" t="s">
         <v>977</v>
       </c>
-      <c r="C32" s="144" t="s">
+      <c r="C32" s="156" t="s">
         <v>887</v>
       </c>
       <c r="D32" s="112" t="s">
@@ -35238,7 +35961,7 @@
       <c r="B33" s="22" t="s">
         <v>981</v>
       </c>
-      <c r="C33" s="145"/>
+      <c r="C33" s="157"/>
       <c r="D33" s="112" t="s">
         <v>127</v>
       </c>
@@ -35250,7 +35973,7 @@
       <c r="B34" s="22" t="s">
         <v>983</v>
       </c>
-      <c r="C34" s="145"/>
+      <c r="C34" s="157"/>
       <c r="D34" s="112" t="s">
         <v>127</v>
       </c>
@@ -35262,7 +35985,7 @@
       <c r="B35" s="22" t="s">
         <v>985</v>
       </c>
-      <c r="C35" s="145"/>
+      <c r="C35" s="157"/>
       <c r="D35" s="112" t="s">
         <v>127</v>
       </c>
@@ -35274,7 +35997,7 @@
       <c r="B36" s="22" t="s">
         <v>987</v>
       </c>
-      <c r="C36" s="145"/>
+      <c r="C36" s="157"/>
       <c r="D36" s="112" t="s">
         <v>127</v>
       </c>
@@ -35286,7 +36009,7 @@
       <c r="B37" s="22" t="s">
         <v>989</v>
       </c>
-      <c r="C37" s="145"/>
+      <c r="C37" s="157"/>
       <c r="D37" s="112" t="s">
         <v>127</v>
       </c>
@@ -35298,7 +36021,7 @@
       <c r="B38" s="22" t="s">
         <v>991</v>
       </c>
-      <c r="C38" s="146"/>
+      <c r="C38" s="158"/>
       <c r="D38" s="112" t="s">
         <v>127</v>
       </c>
@@ -35310,7 +36033,7 @@
       <c r="B39" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="C39" s="144" t="s">
+      <c r="C39" s="156" t="s">
         <v>888</v>
       </c>
       <c r="D39" s="112" t="s">
@@ -35324,7 +36047,7 @@
       <c r="B40" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="C40" s="145"/>
+      <c r="C40" s="157"/>
       <c r="D40" s="112" t="s">
         <v>127</v>
       </c>
@@ -35336,7 +36059,7 @@
       <c r="B41" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="C41" s="145"/>
+      <c r="C41" s="157"/>
       <c r="D41" s="112" t="s">
         <v>127</v>
       </c>
@@ -35348,7 +36071,7 @@
       <c r="B42" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="C42" s="145"/>
+      <c r="C42" s="157"/>
       <c r="D42" s="112" t="s">
         <v>127</v>
       </c>
@@ -35360,7 +36083,7 @@
       <c r="B43" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="C43" s="146"/>
+      <c r="C43" s="158"/>
       <c r="D43" s="112" t="s">
         <v>127</v>
       </c>
@@ -35372,7 +36095,7 @@
       <c r="B44" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="C44" s="148" t="s">
+      <c r="C44" s="149" t="s">
         <v>889</v>
       </c>
       <c r="D44" s="112" t="s">
@@ -35386,7 +36109,7 @@
       <c r="B45" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="C45" s="149"/>
+      <c r="C45" s="150"/>
       <c r="D45" s="112" t="s">
         <v>127</v>
       </c>
@@ -35398,7 +36121,7 @@
       <c r="B46" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="C46" s="149"/>
+      <c r="C46" s="150"/>
       <c r="D46" s="112" t="s">
         <v>127</v>
       </c>
@@ -35410,7 +36133,7 @@
       <c r="B47" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="C47" s="149"/>
+      <c r="C47" s="150"/>
       <c r="D47" s="112" t="s">
         <v>127</v>
       </c>
@@ -35422,7 +36145,7 @@
       <c r="B48" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="C48" s="149"/>
+      <c r="C48" s="150"/>
       <c r="D48" s="112" t="s">
         <v>127</v>
       </c>
@@ -35434,7 +36157,7 @@
       <c r="B49" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="C49" s="149"/>
+      <c r="C49" s="150"/>
       <c r="D49" s="112" t="s">
         <v>127</v>
       </c>
@@ -35446,7 +36169,7 @@
       <c r="B50" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="C50" s="149"/>
+      <c r="C50" s="150"/>
       <c r="D50" s="112" t="s">
         <v>127</v>
       </c>
@@ -35458,7 +36181,7 @@
       <c r="B51" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="C51" s="149"/>
+      <c r="C51" s="150"/>
       <c r="D51" s="112" t="s">
         <v>127</v>
       </c>
@@ -35470,7 +36193,7 @@
       <c r="B52" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="C52" s="149"/>
+      <c r="C52" s="150"/>
       <c r="D52" s="112" t="s">
         <v>127</v>
       </c>
@@ -35482,7 +36205,7 @@
       <c r="B53" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="C53" s="149"/>
+      <c r="C53" s="150"/>
       <c r="D53" s="112" t="s">
         <v>127</v>
       </c>
@@ -35494,7 +36217,7 @@
       <c r="B54" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="C54" s="149"/>
+      <c r="C54" s="150"/>
       <c r="D54" s="112" t="s">
         <v>127</v>
       </c>
@@ -35506,7 +36229,7 @@
       <c r="B55" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="C55" s="150"/>
+      <c r="C55" s="151"/>
       <c r="D55" s="112" t="s">
         <v>127</v>
       </c>
@@ -35518,7 +36241,7 @@
       <c r="B56" s="22" t="s">
         <v>549</v>
       </c>
-      <c r="C56" s="148" t="s">
+      <c r="C56" s="149" t="s">
         <v>890</v>
       </c>
       <c r="D56" s="112" t="s">
@@ -35532,7 +36255,7 @@
       <c r="B57" s="22" t="s">
         <v>551</v>
       </c>
-      <c r="C57" s="149"/>
+      <c r="C57" s="150"/>
       <c r="D57" s="112" t="s">
         <v>127</v>
       </c>
@@ -35544,7 +36267,7 @@
       <c r="B58" s="22" t="s">
         <v>554</v>
       </c>
-      <c r="C58" s="150"/>
+      <c r="C58" s="151"/>
       <c r="D58" s="112" t="s">
         <v>127</v>
       </c>
@@ -35556,7 +36279,7 @@
       <c r="B59" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C59" s="144" t="s">
+      <c r="C59" s="156" t="s">
         <v>891</v>
       </c>
       <c r="D59" s="112" t="s">
@@ -35570,7 +36293,7 @@
       <c r="B60" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C60" s="145"/>
+      <c r="C60" s="157"/>
       <c r="D60" s="112" t="s">
         <v>127</v>
       </c>
@@ -35582,7 +36305,7 @@
       <c r="B61" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="145"/>
+      <c r="C61" s="157"/>
       <c r="D61" s="112" t="s">
         <v>127</v>
       </c>
@@ -35594,7 +36317,7 @@
       <c r="B62" s="22" t="s">
         <v>811</v>
       </c>
-      <c r="C62" s="145"/>
+      <c r="C62" s="157"/>
       <c r="D62" s="112" t="s">
         <v>127</v>
       </c>
@@ -35606,7 +36329,7 @@
       <c r="B63" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C63" s="145"/>
+      <c r="C63" s="157"/>
       <c r="D63" s="112" t="s">
         <v>127</v>
       </c>
@@ -35618,7 +36341,7 @@
       <c r="B64" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="146"/>
+      <c r="C64" s="158"/>
       <c r="D64" s="112" t="s">
         <v>127</v>
       </c>
@@ -35630,7 +36353,7 @@
       <c r="B65" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="C65" s="154" t="s">
+      <c r="C65" s="159" t="s">
         <v>892</v>
       </c>
       <c r="D65" s="112" t="s">
@@ -35644,7 +36367,7 @@
       <c r="B66" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="C66" s="155"/>
+      <c r="C66" s="160"/>
       <c r="D66" s="112" t="s">
         <v>127</v>
       </c>
@@ -35656,7 +36379,7 @@
       <c r="B67" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="C67" s="155"/>
+      <c r="C67" s="160"/>
       <c r="D67" s="112" t="s">
         <v>127</v>
       </c>
@@ -35668,7 +36391,7 @@
       <c r="B68" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="C68" s="155"/>
+      <c r="C68" s="160"/>
       <c r="D68" s="112" t="s">
         <v>127</v>
       </c>
@@ -35680,7 +36403,7 @@
       <c r="B69" s="22" t="s">
         <v>381</v>
       </c>
-      <c r="C69" s="155"/>
+      <c r="C69" s="160"/>
       <c r="D69" s="112" t="s">
         <v>127</v>
       </c>
@@ -35692,7 +36415,7 @@
       <c r="B70" s="22" t="s">
         <v>384</v>
       </c>
-      <c r="C70" s="155"/>
+      <c r="C70" s="160"/>
       <c r="D70" s="112" t="s">
         <v>127</v>
       </c>
@@ -35704,7 +36427,7 @@
       <c r="B71" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="C71" s="155"/>
+      <c r="C71" s="160"/>
       <c r="D71" s="112" t="s">
         <v>127</v>
       </c>
@@ -35716,7 +36439,7 @@
       <c r="B72" s="22" t="s">
         <v>390</v>
       </c>
-      <c r="C72" s="156"/>
+      <c r="C72" s="161"/>
       <c r="D72" s="112" t="s">
         <v>127</v>
       </c>
@@ -35728,7 +36451,7 @@
       <c r="B73" s="22" t="s">
         <v>827</v>
       </c>
-      <c r="C73" s="147" t="s">
+      <c r="C73" s="152" t="s">
         <v>816</v>
       </c>
       <c r="D73" s="112" t="s">
@@ -35742,7 +36465,7 @@
       <c r="B74" s="22" t="s">
         <v>828</v>
       </c>
-      <c r="C74" s="147"/>
+      <c r="C74" s="152"/>
       <c r="D74" s="112" t="s">
         <v>127</v>
       </c>
@@ -35754,7 +36477,7 @@
       <c r="B75" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="C75" s="143" t="s">
+      <c r="C75" s="148" t="s">
         <v>815</v>
       </c>
       <c r="D75" s="112" t="s">
@@ -35768,7 +36491,7 @@
       <c r="B76" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C76" s="143"/>
+      <c r="C76" s="148"/>
       <c r="D76" s="112" t="s">
         <v>127</v>
       </c>
@@ -35780,7 +36503,7 @@
       <c r="B77" s="22" t="s">
         <v>455</v>
       </c>
-      <c r="C77" s="143"/>
+      <c r="C77" s="148"/>
       <c r="D77" s="112" t="s">
         <v>127</v>
       </c>
@@ -35792,7 +36515,7 @@
       <c r="B78" s="22" t="s">
         <v>482</v>
       </c>
-      <c r="C78" s="143" t="s">
+      <c r="C78" s="148" t="s">
         <v>814</v>
       </c>
       <c r="D78" s="112" t="s">
@@ -35806,7 +36529,7 @@
       <c r="B79" s="22" t="s">
         <v>485</v>
       </c>
-      <c r="C79" s="143"/>
+      <c r="C79" s="148"/>
       <c r="D79" s="112" t="s">
         <v>127</v>
       </c>
@@ -35818,7 +36541,7 @@
       <c r="B80" s="22" t="s">
         <v>492</v>
       </c>
-      <c r="C80" s="143"/>
+      <c r="C80" s="148"/>
       <c r="D80" s="112" t="s">
         <v>127</v>
       </c>
@@ -35830,7 +36553,7 @@
       <c r="B81" s="22" t="s">
         <v>496</v>
       </c>
-      <c r="C81" s="143"/>
+      <c r="C81" s="148"/>
       <c r="D81" s="112" t="s">
         <v>127</v>
       </c>
@@ -35842,7 +36565,7 @@
       <c r="B82" s="22" t="s">
         <v>502</v>
       </c>
-      <c r="C82" s="143"/>
+      <c r="C82" s="148"/>
       <c r="D82" s="112" t="s">
         <v>127</v>
       </c>
@@ -35854,7 +36577,7 @@
       <c r="B83" s="22" t="s">
         <v>512</v>
       </c>
-      <c r="C83" s="114" t="s">
+      <c r="C83" s="143" t="s">
         <v>817</v>
       </c>
       <c r="D83" s="112" t="s">
@@ -35868,7 +36591,7 @@
       <c r="B84" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C84" s="147" t="s">
+      <c r="C84" s="152" t="s">
         <v>818</v>
       </c>
       <c r="D84" s="112" t="s">
@@ -35882,7 +36605,7 @@
       <c r="B85" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C85" s="147"/>
+      <c r="C85" s="152"/>
       <c r="D85" s="112" t="s">
         <v>127</v>
       </c>
@@ -35894,7 +36617,7 @@
       <c r="B86" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="C86" s="114" t="s">
+      <c r="C86" s="143" t="s">
         <v>819</v>
       </c>
       <c r="D86" s="112" t="s">
@@ -35908,7 +36631,7 @@
       <c r="B87" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="C87" s="147" t="s">
+      <c r="C87" s="152" t="s">
         <v>820</v>
       </c>
       <c r="D87" s="112" t="s">
@@ -35922,7 +36645,7 @@
       <c r="B88" s="22" t="s">
         <v>466</v>
       </c>
-      <c r="C88" s="147"/>
+      <c r="C88" s="152"/>
       <c r="D88" s="112" t="s">
         <v>127</v>
       </c>
@@ -35934,7 +36657,7 @@
       <c r="B89" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="C89" s="147"/>
+      <c r="C89" s="152"/>
       <c r="D89" s="112" t="s">
         <v>127</v>
       </c>
@@ -35946,7 +36669,7 @@
       <c r="B90" s="22" t="s">
         <v>672</v>
       </c>
-      <c r="C90" s="147" t="s">
+      <c r="C90" s="152" t="s">
         <v>821</v>
       </c>
       <c r="D90" s="112" t="s">
@@ -35960,7 +36683,7 @@
       <c r="B91" s="22" t="s">
         <v>679</v>
       </c>
-      <c r="C91" s="147"/>
+      <c r="C91" s="152"/>
       <c r="D91" s="112" t="s">
         <v>127</v>
       </c>
@@ -35972,7 +36695,7 @@
       <c r="B92" s="22" t="s">
         <v>681</v>
       </c>
-      <c r="C92" s="147"/>
+      <c r="C92" s="152"/>
       <c r="D92" s="112" t="s">
         <v>127</v>
       </c>
@@ -35984,7 +36707,7 @@
       <c r="B93" s="22" t="s">
         <v>683</v>
       </c>
-      <c r="C93" s="147"/>
+      <c r="C93" s="152"/>
       <c r="D93" s="112" t="s">
         <v>127</v>
       </c>
@@ -35996,7 +36719,7 @@
       <c r="B94" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="C94" s="147"/>
+      <c r="C94" s="152"/>
       <c r="D94" s="112" t="s">
         <v>127</v>
       </c>
@@ -36008,7 +36731,7 @@
       <c r="B95" s="22" t="s">
         <v>655</v>
       </c>
-      <c r="C95" s="147" t="s">
+      <c r="C95" s="152" t="s">
         <v>822</v>
       </c>
       <c r="D95" s="112" t="s">
@@ -36022,7 +36745,7 @@
       <c r="B96" s="22" t="s">
         <v>657</v>
       </c>
-      <c r="C96" s="147"/>
+      <c r="C96" s="152"/>
       <c r="D96" s="112" t="s">
         <v>127</v>
       </c>
@@ -36034,7 +36757,7 @@
       <c r="B97" s="22" t="s">
         <v>595</v>
       </c>
-      <c r="C97" s="143" t="s">
+      <c r="C97" s="148" t="s">
         <v>823</v>
       </c>
       <c r="D97" s="112" t="s">
@@ -36048,7 +36771,7 @@
       <c r="B98" s="22" t="s">
         <v>608</v>
       </c>
-      <c r="C98" s="143"/>
+      <c r="C98" s="148"/>
       <c r="D98" s="112" t="s">
         <v>127</v>
       </c>
@@ -36060,7 +36783,7 @@
       <c r="B99" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="C99" s="143"/>
+      <c r="C99" s="148"/>
       <c r="D99" s="112" t="s">
         <v>127</v>
       </c>
@@ -36072,7 +36795,7 @@
       <c r="B100" s="22" t="s">
         <v>612</v>
       </c>
-      <c r="C100" s="143"/>
+      <c r="C100" s="148"/>
       <c r="D100" s="112" t="s">
         <v>127</v>
       </c>
@@ -36084,7 +36807,7 @@
       <c r="B101" s="22" t="s">
         <v>564</v>
       </c>
-      <c r="C101" s="113" t="s">
+      <c r="C101" s="144" t="s">
         <v>824</v>
       </c>
       <c r="D101" s="112" t="s">
@@ -36098,7 +36821,7 @@
       <c r="B102" s="22" t="s">
         <v>404</v>
       </c>
-      <c r="C102" s="143" t="s">
+      <c r="C102" s="148" t="s">
         <v>839</v>
       </c>
       <c r="D102" s="112" t="s">
@@ -36112,7 +36835,7 @@
       <c r="B103" s="22" t="s">
         <v>834</v>
       </c>
-      <c r="C103" s="143"/>
+      <c r="C103" s="148"/>
       <c r="D103" s="112" t="s">
         <v>127</v>
       </c>
@@ -36124,7 +36847,7 @@
       <c r="B104" s="22" t="s">
         <v>835</v>
       </c>
-      <c r="C104" s="143"/>
+      <c r="C104" s="148"/>
       <c r="D104" s="112" t="s">
         <v>127</v>
       </c>
@@ -36136,7 +36859,7 @@
       <c r="B105" s="22" t="s">
         <v>836</v>
       </c>
-      <c r="C105" s="143"/>
+      <c r="C105" s="148"/>
       <c r="D105" s="112" t="s">
         <v>127</v>
       </c>
@@ -36148,7 +36871,7 @@
       <c r="B106" s="22" t="s">
         <v>837</v>
       </c>
-      <c r="C106" s="143"/>
+      <c r="C106" s="148"/>
       <c r="D106" s="112" t="s">
         <v>127</v>
       </c>
@@ -36160,7 +36883,7 @@
       <c r="B107" s="22" t="s">
         <v>838</v>
       </c>
-      <c r="C107" s="143"/>
+      <c r="C107" s="148"/>
       <c r="D107" s="112" t="s">
         <v>127</v>
       </c>
@@ -36172,7 +36895,7 @@
       <c r="B108" s="22" t="s">
         <v>688</v>
       </c>
-      <c r="C108" s="143" t="s">
+      <c r="C108" s="148" t="s">
         <v>840</v>
       </c>
       <c r="D108" s="112" t="s">
@@ -36186,7 +36909,7 @@
       <c r="B109" s="22" t="s">
         <v>690</v>
       </c>
-      <c r="C109" s="143"/>
+      <c r="C109" s="148"/>
       <c r="D109" s="112" t="s">
         <v>127</v>
       </c>
@@ -36198,7 +36921,7 @@
       <c r="B110" s="22" t="s">
         <v>692</v>
       </c>
-      <c r="C110" s="143"/>
+      <c r="C110" s="148"/>
       <c r="D110" s="112" t="s">
         <v>127</v>
       </c>
@@ -36210,7 +36933,7 @@
       <c r="B111" s="22" t="s">
         <v>694</v>
       </c>
-      <c r="C111" s="143"/>
+      <c r="C111" s="148"/>
       <c r="D111" s="112" t="s">
         <v>127</v>
       </c>
@@ -36222,7 +36945,7 @@
       <c r="B112" s="22" t="s">
         <v>696</v>
       </c>
-      <c r="C112" s="143"/>
+      <c r="C112" s="148"/>
       <c r="D112" s="112" t="s">
         <v>127</v>
       </c>
@@ -36234,7 +36957,7 @@
       <c r="B113" s="22" t="s">
         <v>698</v>
       </c>
-      <c r="C113" s="143"/>
+      <c r="C113" s="148"/>
       <c r="D113" s="112" t="s">
         <v>127</v>
       </c>
@@ -36246,7 +36969,7 @@
       <c r="B114" s="22" t="s">
         <v>649</v>
       </c>
-      <c r="C114" s="143" t="s">
+      <c r="C114" s="148" t="s">
         <v>841</v>
       </c>
       <c r="D114" s="112" t="s">
@@ -36260,7 +36983,7 @@
       <c r="B115" s="22" t="s">
         <v>651</v>
       </c>
-      <c r="C115" s="143"/>
+      <c r="C115" s="148"/>
       <c r="D115" s="112" t="s">
         <v>127</v>
       </c>
@@ -36272,7 +36995,7 @@
       <c r="B116" s="22" t="s">
         <v>653</v>
       </c>
-      <c r="C116" s="143"/>
+      <c r="C116" s="148"/>
       <c r="D116" s="112" t="s">
         <v>127</v>
       </c>
@@ -36284,7 +37007,7 @@
       <c r="B117" s="22" t="s">
         <v>619</v>
       </c>
-      <c r="C117" s="143" t="s">
+      <c r="C117" s="148" t="s">
         <v>842</v>
       </c>
       <c r="D117" s="112" t="s">
@@ -36298,7 +37021,7 @@
       <c r="B118" s="22" t="s">
         <v>621</v>
       </c>
-      <c r="C118" s="143"/>
+      <c r="C118" s="148"/>
       <c r="D118" s="112" t="s">
         <v>127</v>
       </c>
@@ -36310,7 +37033,7 @@
       <c r="B119" s="22" t="s">
         <v>623</v>
       </c>
-      <c r="C119" s="143"/>
+      <c r="C119" s="148"/>
       <c r="D119" s="112" t="s">
         <v>127</v>
       </c>
@@ -36322,7 +37045,7 @@
       <c r="B120" s="22" t="s">
         <v>849</v>
       </c>
-      <c r="C120" s="143" t="s">
+      <c r="C120" s="148" t="s">
         <v>855</v>
       </c>
       <c r="D120" s="112" t="s">
@@ -36336,7 +37059,7 @@
       <c r="B121" s="22" t="s">
         <v>850</v>
       </c>
-      <c r="C121" s="143"/>
+      <c r="C121" s="148"/>
       <c r="D121" s="112" t="s">
         <v>127</v>
       </c>
@@ -36348,7 +37071,7 @@
       <c r="B122" s="22" t="s">
         <v>851</v>
       </c>
-      <c r="C122" s="143"/>
+      <c r="C122" s="148"/>
       <c r="D122" s="112" t="s">
         <v>127</v>
       </c>
@@ -36360,7 +37083,7 @@
       <c r="B123" s="22" t="s">
         <v>852</v>
       </c>
-      <c r="C123" s="143"/>
+      <c r="C123" s="148"/>
       <c r="D123" s="112" t="s">
         <v>127</v>
       </c>
@@ -36372,7 +37095,7 @@
       <c r="B124" s="22" t="s">
         <v>853</v>
       </c>
-      <c r="C124" s="143"/>
+      <c r="C124" s="148"/>
       <c r="D124" s="112" t="s">
         <v>127</v>
       </c>
@@ -36384,7 +37107,7 @@
       <c r="B125" s="22" t="s">
         <v>854</v>
       </c>
-      <c r="C125" s="143"/>
+      <c r="C125" s="148"/>
       <c r="D125" s="112" t="s">
         <v>127</v>
       </c>
@@ -36396,7 +37119,7 @@
       <c r="B126" s="22" t="s">
         <v>423</v>
       </c>
-      <c r="C126" s="143" t="s">
+      <c r="C126" s="148" t="s">
         <v>856</v>
       </c>
       <c r="D126" s="112" t="s">
@@ -36410,7 +37133,7 @@
       <c r="B127" s="22" t="s">
         <v>860</v>
       </c>
-      <c r="C127" s="143"/>
+      <c r="C127" s="148"/>
       <c r="D127" s="112" t="s">
         <v>127</v>
       </c>
@@ -36422,7 +37145,7 @@
       <c r="B128" s="22" t="s">
         <v>861</v>
       </c>
-      <c r="C128" s="143"/>
+      <c r="C128" s="148"/>
       <c r="D128" s="112" t="s">
         <v>127</v>
       </c>
@@ -36434,7 +37157,7 @@
       <c r="B129" s="22" t="s">
         <v>862</v>
       </c>
-      <c r="C129" s="143"/>
+      <c r="C129" s="148"/>
       <c r="D129" s="112" t="s">
         <v>127</v>
       </c>
@@ -36446,7 +37169,7 @@
       <c r="B130" s="22" t="s">
         <v>641</v>
       </c>
-      <c r="C130" s="143" t="s">
+      <c r="C130" s="148" t="s">
         <v>863</v>
       </c>
       <c r="D130" s="112" t="s">
@@ -36460,7 +37183,7 @@
       <c r="B131" s="22" t="s">
         <v>643</v>
       </c>
-      <c r="C131" s="143"/>
+      <c r="C131" s="148"/>
       <c r="D131" s="112" t="s">
         <v>127</v>
       </c>
@@ -36472,7 +37195,7 @@
       <c r="B132" s="22" t="s">
         <v>645</v>
       </c>
-      <c r="C132" s="143"/>
+      <c r="C132" s="148"/>
       <c r="D132" s="112" t="s">
         <v>127</v>
       </c>
@@ -36484,7 +37207,7 @@
       <c r="B133" s="22" t="s">
         <v>647</v>
       </c>
-      <c r="C133" s="143"/>
+      <c r="C133" s="148"/>
       <c r="D133" s="112" t="s">
         <v>127</v>
       </c>
@@ -36496,7 +37219,7 @@
       <c r="B134" s="22" t="s">
         <v>734</v>
       </c>
-      <c r="C134" s="143" t="s">
+      <c r="C134" s="148" t="s">
         <v>864</v>
       </c>
       <c r="D134" s="112" t="s">
@@ -36510,7 +37233,7 @@
       <c r="B135" s="22" t="s">
         <v>736</v>
       </c>
-      <c r="C135" s="143"/>
+      <c r="C135" s="148"/>
       <c r="D135" s="112" t="s">
         <v>127</v>
       </c>
@@ -36522,7 +37245,7 @@
       <c r="B136" s="22" t="s">
         <v>739</v>
       </c>
-      <c r="C136" s="143"/>
+      <c r="C136" s="148"/>
       <c r="D136" s="112" t="s">
         <v>127</v>
       </c>
@@ -36534,7 +37257,7 @@
       <c r="B137" s="22" t="s">
         <v>741</v>
       </c>
-      <c r="C137" s="143"/>
+      <c r="C137" s="148"/>
       <c r="D137" s="112" t="s">
         <v>127</v>
       </c>
@@ -36546,7 +37269,7 @@
       <c r="B138" s="22" t="s">
         <v>744</v>
       </c>
-      <c r="C138" s="143"/>
+      <c r="C138" s="148"/>
       <c r="D138" s="112" t="s">
         <v>127</v>
       </c>
@@ -36558,7 +37281,7 @@
       <c r="B139" s="22" t="s">
         <v>746</v>
       </c>
-      <c r="C139" s="143"/>
+      <c r="C139" s="148"/>
       <c r="D139" s="112" t="s">
         <v>127</v>
       </c>
@@ -36570,7 +37293,7 @@
       <c r="B140" s="22" t="s">
         <v>749</v>
       </c>
-      <c r="C140" s="143" t="s">
+      <c r="C140" s="148" t="s">
         <v>867</v>
       </c>
       <c r="D140" s="112" t="s">
@@ -36584,7 +37307,7 @@
       <c r="B141" s="22" t="s">
         <v>751</v>
       </c>
-      <c r="C141" s="143"/>
+      <c r="C141" s="148"/>
       <c r="D141" s="112" t="s">
         <v>127</v>
       </c>
@@ -36596,7 +37319,7 @@
       <c r="B142" s="22" t="s">
         <v>753</v>
       </c>
-      <c r="C142" s="143"/>
+      <c r="C142" s="148"/>
       <c r="D142" s="112" t="s">
         <v>127</v>
       </c>
@@ -36608,7 +37331,7 @@
       <c r="B143" s="22" t="s">
         <v>755</v>
       </c>
-      <c r="C143" s="143"/>
+      <c r="C143" s="148"/>
       <c r="D143" s="112" t="s">
         <v>127</v>
       </c>
@@ -36620,7 +37343,7 @@
       <c r="B144" s="22" t="s">
         <v>757</v>
       </c>
-      <c r="C144" s="143"/>
+      <c r="C144" s="148"/>
       <c r="D144" s="112" t="s">
         <v>127</v>
       </c>
@@ -36632,7 +37355,7 @@
       <c r="B145" s="22" t="s">
         <v>759</v>
       </c>
-      <c r="C145" s="143"/>
+      <c r="C145" s="148"/>
       <c r="D145" s="112" t="s">
         <v>127</v>
       </c>
@@ -36644,7 +37367,7 @@
       <c r="B146" s="22" t="s">
         <v>875</v>
       </c>
-      <c r="C146" s="143" t="s">
+      <c r="C146" s="148" t="s">
         <v>882</v>
       </c>
       <c r="D146" s="112" t="s">
@@ -36658,7 +37381,7 @@
       <c r="B147" s="22" t="s">
         <v>876</v>
       </c>
-      <c r="C147" s="143"/>
+      <c r="C147" s="148"/>
       <c r="D147" s="112" t="s">
         <v>127</v>
       </c>
@@ -36670,7 +37393,7 @@
       <c r="B148" s="22" t="s">
         <v>877</v>
       </c>
-      <c r="C148" s="143"/>
+      <c r="C148" s="148"/>
       <c r="D148" s="112" t="s">
         <v>127</v>
       </c>
@@ -36682,7 +37405,7 @@
       <c r="B149" s="22" t="s">
         <v>878</v>
       </c>
-      <c r="C149" s="143"/>
+      <c r="C149" s="148"/>
       <c r="D149" s="112" t="s">
         <v>127</v>
       </c>
@@ -36694,7 +37417,7 @@
       <c r="B150" s="22" t="s">
         <v>879</v>
       </c>
-      <c r="C150" s="143"/>
+      <c r="C150" s="148"/>
       <c r="D150" s="112" t="s">
         <v>127</v>
       </c>
@@ -36706,7 +37429,7 @@
       <c r="B151" s="22" t="s">
         <v>880</v>
       </c>
-      <c r="C151" s="143"/>
+      <c r="C151" s="148"/>
       <c r="D151" s="112" t="s">
         <v>127</v>
       </c>
@@ -36718,7 +37441,7 @@
       <c r="B152" s="22" t="s">
         <v>881</v>
       </c>
-      <c r="C152" s="143"/>
+      <c r="C152" s="148"/>
       <c r="D152" s="112" t="s">
         <v>127</v>
       </c>
@@ -36730,7 +37453,7 @@
       <c r="B153" s="22" t="s">
         <v>704</v>
       </c>
-      <c r="C153" s="143"/>
+      <c r="C153" s="148"/>
       <c r="D153" s="112" t="s">
         <v>127</v>
       </c>
@@ -36742,7 +37465,7 @@
       <c r="B154" s="22" t="s">
         <v>706</v>
       </c>
-      <c r="C154" s="143"/>
+      <c r="C154" s="148"/>
       <c r="D154" s="112" t="s">
         <v>127</v>
       </c>
@@ -36754,7 +37477,7 @@
       <c r="B155" s="22" t="s">
         <v>708</v>
       </c>
-      <c r="C155" s="143"/>
+      <c r="C155" s="148"/>
       <c r="D155" s="112" t="s">
         <v>127</v>
       </c>
@@ -36766,7 +37489,7 @@
       <c r="B156" s="22" t="s">
         <v>710</v>
       </c>
-      <c r="C156" s="143"/>
+      <c r="C156" s="148"/>
       <c r="D156" s="112" t="s">
         <v>127</v>
       </c>
@@ -36778,7 +37501,7 @@
       <c r="B157" s="22" t="s">
         <v>712</v>
       </c>
-      <c r="C157" s="143"/>
+      <c r="C157" s="148"/>
       <c r="D157" s="112" t="s">
         <v>127</v>
       </c>
@@ -36790,7 +37513,7 @@
       <c r="B158" s="22" t="s">
         <v>714</v>
       </c>
-      <c r="C158" s="143"/>
+      <c r="C158" s="148"/>
       <c r="D158" s="112" t="s">
         <v>127</v>
       </c>
@@ -36802,7 +37525,7 @@
       <c r="B159" s="22" t="s">
         <v>716</v>
       </c>
-      <c r="C159" s="143"/>
+      <c r="C159" s="148"/>
       <c r="D159" s="112" t="s">
         <v>127</v>
       </c>
@@ -36814,7 +37537,7 @@
       <c r="B160" s="22" t="s">
         <v>770</v>
       </c>
-      <c r="C160" s="143" t="s">
+      <c r="C160" s="148" t="s">
         <v>883</v>
       </c>
       <c r="D160" s="112" t="s">
@@ -36828,7 +37551,7 @@
       <c r="B161" s="22" t="s">
         <v>774</v>
       </c>
-      <c r="C161" s="143"/>
+      <c r="C161" s="148"/>
       <c r="D161" s="112" t="s">
         <v>127</v>
       </c>
@@ -36840,13 +37563,459 @@
       <c r="B162" s="22" t="s">
         <v>776</v>
       </c>
-      <c r="C162" s="143"/>
+      <c r="C162" s="148"/>
       <c r="D162" s="112" t="s">
         <v>127</v>
       </c>
     </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="92" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B163" s="44" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C163" s="148" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D163" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="92" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B164" s="44" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C164" s="148"/>
+      <c r="D164" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="92" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B165" s="44" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C165" s="148"/>
+      <c r="D165" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="92" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B166" s="44" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C166" s="148"/>
+      <c r="D166" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="92" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B167" s="44" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C167" s="148"/>
+      <c r="D167" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="92" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B168" s="44" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C168" s="148"/>
+      <c r="D168" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="92" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B169" s="44" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C169" s="148"/>
+      <c r="D169" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="92" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B170" s="44" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C170" s="148"/>
+      <c r="D170" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="92" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B171" s="44" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C171" s="148"/>
+      <c r="D171" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="92" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B172" s="44" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C172" s="148" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D172" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="92" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B173" s="44" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C173" s="148"/>
+      <c r="D173" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="92" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B174" s="44" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C174" s="148"/>
+      <c r="D174" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="92" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B175" s="44" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C175" s="148"/>
+      <c r="D175" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="92" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B176" s="44" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C176" s="148"/>
+      <c r="D176" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="92" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B177" s="44" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C177" s="148"/>
+      <c r="D177" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="92" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B178" s="44" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C178" s="148"/>
+      <c r="D178" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="92" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B179" s="44" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C179" s="148"/>
+      <c r="D179" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="92" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B180" s="44" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C180" s="148"/>
+      <c r="D180" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="118" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B181" s="44" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C181" s="146" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D181" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="118" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B182" s="44" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C182" s="147"/>
+      <c r="D182" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="118" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B183" s="44" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C183" s="147"/>
+      <c r="D183" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="118" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B184" s="44" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C184" s="147"/>
+      <c r="D184" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="118" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B185" s="44" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C185" s="147"/>
+      <c r="D185" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="118" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B186" s="44" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C186" s="147"/>
+      <c r="D186" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="118" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B187" s="44" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C187" s="147"/>
+      <c r="D187" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="119" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B188" s="121" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C188" s="147"/>
+      <c r="D188" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="92" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B189" s="44" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C189" s="148" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D189" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="92" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B190" s="44" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C190" s="148"/>
+      <c r="D190" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="92" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B191" s="44" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C191" s="148"/>
+      <c r="D191" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="92" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B192" s="44" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C192" s="148"/>
+      <c r="D192" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="92" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B193" s="44" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C193" s="148"/>
+      <c r="D193" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="92" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B194" s="44" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C194" s="146" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D194" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="92" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B195" s="44" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C195" s="147"/>
+      <c r="D195" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="92" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B196" s="44" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C196" s="147"/>
+      <c r="D196" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="92" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B197" s="44" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C197" s="147"/>
+      <c r="D197" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="92" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B198" s="44" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C198" s="147"/>
+      <c r="D198" s="112" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="34">
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="C194:C198"/>
+    <mergeCell ref="C97:C100"/>
+    <mergeCell ref="C172:C180"/>
     <mergeCell ref="C75:C77"/>
     <mergeCell ref="C2:C11"/>
     <mergeCell ref="C39:C43"/>
@@ -36861,21 +38030,22 @@
     <mergeCell ref="C12:C18"/>
     <mergeCell ref="C19:C24"/>
     <mergeCell ref="C25:C31"/>
-    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="C181:C188"/>
+    <mergeCell ref="C189:C193"/>
+    <mergeCell ref="C44:C55"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="C163:C171"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="C134:C139"/>
+    <mergeCell ref="C140:C145"/>
+    <mergeCell ref="C146:C159"/>
+    <mergeCell ref="C160:C162"/>
     <mergeCell ref="C102:C107"/>
     <mergeCell ref="C78:C82"/>
     <mergeCell ref="C84:C85"/>
     <mergeCell ref="C87:C89"/>
     <mergeCell ref="C90:C94"/>
     <mergeCell ref="C95:C96"/>
-    <mergeCell ref="C97:C100"/>
-    <mergeCell ref="C44:C55"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="C134:C139"/>
-    <mergeCell ref="C140:C145"/>
-    <mergeCell ref="C146:C159"/>
-    <mergeCell ref="C160:C162"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C2 C12 C19 C25 A1:B31 C32 A39:C1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
@@ -36884,7 +38054,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D162">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D198">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -36905,35 +38075,35 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="32.88671875" style="3" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="33" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="39.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="35.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="32.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="33.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="29.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="30.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="39.44140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="35.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="28.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="32.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="33.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="29.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="30.33203125" style="3" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="34" style="3" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="29.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="27.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="36.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="28.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="39.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="26.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="21.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="23.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="27" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="17" max="17" width="29.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="20.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="36.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="28.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="39.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="19.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="26.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="21.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="23.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="27" max="16384" width="9.109375" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -37080,7 +38250,7 @@
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
-      <c r="X2" s="118"/>
+      <c r="X2" s="116"/>
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
@@ -37120,7 +38290,7 @@
       <c r="W3" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="X3" s="118"/>
+      <c r="X3" s="116"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
@@ -37156,7 +38326,7 @@
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
-      <c r="X4" s="118"/>
+      <c r="X4" s="116"/>
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
@@ -37196,7 +38366,7 @@
       <c r="W5" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="X5" s="118" t="s">
+      <c r="X5" s="116" t="s">
         <v>273</v>
       </c>
       <c r="Y5" s="5"/>
@@ -37232,7 +38402,7 @@
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
-      <c r="X6" s="118"/>
+      <c r="X6" s="116"/>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
@@ -37266,7 +38436,7 @@
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
-      <c r="X7" s="118"/>
+      <c r="X7" s="116"/>
       <c r="Y7" s="5" t="s">
         <v>1009</v>
       </c>
@@ -37304,7 +38474,7 @@
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
-      <c r="X8" s="118"/>
+      <c r="X8" s="116"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
@@ -37328,29 +38498,29 @@
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" customWidth="1"/>
-    <col min="5" max="5" width="50.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" customWidth="1"/>
+    <col min="5" max="5" width="50.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" customWidth="1"/>
-    <col min="19" max="19" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="16" max="16" width="18.5546875" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+    <col min="18" max="18" width="14.88671875" customWidth="1"/>
+    <col min="19" max="19" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="45">
+    <row r="1" spans="1:19" ht="43.2">
       <c r="A1" s="81" t="s">
         <v>249</v>
       </c>
@@ -37502,24 +38672,24 @@
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="15" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="27" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="20" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.88671875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.44140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="24.6640625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="24.5546875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="21.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -37565,10 +38735,10 @@
       <c r="N1" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="O1" s="117" t="s">
+      <c r="O1" s="115" t="s">
         <v>212</v>
       </c>
-      <c r="P1" s="117" t="s">
+      <c r="P1" s="115" t="s">
         <v>213</v>
       </c>
     </row>
